--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -465,11 +465,11 @@
         <v>19719</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -481,11 +481,11 @@
         <v>20753</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -497,11 +497,11 @@
         <v>10541</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -513,11 +513,11 @@
         <v>10752</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -529,11 +529,11 @@
         <v>12230</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -545,11 +545,11 @@
         <v>13805</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -561,11 +561,11 @@
         <v>13773</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -577,11 +577,11 @@
         <v>14690</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -593,11 +593,11 @@
         <v>14994</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -609,11 +609,11 @@
         <v>14916</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -625,11 +625,11 @@
         <v>14885</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -641,11 +641,11 @@
         <v>15908</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -657,11 +657,11 @@
         <v>16342</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -673,11 +673,11 @@
         <v>17164</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -689,11 +689,11 @@
         <v>17142</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -705,11 +705,11 @@
         <v>17141</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -721,11 +721,11 @@
         <v>17058</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -737,11 +737,11 @@
         <v>17046</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -753,11 +753,11 @@
         <v>17236</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -769,11 +769,11 @@
         <v>17481</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -785,11 +785,11 @@
         <v>18632</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
@@ -801,11 +801,11 @@
         <v>21387</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -817,11 +817,11 @@
         <v>21504</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -833,11 +833,11 @@
         <v>21802</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -849,11 +849,11 @@
         <v>21803</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -865,11 +865,11 @@
         <v>21801</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -881,11 +881,11 @@
         <v>22120</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -897,11 +897,11 @@
         <v>22537</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -913,11 +913,11 @@
         <v>22540</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -929,11 +929,11 @@
         <v>22756</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -945,11 +945,11 @@
         <v>22758</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -961,11 +961,11 @@
         <v>23492</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -977,11 +977,11 @@
         <v>24244</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -993,11 +993,11 @@
         <v>24638</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1009,11 +1009,11 @@
         <v>25518</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
@@ -1025,11 +1025,11 @@
         <v>25654</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1041,11 +1041,11 @@
         <v>25685</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1057,11 +1057,11 @@
         <v>25839</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -1073,11 +1073,11 @@
         <v>26408</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1089,11 +1089,11 @@
         <v>26504</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1105,11 +1105,11 @@
         <v>26672</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1121,11 +1121,11 @@
         <v>26713</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1137,11 +1137,11 @@
         <v>26955</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -1153,11 +1153,11 @@
         <v>28210</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -1169,11 +1169,11 @@
         <v>27464</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
@@ -1185,11 +1185,11 @@
         <v>27533</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -1201,11 +1201,11 @@
         <v>27599</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -1217,11 +1217,11 @@
         <v>27864</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1233,11 +1233,11 @@
         <v>28218</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -1249,11 +1249,11 @@
         <v>28781</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
@@ -1265,11 +1265,11 @@
         <v>29108</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
@@ -1281,11 +1281,11 @@
         <v>29204</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -1297,11 +1297,11 @@
         <v>29360</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>29464</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1329,11 +1329,11 @@
         <v>29718</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -1345,11 +1345,11 @@
         <v>30072</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -1361,11 +1361,11 @@
         <v>30038</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -1377,11 +1377,11 @@
         <v>30434</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>30449</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1409,11 +1409,11 @@
         <v>30553</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -1425,11 +1425,11 @@
         <v>30702</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -1441,11 +1441,11 @@
         <v>30709</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
@@ -1457,11 +1457,11 @@
         <v>30713</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
@@ -1473,11 +1473,11 @@
         <v>30997</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
@@ -1489,11 +1489,11 @@
         <v>31244</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -1505,11 +1505,11 @@
         <v>31621</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -1521,11 +1521,11 @@
         <v>31625</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -1537,11 +1537,11 @@
         <v>31754</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -1553,11 +1553,11 @@
         <v>31757</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1569,11 +1569,11 @@
         <v>31748</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
@@ -1585,11 +1585,11 @@
         <v>31749</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -1601,11 +1601,11 @@
         <v>31830</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -1617,11 +1617,11 @@
         <v>31950</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -1633,11 +1633,11 @@
         <v>31951</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -1649,11 +1649,11 @@
         <v>31952</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -1665,11 +1665,11 @@
         <v>32053</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -1681,11 +1681,11 @@
         <v>32125</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -1697,11 +1697,11 @@
         <v>32495</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -1713,11 +1713,11 @@
         <v>32880</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -1729,11 +1729,11 @@
         <v>33200</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -1745,11 +1745,11 @@
         <v>33958</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
@@ -1761,11 +1761,11 @@
         <v>34150</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -1777,11 +1777,11 @@
         <v>34822</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -1793,11 +1793,11 @@
         <v>35051</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -1809,11 +1809,11 @@
         <v>35146</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>35450</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -1841,11 +1841,11 @@
         <v>35778</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
@@ -1857,11 +1857,11 @@
         <v>36026</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -1873,11 +1873,11 @@
         <v>36414</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -1889,11 +1889,11 @@
         <v>36847</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -1905,11 +1905,11 @@
         <v>37189</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>37353</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -1937,11 +1937,11 @@
         <v>38319</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -1953,11 +1953,11 @@
         <v>37527</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
@@ -1969,11 +1969,11 @@
         <v>37775</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
@@ -1985,11 +1985,11 @@
         <v>38447</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
@@ -2001,11 +2001,11 @@
         <v>38516</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
@@ -2017,11 +2017,11 @@
         <v>38523</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
@@ -2033,11 +2033,11 @@
         <v>38476</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2049,11 +2049,11 @@
         <v>39049</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
@@ -2065,11 +2065,11 @@
         <v>39260</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
@@ -2081,11 +2081,11 @@
         <v>39431</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2097,11 +2097,11 @@
         <v>39722</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -2113,11 +2113,11 @@
         <v>39945</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -2129,11 +2129,11 @@
         <v>40096</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -2145,11 +2145,11 @@
         <v>40464</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -2161,11 +2161,11 @@
         <v>40580</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
@@ -2177,11 +2177,11 @@
         <v>40679</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -2193,11 +2193,11 @@
         <v>41312</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2209,11 +2209,11 @@
         <v>41313</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -2225,11 +2225,11 @@
         <v>41456</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -2241,11 +2241,11 @@
         <v>41457</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
@@ -2257,11 +2257,11 @@
         <v>41864</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -2273,11 +2273,11 @@
         <v>43110</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2289,11 +2289,11 @@
         <v>42911</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2305,11 +2305,11 @@
         <v>43114</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
@@ -2321,11 +2321,11 @@
         <v>43118</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -2337,11 +2337,11 @@
         <v>43228</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
@@ -2353,11 +2353,11 @@
         <v>43230</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
@@ -2369,11 +2369,11 @@
         <v>43351</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -2385,11 +2385,11 @@
         <v>43594</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -2401,11 +2401,11 @@
         <v>43442</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
@@ -2417,11 +2417,11 @@
         <v>43443</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
@@ -2433,11 +2433,11 @@
         <v>44031</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -2449,11 +2449,11 @@
         <v>43958</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
@@ -2465,11 +2465,11 @@
         <v>45148</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>45373</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2497,11 +2497,11 @@
         <v>45375</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -2513,11 +2513,11 @@
         <v>45377</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
@@ -2529,11 +2529,11 @@
         <v>45887</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
@@ -2545,11 +2545,11 @@
         <v>45689</v>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2561,11 +2561,11 @@
         <v>45699</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2577,11 +2577,11 @@
         <v>45914</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2593,11 +2593,11 @@
         <v>45991</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -2609,11 +2609,11 @@
         <v>45992</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>45994</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -2641,11 +2641,11 @@
         <v>46194</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
@@ -2657,11 +2657,11 @@
         <v>46104</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -2673,11 +2673,11 @@
         <v>46488</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
@@ -2689,11 +2689,11 @@
         <v>46489</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -2705,11 +2705,11 @@
         <v>46599</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -2721,11 +2721,11 @@
         <v>46602</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -2737,11 +2737,11 @@
         <v>46608</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -2753,11 +2753,11 @@
         <v>46609</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
@@ -2769,11 +2769,11 @@
         <v>46883</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2785,11 +2785,11 @@
         <v>46940</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
@@ -2801,11 +2801,11 @@
         <v>47161</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
@@ -2817,11 +2817,11 @@
         <v>47166</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -2833,11 +2833,11 @@
         <v>47170</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -2849,11 +2849,11 @@
         <v>47171</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -2865,11 +2865,11 @@
         <v>47172</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -2881,11 +2881,11 @@
         <v>47414</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -2897,11 +2897,11 @@
         <v>47601</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
@@ -2913,11 +2913,11 @@
         <v>47606</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D155" s="2" t="n">
@@ -2929,11 +2929,11 @@
         <v>47420</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>47769</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -2961,11 +2961,11 @@
         <v>47770</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -2977,11 +2977,11 @@
         <v>47775</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D159" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>47929</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -3009,11 +3009,11 @@
         <v>47793</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -3025,11 +3025,11 @@
         <v>47800</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -3041,11 +3041,11 @@
         <v>47801</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -3057,11 +3057,11 @@
         <v>47804</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3073,11 +3073,11 @@
         <v>47807</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -3089,11 +3089,11 @@
         <v>47924</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
@@ -3105,11 +3105,11 @@
         <v>48419</v>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -3121,11 +3121,11 @@
         <v>48568</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3137,11 +3137,11 @@
         <v>48876</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D169" s="2" t="n">
@@ -3153,11 +3153,11 @@
         <v>48878</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
@@ -3169,11 +3169,11 @@
         <v>48791</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
@@ -3185,11 +3185,11 @@
         <v>49236</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
@@ -3201,11 +3201,11 @@
         <v>49237</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
@@ -3217,11 +3217,11 @@
         <v>49242</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>49565</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3249,11 +3249,11 @@
         <v>49814</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -3265,11 +3265,11 @@
         <v>49977</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -3281,11 +3281,11 @@
         <v>49985</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
@@ -3297,11 +3297,11 @@
         <v>50051</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
@@ -3313,11 +3313,11 @@
         <v>50054</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -3329,11 +3329,11 @@
         <v>50056</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -3345,11 +3345,11 @@
         <v>50058</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
@@ -3361,11 +3361,11 @@
         <v>50214</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3377,11 +3377,11 @@
         <v>50538</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -3393,11 +3393,11 @@
         <v>50539</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
@@ -3409,11 +3409,11 @@
         <v>50645</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -3425,11 +3425,11 @@
         <v>50845</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -3441,11 +3441,11 @@
         <v>50846</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
@@ -3457,11 +3457,11 @@
         <v>50849</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>50850</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3489,11 +3489,11 @@
         <v>50852</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
@@ -3505,11 +3505,11 @@
         <v>50936</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
@@ -3521,11 +3521,11 @@
         <v>51214</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -3537,11 +3537,11 @@
         <v>51328</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
@@ -3553,11 +3553,11 @@
         <v>51335</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -3569,11 +3569,11 @@
         <v>51349</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
@@ -3585,11 +3585,11 @@
         <v>51541</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
@@ -3601,11 +3601,11 @@
         <v>51544</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
@@ -3617,11 +3617,11 @@
         <v>51552</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -3633,11 +3633,11 @@
         <v>51555</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -3649,11 +3649,11 @@
         <v>51556</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
@@ -3665,11 +3665,11 @@
         <v>52248</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>52325</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -3697,11 +3697,11 @@
         <v>52256</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
@@ -3713,11 +3713,11 @@
         <v>52333</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
@@ -3729,11 +3729,11 @@
         <v>52334</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
@@ -3745,11 +3745,11 @@
         <v>52588</v>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -3761,11 +3761,11 @@
         <v>52914</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
@@ -3777,11 +3777,11 @@
         <v>52996</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
@@ -3793,11 +3793,11 @@
         <v>53003</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D210" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>53044</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -3825,11 +3825,11 @@
         <v>53046</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D212" s="2" t="n">
@@ -3841,11 +3841,11 @@
         <v>53258</v>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D213" s="2" t="n">
@@ -3857,11 +3857,11 @@
         <v>53441</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -3873,11 +3873,11 @@
         <v>53459</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D215" s="2" t="n">
@@ -3889,11 +3889,11 @@
         <v>55164</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
@@ -3905,11 +3905,11 @@
         <v>55170</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -3921,11 +3921,11 @@
         <v>55313</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
@@ -3937,11 +3937,11 @@
         <v>55750</v>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -3953,11 +3953,11 @@
         <v>55792</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
@@ -3969,11 +3969,11 @@
         <v>56210</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
@@ -3985,11 +3985,11 @@
         <v>56783</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
@@ -4001,11 +4001,11 @@
         <v>56878</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
@@ -4017,11 +4017,11 @@
         <v>56932</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4033,11 +4033,11 @@
         <v>56936</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4049,11 +4049,11 @@
         <v>57326</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
@@ -4065,11 +4065,11 @@
         <v>57141</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>57567</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4097,11 +4097,11 @@
         <v>57571</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
@@ -4113,11 +4113,11 @@
         <v>57576</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
@@ -4129,11 +4129,11 @@
         <v>57625</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
@@ -4145,11 +4145,11 @@
         <v>57630</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -4161,11 +4161,11 @@
         <v>57737</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -4177,11 +4177,11 @@
         <v>57886</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -4193,11 +4193,11 @@
         <v>57820</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
@@ -4209,11 +4209,11 @@
         <v>58978</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -4225,11 +4225,11 @@
         <v>58983</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -4241,11 +4241,11 @@
         <v>59068</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4257,11 +4257,11 @@
         <v>59069</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -4273,11 +4273,11 @@
         <v>59186</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
@@ -4289,11 +4289,11 @@
         <v>59258</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -4305,11 +4305,11 @@
         <v>59291</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -4321,11 +4321,11 @@
         <v>59267</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4337,11 +4337,11 @@
         <v>59536</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
@@ -4353,11 +4353,11 @@
         <v>59738</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -4369,11 +4369,11 @@
         <v>59740</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4385,11 +4385,11 @@
         <v>59742</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -4401,11 +4401,11 @@
         <v>59750</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D248" s="2" t="n">
@@ -4417,11 +4417,11 @@
         <v>59756</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4433,11 +4433,11 @@
         <v>59758</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -4449,11 +4449,11 @@
         <v>59759</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -4465,11 +4465,11 @@
         <v>59760</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
@@ -4481,11 +4481,11 @@
         <v>59761</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -4497,11 +4497,11 @@
         <v>59894</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
@@ -4513,11 +4513,11 @@
         <v>59897</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -4529,11 +4529,11 @@
         <v>59764</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
@@ -4545,11 +4545,11 @@
         <v>60147</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
@@ -4561,11 +4561,11 @@
         <v>60221</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
@@ -4577,11 +4577,11 @@
         <v>60224</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -4593,11 +4593,11 @@
         <v>60372</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
@@ -4609,11 +4609,11 @@
         <v>60268</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -4625,11 +4625,11 @@
         <v>60506</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -4641,11 +4641,11 @@
         <v>60620</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4657,11 +4657,11 @@
         <v>60622</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -4673,11 +4673,11 @@
         <v>60678</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
@@ -4689,11 +4689,11 @@
         <v>60739</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
@@ -4705,11 +4705,11 @@
         <v>60742</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D267" s="2" t="n">
@@ -4721,11 +4721,11 @@
         <v>60876</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D268" s="2" t="n">
@@ -4737,11 +4737,11 @@
         <v>60880</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D269" s="2" t="n">
@@ -4753,11 +4753,11 @@
         <v>60962</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
@@ -4769,11 +4769,11 @@
         <v>61062</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
@@ -4785,11 +4785,11 @@
         <v>61243</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
@@ -4801,11 +4801,11 @@
         <v>61246</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>61247</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4833,11 +4833,11 @@
         <v>61294</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
@@ -4849,11 +4849,11 @@
         <v>61484</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -4865,11 +4865,11 @@
         <v>62051</v>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D277" s="2" t="n">
@@ -4881,11 +4881,11 @@
         <v>62129</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -4897,11 +4897,11 @@
         <v>62209</v>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>62218</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -4929,11 +4929,11 @@
         <v>62349</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
@@ -4945,11 +4945,11 @@
         <v>62350</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
@@ -4961,11 +4961,11 @@
         <v>62352</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -4977,11 +4977,11 @@
         <v>62541</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
@@ -4993,11 +4993,11 @@
         <v>62419</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
@@ -5009,11 +5009,11 @@
         <v>62709</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
@@ -5025,11 +5025,11 @@
         <v>62713</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
@@ -5041,11 +5041,11 @@
         <v>62853</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
@@ -5057,11 +5057,11 @@
         <v>63831</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
@@ -5073,11 +5073,11 @@
         <v>63039</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -5089,11 +5089,11 @@
         <v>63041</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
@@ -5105,11 +5105,11 @@
         <v>63053</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
@@ -5121,11 +5121,11 @@
         <v>63311</v>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
@@ -5137,11 +5137,11 @@
         <v>63313</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -5153,11 +5153,11 @@
         <v>63479</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
@@ -5169,11 +5169,11 @@
         <v>63727</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>63844</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5201,11 +5201,11 @@
         <v>63846</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>63848</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5233,11 +5233,11 @@
         <v>64031</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
@@ -5249,11 +5249,11 @@
         <v>64033</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>64115</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -5281,11 +5281,11 @@
         <v>64116</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
@@ -5297,11 +5297,11 @@
         <v>64118</v>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -5313,11 +5313,11 @@
         <v>64124</v>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -5329,11 +5329,11 @@
         <v>64322</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
@@ -5345,11 +5345,11 @@
         <v>64635</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
@@ -5361,11 +5361,11 @@
         <v>64819</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5377,11 +5377,11 @@
         <v>64821</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
@@ -5393,11 +5393,11 @@
         <v>64823</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
@@ -5409,11 +5409,11 @@
         <v>64912</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
@@ -5425,11 +5425,11 @@
         <v>64976</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -5441,11 +5441,11 @@
         <v>65396</v>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
@@ -5457,11 +5457,11 @@
         <v>65773</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
@@ -5473,11 +5473,11 @@
         <v>65775</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
@@ -5489,11 +5489,11 @@
         <v>65924</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
@@ -5505,11 +5505,11 @@
         <v>65925</v>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
@@ -5521,11 +5521,11 @@
         <v>66012</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
@@ -5537,11 +5537,11 @@
         <v>66048</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -5553,11 +5553,11 @@
         <v>66112</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
@@ -5569,11 +5569,11 @@
         <v>66343</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
@@ -5585,11 +5585,11 @@
         <v>66122</v>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
@@ -5601,11 +5601,11 @@
         <v>66171</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
@@ -5617,11 +5617,11 @@
         <v>66460</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -5633,11 +5633,11 @@
         <v>66461</v>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
@@ -5649,11 +5649,11 @@
         <v>66602</v>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
@@ -5665,11 +5665,11 @@
         <v>66943</v>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
@@ -5681,11 +5681,11 @@
         <v>66609</v>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
@@ -5697,11 +5697,11 @@
         <v>66614</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -5713,11 +5713,11 @@
         <v>66675</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
@@ -5729,11 +5729,11 @@
         <v>66676</v>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>66733</v>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -5761,11 +5761,11 @@
         <v>66860</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
@@ -5777,11 +5777,11 @@
         <v>66844</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
@@ -5793,11 +5793,11 @@
         <v>66846</v>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
@@ -5809,11 +5809,11 @@
         <v>67159</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
@@ -5825,11 +5825,11 @@
         <v>67298</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
@@ -5841,11 +5841,11 @@
         <v>67301</v>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
@@ -5857,11 +5857,11 @@
         <v>67453</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
@@ -5873,11 +5873,11 @@
         <v>67550</v>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>67780</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -5905,11 +5905,11 @@
         <v>67843</v>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
@@ -5921,11 +5921,11 @@
         <v>68467</v>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
@@ -5937,11 +5937,11 @@
         <v>68415</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -5953,11 +5953,11 @@
         <v>68176</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
@@ -5969,11 +5969,11 @@
         <v>68182</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
@@ -5985,11 +5985,11 @@
         <v>68183</v>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
@@ -6001,11 +6001,11 @@
         <v>68184</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -6017,11 +6017,11 @@
         <v>68189</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>68326</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6049,11 +6049,11 @@
         <v>68468</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
@@ -6065,11 +6065,11 @@
         <v>68541</v>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>68542</v>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6097,11 +6097,11 @@
         <v>68572</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
@@ -6113,11 +6113,11 @@
         <v>68545</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
@@ -6129,11 +6129,11 @@
         <v>68577</v>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
@@ -6145,11 +6145,11 @@
         <v>68746</v>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6161,11 +6161,11 @@
         <v>68673</v>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
@@ -6177,11 +6177,11 @@
         <v>68674</v>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
@@ -6193,11 +6193,11 @@
         <v>68675</v>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -6209,11 +6209,11 @@
         <v>68750</v>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -6225,11 +6225,11 @@
         <v>68677</v>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
@@ -6241,11 +6241,11 @@
         <v>68755</v>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
@@ -6257,11 +6257,11 @@
         <v>68901</v>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
@@ -6273,11 +6273,11 @@
         <v>68852</v>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
@@ -6289,11 +6289,11 @@
         <v>68853</v>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6305,11 +6305,11 @@
         <v>68977</v>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6321,11 +6321,11 @@
         <v>68978</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
@@ -6337,11 +6337,11 @@
         <v>69345</v>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -6353,11 +6353,11 @@
         <v>69070</v>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
@@ -6369,11 +6369,11 @@
         <v>69485</v>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
@@ -6385,11 +6385,11 @@
         <v>69487</v>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
@@ -6401,11 +6401,11 @@
         <v>69644</v>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
@@ -6417,11 +6417,11 @@
         <v>69652</v>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D374" s="2" t="n">
@@ -6433,11 +6433,11 @@
         <v>69653</v>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
@@ -6449,11 +6449,11 @@
         <v>69648</v>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
@@ -6465,11 +6465,11 @@
         <v>69741</v>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
@@ -6481,11 +6481,11 @@
         <v>69752</v>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
@@ -6497,11 +6497,11 @@
         <v>69763</v>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D379" s="2" t="n">
@@ -6513,11 +6513,11 @@
         <v>69911</v>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D380" s="2" t="n">
@@ -6529,11 +6529,11 @@
         <v>69912</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -6545,11 +6545,11 @@
         <v>70298</v>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
@@ -6561,11 +6561,11 @@
         <v>70299</v>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
@@ -6577,11 +6577,11 @@
         <v>70333</v>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -6593,11 +6593,11 @@
         <v>70338</v>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
@@ -6609,11 +6609,11 @@
         <v>70343</v>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
@@ -6625,11 +6625,11 @@
         <v>70697</v>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
@@ -6641,11 +6641,11 @@
         <v>70698</v>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
@@ -6657,11 +6657,11 @@
         <v>70795</v>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
@@ -6673,11 +6673,11 @@
         <v>70871</v>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
@@ -6689,11 +6689,11 @@
         <v>70959</v>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
@@ -6705,11 +6705,11 @@
         <v>70960</v>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
@@ -6721,11 +6721,11 @@
         <v>71054</v>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
@@ -6737,11 +6737,11 @@
         <v>71063</v>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
@@ -6753,11 +6753,11 @@
         <v>71064</v>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
@@ -6769,11 +6769,11 @@
         <v>71156</v>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
@@ -6785,11 +6785,11 @@
         <v>71159</v>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
@@ -6801,11 +6801,11 @@
         <v>71168</v>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
@@ -6817,11 +6817,11 @@
         <v>71172</v>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -6833,11 +6833,11 @@
         <v>71163</v>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
@@ -6849,11 +6849,11 @@
         <v>71652</v>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
@@ -6865,11 +6865,11 @@
         <v>71653</v>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -6881,11 +6881,11 @@
         <v>71779</v>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D403" s="2" t="n">
@@ -6897,11 +6897,11 @@
         <v>71780</v>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>71856</v>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -6929,11 +6929,11 @@
         <v>71857</v>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D406" s="2" t="n">
@@ -6945,11 +6945,11 @@
         <v>71986</v>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
@@ -6961,11 +6961,11 @@
         <v>71998</v>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D408" s="2" t="n">
@@ -6977,11 +6977,11 @@
         <v>72002</v>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
@@ -6993,11 +6993,11 @@
         <v>72082</v>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D410" s="2" t="n">
@@ -7009,11 +7009,11 @@
         <v>72191</v>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D411" s="2" t="n">
@@ -7025,11 +7025,11 @@
         <v>72329</v>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
@@ -7041,11 +7041,11 @@
         <v>72192</v>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D413" s="2" t="n">
@@ -7057,11 +7057,11 @@
         <v>72330</v>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D414" s="2" t="n">
@@ -7073,11 +7073,11 @@
         <v>72332</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
@@ -7089,11 +7089,11 @@
         <v>72333</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
@@ -7105,11 +7105,11 @@
         <v>72343</v>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
@@ -7121,11 +7121,11 @@
         <v>72344</v>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
@@ -7137,11 +7137,11 @@
         <v>72345</v>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7153,11 +7153,11 @@
         <v>72528</v>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D420" s="2" t="n">
@@ -7169,11 +7169,11 @@
         <v>72531</v>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D421" s="2" t="n">
@@ -7185,11 +7185,11 @@
         <v>72541</v>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
@@ -7201,11 +7201,11 @@
         <v>72659</v>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D423" s="2" t="n">
@@ -7217,11 +7217,11 @@
         <v>72739</v>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>72742</v>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -7249,11 +7249,11 @@
         <v>72746</v>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7265,11 +7265,11 @@
         <v>72983</v>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D427" s="2" t="n">
@@ -7281,11 +7281,11 @@
         <v>73026</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7297,11 +7297,11 @@
         <v>73485</v>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
@@ -7313,11 +7313,11 @@
         <v>73508</v>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
@@ -7329,11 +7329,11 @@
         <v>73512</v>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -7345,11 +7345,11 @@
         <v>73532</v>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D432" s="2" t="n">
@@ -7361,11 +7361,11 @@
         <v>73645</v>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7377,11 +7377,11 @@
         <v>73647</v>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
@@ -7393,11 +7393,11 @@
         <v>73741</v>
       </c>
       <c r="B435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
@@ -7409,11 +7409,11 @@
         <v>73743</v>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D436" s="2" t="n">
@@ -7425,11 +7425,11 @@
         <v>73750</v>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -7441,11 +7441,11 @@
         <v>73751</v>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D438" s="2" t="n">
@@ -7457,11 +7457,11 @@
         <v>73759</v>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
@@ -7473,11 +7473,11 @@
         <v>73849</v>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D440" s="2" t="n">
@@ -7489,11 +7489,11 @@
         <v>74068</v>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D441" s="2" t="n">
@@ -7505,11 +7505,11 @@
         <v>74243</v>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D442" s="2" t="n">
@@ -7521,11 +7521,11 @@
         <v>74244</v>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D443" s="2" t="n">
@@ -7537,11 +7537,11 @@
         <v>74298</v>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
@@ -7553,11 +7553,11 @@
         <v>74245</v>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>74388</v>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7585,11 +7585,11 @@
         <v>74389</v>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D447" s="2" t="n">
@@ -7601,11 +7601,11 @@
         <v>74396</v>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -7617,11 +7617,11 @@
         <v>74511</v>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
@@ -7633,11 +7633,11 @@
         <v>74519</v>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -7649,11 +7649,11 @@
         <v>74824</v>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
@@ -7665,11 +7665,11 @@
         <v>74888</v>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
@@ -7681,11 +7681,11 @@
         <v>74929</v>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7697,11 +7697,11 @@
         <v>74968</v>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
@@ -7713,11 +7713,11 @@
         <v>74969</v>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7729,11 +7729,11 @@
         <v>74973</v>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D456" s="2" t="n">
@@ -7745,11 +7745,11 @@
         <v>75127</v>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D457" s="2" t="n">
@@ -7761,11 +7761,11 @@
         <v>75297</v>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D458" s="2" t="n">
@@ -7777,11 +7777,11 @@
         <v>75355</v>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D459" s="2" t="n">
@@ -7793,11 +7793,11 @@
         <v>75482</v>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D460" s="2" t="n">
@@ -7809,11 +7809,11 @@
         <v>75485</v>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
@@ -7825,11 +7825,11 @@
         <v>75525</v>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
@@ -7841,11 +7841,11 @@
         <v>75602</v>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
@@ -7857,11 +7857,11 @@
         <v>75689</v>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
@@ -7873,11 +7873,11 @@
         <v>75717</v>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7889,11 +7889,11 @@
         <v>75695</v>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
@@ -7905,11 +7905,11 @@
         <v>75697</v>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D467" s="2" t="n">
@@ -7921,11 +7921,11 @@
         <v>75740</v>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
@@ -7937,11 +7937,11 @@
         <v>75743</v>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
@@ -7953,11 +7953,11 @@
         <v>75803</v>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D470" s="2" t="n">
@@ -7969,11 +7969,11 @@
         <v>75911</v>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -7985,11 +7985,11 @@
         <v>75984</v>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
@@ -8001,11 +8001,11 @@
         <v>75986</v>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
@@ -8017,11 +8017,11 @@
         <v>76081</v>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
@@ -8033,11 +8033,11 @@
         <v>76084</v>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
@@ -8049,11 +8049,11 @@
         <v>76296</v>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
@@ -8065,11 +8065,11 @@
         <v>76496</v>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8081,11 +8081,11 @@
         <v>76493</v>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -8097,11 +8097,11 @@
         <v>76497</v>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8113,11 +8113,11 @@
         <v>76492</v>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8129,11 +8129,11 @@
         <v>76535</v>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D481" s="2" t="n">
@@ -8145,11 +8145,11 @@
         <v>76711</v>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -8161,11 +8161,11 @@
         <v>76790</v>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
@@ -8177,11 +8177,11 @@
         <v>76783</v>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8193,11 +8193,11 @@
         <v>76792</v>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -8209,11 +8209,11 @@
         <v>76789</v>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D486" s="2" t="n">
@@ -8225,11 +8225,11 @@
         <v>76878</v>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D487" s="2" t="n">
@@ -8241,11 +8241,11 @@
         <v>76938</v>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D488" s="2" t="n">
@@ -8257,11 +8257,11 @@
         <v>76931</v>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
@@ -8273,11 +8273,11 @@
         <v>76943</v>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D490" s="2" t="n">
@@ -8289,11 +8289,11 @@
         <v>76932</v>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D491" s="2" t="n">
@@ -8305,11 +8305,11 @@
         <v>76944</v>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
@@ -8321,11 +8321,11 @@
         <v>76934</v>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
@@ -8337,11 +8337,11 @@
         <v>77001</v>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D494" s="2" t="n">
@@ -8353,11 +8353,11 @@
         <v>77003</v>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
@@ -8369,11 +8369,11 @@
         <v>77121</v>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D496" s="2" t="n">
@@ -8385,11 +8385,11 @@
         <v>77336</v>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D497" s="2" t="n">
@@ -8401,11 +8401,11 @@
         <v>77388</v>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D498" s="2" t="n">
@@ -8417,11 +8417,11 @@
         <v>77338</v>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D499" s="2" t="n">
@@ -8433,11 +8433,11 @@
         <v>77389</v>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D500" s="2" t="n">
@@ -8449,11 +8449,11 @@
         <v>78239</v>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D501" s="2" t="n">
@@ -8465,11 +8465,11 @@
         <v>78313</v>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D502" s="2" t="n">
@@ -8481,11 +8481,11 @@
         <v>78341</v>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D503" s="2" t="n">
@@ -8497,11 +8497,11 @@
         <v>78342</v>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D504" s="2" t="n">
@@ -8513,11 +8513,11 @@
         <v>78373</v>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D505" s="2" t="n">
@@ -8529,11 +8529,11 @@
         <v>78503</v>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D506" s="2" t="n">
@@ -8545,11 +8545,11 @@
         <v>78599</v>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D507" s="2" t="n">
@@ -8561,11 +8561,11 @@
         <v>78600</v>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D508" s="2" t="n">
@@ -8577,11 +8577,11 @@
         <v>78792</v>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D509" s="2" t="n">
@@ -8593,11 +8593,11 @@
         <v>78789</v>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D510" s="2" t="n">
@@ -8609,11 +8609,11 @@
         <v>78946</v>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D511" s="2" t="n">
@@ -8625,11 +8625,11 @@
         <v>79043</v>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D512" s="2" t="n">
@@ -8641,11 +8641,11 @@
         <v>79042</v>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D513" s="2" t="n">
@@ -8657,11 +8657,11 @@
         <v>79279</v>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D514" s="2" t="n">
@@ -8673,11 +8673,11 @@
         <v>79280</v>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D515" s="2" t="n">
@@ -8689,11 +8689,11 @@
         <v>79281</v>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D516" s="2" t="n">
@@ -8705,11 +8705,11 @@
         <v>79346</v>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D517" s="2" t="n">
@@ -8721,11 +8721,11 @@
         <v>79284</v>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D518" s="2" t="n">
@@ -8737,11 +8737,11 @@
         <v>79286</v>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D519" s="2" t="n">
@@ -8753,11 +8753,11 @@
         <v>79348</v>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D520" s="2" t="n">
@@ -8769,11 +8769,11 @@
         <v>79350</v>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D521" s="2" t="n">
@@ -8785,11 +8785,11 @@
         <v>79351</v>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D522" s="2" t="n">
@@ -8801,11 +8801,11 @@
         <v>79352</v>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D523" s="2" t="n">
@@ -8817,11 +8817,11 @@
         <v>79528</v>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
@@ -8833,11 +8833,11 @@
         <v>79529</v>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D525" s="2" t="n">
@@ -8849,11 +8849,11 @@
         <v>79540</v>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D526" s="2" t="n">
@@ -8865,11 +8865,11 @@
         <v>79541</v>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D527" s="2" t="n">
@@ -8881,11 +8881,11 @@
         <v>79535</v>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D528" s="2" t="n">
@@ -8897,11 +8897,11 @@
         <v>79536</v>
       </c>
       <c r="B529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D529" s="2" t="n">
@@ -8913,11 +8913,11 @@
         <v>79538</v>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D530" s="2" t="n">
@@ -8929,11 +8929,11 @@
         <v>79600</v>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D531" s="2" t="n">
@@ -8945,11 +8945,11 @@
         <v>79601</v>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D532" s="2" t="n">
@@ -8961,11 +8961,11 @@
         <v>79603</v>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D533" s="2" t="n">
@@ -8977,11 +8977,11 @@
         <v>79604</v>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D534" s="2" t="n">
@@ -8993,11 +8993,11 @@
         <v>79612</v>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D535" s="2" t="n">
@@ -9009,11 +9009,11 @@
         <v>79532</v>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D536" s="2" t="n">
@@ -9025,11 +9025,11 @@
         <v>79613</v>
       </c>
       <c r="B537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D537" s="2" t="n">
@@ -9041,11 +9041,11 @@
         <v>79614</v>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D538" s="2" t="n">
@@ -9057,11 +9057,11 @@
         <v>79606</v>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D539" s="2" t="n">
@@ -9073,11 +9073,11 @@
         <v>79609</v>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D540" s="2" t="n">
@@ -9089,11 +9089,11 @@
         <v>79749</v>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D541" s="2" t="n">
@@ -9105,11 +9105,11 @@
         <v>79741</v>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D542" s="2" t="n">
@@ -9121,11 +9121,11 @@
         <v>79742</v>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D543" s="2" t="n">
@@ -9137,11 +9137,11 @@
         <v>79743</v>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D544" s="2" t="n">
@@ -9153,11 +9153,11 @@
         <v>79744</v>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D545" s="2" t="n">
@@ -9169,11 +9169,11 @@
         <v>79747</v>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D546" s="2" t="n">
@@ -9185,11 +9185,11 @@
         <v>79748</v>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D547" s="2" t="n">
@@ -9201,11 +9201,11 @@
         <v>79931</v>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D548" s="2" t="n">
@@ -9217,11 +9217,11 @@
         <v>79982</v>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D549" s="2" t="n">
@@ -9233,11 +9233,11 @@
         <v>79983</v>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D550" s="2" t="n">
@@ -9249,11 +9249,11 @@
         <v>79976</v>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D551" s="2" t="n">
@@ -9265,11 +9265,11 @@
         <v>79981</v>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D552" s="2" t="n">
@@ -9281,11 +9281,11 @@
         <v>80119</v>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D553" s="2" t="n">
@@ -9297,11 +9297,11 @@
         <v>80239</v>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D554" s="2" t="n">
@@ -9313,11 +9313,11 @@
         <v>80240</v>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D555" s="2" t="n">
@@ -9329,11 +9329,11 @@
         <v>80241</v>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D556" s="2" t="n">
@@ -9345,11 +9345,11 @@
         <v>80242</v>
       </c>
       <c r="B557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D557" s="2" t="n">
@@ -9361,11 +9361,11 @@
         <v>80245</v>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D558" s="2" t="n">
@@ -9377,11 +9377,11 @@
         <v>80343</v>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D559" s="2" t="n">
@@ -9393,11 +9393,11 @@
         <v>80349</v>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D560" s="2" t="n">
@@ -9409,11 +9409,11 @@
         <v>80350</v>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D561" s="2" t="n">
@@ -9425,11 +9425,11 @@
         <v>80516</v>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D562" s="2" t="n">
@@ -9441,11 +9441,11 @@
         <v>80429</v>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D563" s="2" t="n">
@@ -9457,11 +9457,11 @@
         <v>80433</v>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D564" s="2" t="n">
@@ -9473,11 +9473,11 @@
         <v>80434</v>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D565" s="2" t="n">
@@ -9489,11 +9489,11 @@
         <v>80435</v>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D566" s="2" t="n">
@@ -9505,11 +9505,11 @@
         <v>80576</v>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D567" s="2" t="n">
@@ -9521,11 +9521,11 @@
         <v>80577</v>
       </c>
       <c r="B568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D568" s="2" t="n">
@@ -9537,11 +9537,11 @@
         <v>80578</v>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D569" s="2" t="n">
@@ -9553,11 +9553,11 @@
         <v>80581</v>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D570" s="2" t="n">
@@ -9569,11 +9569,11 @@
         <v>80651</v>
       </c>
       <c r="B571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D571" s="2" t="n">
@@ -9585,11 +9585,11 @@
         <v>80652</v>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D572" s="2" t="n">
@@ -9601,11 +9601,11 @@
         <v>80653</v>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D573" s="2" t="n">
@@ -9617,11 +9617,11 @@
         <v>80654</v>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D574" s="2" t="n">
@@ -9633,11 +9633,11 @@
         <v>80655</v>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D575" s="2" t="n">
@@ -9649,11 +9649,11 @@
         <v>80656</v>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D576" s="2" t="n">
@@ -9665,11 +9665,11 @@
         <v>80721</v>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D577" s="2" t="n">
@@ -9710,7 +9710,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>51556</v>
+        <v>52248</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45979</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>52248</v>
+        <v>52325</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45958</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>52325</v>
+        <v>52256</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45950</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>52256</v>
+        <v>52333</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45933</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>52333</v>
+        <v>52334</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45981</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>52334</v>
+        <v>52588</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45967</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>52588</v>
+        <v>52914</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45951</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>52914</v>
+        <v>52996</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45987</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>52996</v>
+        <v>53003</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45936</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>53003</v>
+        <v>53044</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45945</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53044</v>
+        <v>53046</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>53046</v>
+        <v>53258</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45974</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>53258</v>
+        <v>53441</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>46007</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>53441</v>
+        <v>53459</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45954</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>53459</v>
+        <v>55164</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45937</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>55164</v>
+        <v>55170</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45940</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>55170</v>
+        <v>55313</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>55313</v>
+        <v>55750</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45957</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>55750</v>
+        <v>55792</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45974</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>55792</v>
+        <v>56210</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45967</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56210</v>
+        <v>56783</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45966</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>56783</v>
+        <v>56878</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45954</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56878</v>
+        <v>56932</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45986</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>56932</v>
+        <v>56936</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45940</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>56936</v>
+        <v>57326</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45953</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>57326</v>
+        <v>57141</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45937</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>57141</v>
+        <v>57567</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45968</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>57567</v>
+        <v>57571</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45985</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>57571</v>
+        <v>57576</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45946</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>57576</v>
+        <v>57625</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45986</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>57625</v>
+        <v>57630</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45953</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>57630</v>
+        <v>57737</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45944</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>57737</v>
+        <v>57886</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45967</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>57886</v>
+        <v>57820</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45945</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>57820</v>
+        <v>58978</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45957</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>58978</v>
+        <v>58983</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>58983</v>
+        <v>59068</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45940</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59068</v>
+        <v>59069</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45982</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59069</v>
+        <v>59186</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45947</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59186</v>
+        <v>59258</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45974</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59258</v>
+        <v>59291</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59291</v>
+        <v>59267</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45940</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59267</v>
+        <v>59536</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45973</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59536</v>
+        <v>59738</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45960</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59738</v>
+        <v>59740</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45954</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>59740</v>
+        <v>59742</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45961</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>59742</v>
+        <v>59750</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45957</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>59750</v>
+        <v>59756</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45944</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>59756</v>
+        <v>59758</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45974</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>59758</v>
+        <v>59759</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45939</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>59759</v>
+        <v>59760</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45959</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>59760</v>
+        <v>59761</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45989</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>59761</v>
+        <v>59894</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45961</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>59894</v>
+        <v>59897</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45975</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>59897</v>
+        <v>59764</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45952</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>59764</v>
+        <v>60147</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45987</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>60147</v>
+        <v>60221</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45953</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60221</v>
+        <v>60224</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45961</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>60224</v>
+        <v>60372</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45973</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>60372</v>
+        <v>60268</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45975</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>60268</v>
+        <v>60506</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>60506</v>
+        <v>60620</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45958</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>60620</v>
+        <v>60622</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45988</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>60622</v>
+        <v>60678</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45967</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>60678</v>
+        <v>60739</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45932</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>60739</v>
+        <v>60742</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45982</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>60742</v>
+        <v>60876</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>60876</v>
+        <v>60880</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45987</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>60880</v>
+        <v>60962</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45958</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>60962</v>
+        <v>61062</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45968</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>61062</v>
+        <v>61243</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45972</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>61243</v>
+        <v>61246</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45945</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>61246</v>
+        <v>61247</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45967</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>61247</v>
+        <v>61294</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45980</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>61294</v>
+        <v>61484</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45974</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>61484</v>
+        <v>62051</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45953</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62051</v>
+        <v>62129</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45989</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>62129</v>
+        <v>62209</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45975</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>62209</v>
+        <v>62218</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>62218</v>
+        <v>62349</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45957</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>62349</v>
+        <v>62350</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45989</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>62350</v>
+        <v>62352</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45987</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>62352</v>
+        <v>62541</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>62541</v>
+        <v>62419</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45973</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>62419</v>
+        <v>62709</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45960</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>62709</v>
+        <v>62713</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45989</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>62713</v>
+        <v>62853</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45968</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>62853</v>
+        <v>63831</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45979</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>63831</v>
+        <v>63039</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63039</v>
+        <v>63041</v>
       </c>
       <c r="B290" t="n">
         <v>2</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>63041</v>
+        <v>63053</v>
       </c>
       <c r="B291" t="n">
         <v>2</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45973</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>63053</v>
+        <v>63311</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63311</v>
+        <v>63313</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45936</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63313</v>
+        <v>63479</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45965</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>63479</v>
+        <v>63727</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45971</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63727</v>
+        <v>63844</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45952</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>63844</v>
+        <v>63846</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45981</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>63846</v>
+        <v>63848</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45940</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>63848</v>
+        <v>64031</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45946</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>64031</v>
+        <v>64033</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45961</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>64033</v>
+        <v>64115</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45994</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>64115</v>
+        <v>64116</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45939</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>64116</v>
+        <v>64118</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45945</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>64118</v>
+        <v>64124</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45966</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>64124</v>
+        <v>64322</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45968</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>64322</v>
+        <v>64635</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45939</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>64635</v>
+        <v>64819</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45973</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>64819</v>
+        <v>64821</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>46008</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>64821</v>
+        <v>64823</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45967</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>64823</v>
+        <v>64912</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45940</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>64912</v>
+        <v>64976</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>64976</v>
+        <v>65396</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45947</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>65396</v>
+        <v>65773</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45959</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>65773</v>
+        <v>65775</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45992</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>65775</v>
+        <v>65924</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45936</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>65924</v>
+        <v>65925</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45939</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>65925</v>
+        <v>66012</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45980</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>66012</v>
+        <v>66048</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45965</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>66048</v>
+        <v>66112</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>46006</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>66112</v>
+        <v>66343</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45939</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>66343</v>
+        <v>66122</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45957</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>66122</v>
+        <v>66171</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45996</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>66171</v>
+        <v>66460</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45944</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>66460</v>
+        <v>66461</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45936</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>66461</v>
+        <v>66602</v>
       </c>
       <c r="B325" t="n">
         <v>2</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45974</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>66602</v>
+        <v>66943</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45960</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>66943</v>
+        <v>66609</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45953</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>66609</v>
+        <v>66614</v>
       </c>
       <c r="B328" t="n">
         <v>2</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45961</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>66614</v>
+        <v>66675</v>
       </c>
       <c r="B329" t="n">
         <v>2</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45975</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>66675</v>
+        <v>66676</v>
       </c>
       <c r="B330" t="n">
         <v>2</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45937</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>66676</v>
+        <v>66733</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45986</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>66733</v>
+        <v>66860</v>
       </c>
       <c r="B332" t="n">
         <v>2</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>46001</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>66860</v>
+        <v>66844</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45961</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>66844</v>
+        <v>67159</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45996</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>66846</v>
+        <v>67298</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45988</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>67159</v>
+        <v>67301</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45960</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>67298</v>
+        <v>67453</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45951</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>67301</v>
+        <v>67550</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45968</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>67453</v>
+        <v>67780</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45939</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>67550</v>
+        <v>67843</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>67780</v>
+        <v>68467</v>
       </c>
       <c r="B341" t="n">
         <v>2</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45988</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>67843</v>
+        <v>68415</v>
       </c>
       <c r="B342" t="n">
         <v>2</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45961</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>68467</v>
+        <v>68176</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45966</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>68415</v>
+        <v>68182</v>
       </c>
       <c r="B344" t="n">
         <v>2</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>68176</v>
+        <v>68183</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45965</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>68182</v>
+        <v>68184</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45954</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>68183</v>
+        <v>68189</v>
       </c>
       <c r="B347" t="n">
         <v>2</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45937</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>68184</v>
+        <v>68326</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45966</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>68189</v>
+        <v>68468</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45985</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>68326</v>
+        <v>68541</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>68468</v>
+        <v>68542</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>68541</v>
+        <v>68572</v>
       </c>
       <c r="B352" t="n">
         <v>2</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>68542</v>
+        <v>68545</v>
       </c>
       <c r="B353" t="n">
         <v>2</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45945</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>68572</v>
+        <v>68577</v>
       </c>
       <c r="B354" t="n">
         <v>2</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45958</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>68545</v>
+        <v>68746</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>46002</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>68577</v>
+        <v>68673</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45932</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>68746</v>
+        <v>68674</v>
       </c>
       <c r="B357" t="n">
         <v>2</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45992</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>68673</v>
+        <v>68675</v>
       </c>
       <c r="B358" t="n">
         <v>2</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>68674</v>
+        <v>68750</v>
       </c>
       <c r="B359" t="n">
         <v>2</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45940</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>68675</v>
+        <v>68677</v>
       </c>
       <c r="B360" t="n">
         <v>2</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45957</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>68750</v>
+        <v>68755</v>
       </c>
       <c r="B361" t="n">
         <v>2</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45936</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>68677</v>
+        <v>68901</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45951</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>68755</v>
+        <v>68852</v>
       </c>
       <c r="B363" t="n">
         <v>2</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45951</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>68901</v>
+        <v>68853</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45971</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>68852</v>
+        <v>68977</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45993</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>68853</v>
+        <v>68978</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45952</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>68977</v>
+        <v>69345</v>
       </c>
       <c r="B367" t="n">
         <v>2</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45952</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>68978</v>
+        <v>69070</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45957</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>69345</v>
+        <v>69485</v>
       </c>
       <c r="B369" t="n">
         <v>2</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45959</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>69070</v>
+        <v>69487</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45944</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>69485</v>
+        <v>69644</v>
       </c>
       <c r="B371" t="n">
         <v>2</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45985</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>69487</v>
+        <v>69652</v>
       </c>
       <c r="B372" t="n">
         <v>2</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45940</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>69644</v>
+        <v>69653</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45939</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>69652</v>
+        <v>69648</v>
       </c>
       <c r="B374" t="n">
         <v>2</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45965</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>69653</v>
+        <v>69741</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>46006</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>69648</v>
+        <v>69752</v>
       </c>
       <c r="B376" t="n">
         <v>2</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45981</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>69741</v>
+        <v>69763</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45957</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>69752</v>
+        <v>69911</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45988</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>69763</v>
+        <v>69912</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45953</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>69911</v>
+        <v>70298</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45972</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>69912</v>
+        <v>70299</v>
       </c>
       <c r="B381" t="n">
         <v>2</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45966</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>70298</v>
+        <v>70333</v>
       </c>
       <c r="B382" t="n">
         <v>2</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45968</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>70299</v>
+        <v>70338</v>
       </c>
       <c r="B383" t="n">
         <v>2</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45981</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>70333</v>
+        <v>70343</v>
       </c>
       <c r="B384" t="n">
         <v>2</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>70338</v>
+        <v>70697</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45931</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>70343</v>
+        <v>70698</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45932</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>70697</v>
+        <v>70795</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45968</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>70698</v>
+        <v>70871</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45980</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>70795</v>
+        <v>70959</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45936</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>70871</v>
+        <v>70960</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45932</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>70959</v>
+        <v>71054</v>
       </c>
       <c r="B391" t="n">
         <v>2</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45992</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>70960</v>
+        <v>71063</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45952</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>71054</v>
+        <v>71064</v>
       </c>
       <c r="B393" t="n">
         <v>2</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45933</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>71063</v>
+        <v>71156</v>
       </c>
       <c r="B394" t="n">
         <v>2</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45986</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>71064</v>
+        <v>71159</v>
       </c>
       <c r="B395" t="n">
         <v>2</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45958</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>71156</v>
+        <v>71168</v>
       </c>
       <c r="B396" t="n">
         <v>2</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45933</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>71159</v>
+        <v>71172</v>
       </c>
       <c r="B397" t="n">
         <v>2</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45982</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>71168</v>
+        <v>71163</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45959</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>71172</v>
+        <v>71652</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45979</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>71163</v>
+        <v>71653</v>
       </c>
       <c r="B400" t="n">
         <v>2</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45975</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>71652</v>
+        <v>71779</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45954</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>71653</v>
+        <v>71780</v>
       </c>
       <c r="B402" t="n">
         <v>2</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45940</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>71779</v>
+        <v>71856</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45967</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>71780</v>
+        <v>71857</v>
       </c>
       <c r="B404" t="n">
         <v>2</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>71856</v>
+        <v>71986</v>
       </c>
       <c r="B405" t="n">
         <v>2</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45980</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>71857</v>
+        <v>71998</v>
       </c>
       <c r="B406" t="n">
         <v>2</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45950</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>71986</v>
+        <v>72002</v>
       </c>
       <c r="B407" t="n">
         <v>2</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45972</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>71998</v>
+        <v>72082</v>
       </c>
       <c r="B408" t="n">
         <v>2</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45931</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>72002</v>
+        <v>72191</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45945</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>72082</v>
+        <v>72329</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45973</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>72191</v>
+        <v>72192</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45954</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72329</v>
+        <v>72330</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45989</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>72192</v>
+        <v>72332</v>
       </c>
       <c r="B413" t="n">
         <v>2</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45982</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>72330</v>
+        <v>72333</v>
       </c>
       <c r="B414" t="n">
         <v>2</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45951</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>72332</v>
+        <v>72343</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>72333</v>
+        <v>72344</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45933</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>72343</v>
+        <v>72345</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45932</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>72344</v>
+        <v>72528</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45957</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>72345</v>
+        <v>72531</v>
       </c>
       <c r="B419" t="n">
         <v>2</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45971</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>72528</v>
+        <v>72541</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45966</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>72531</v>
+        <v>72659</v>
       </c>
       <c r="B421" t="n">
         <v>2</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45940</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>72541</v>
+        <v>72739</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45965</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>72659</v>
+        <v>72742</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45959</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>72739</v>
+        <v>72746</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45950</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>72742</v>
+        <v>72983</v>
       </c>
       <c r="B425" t="n">
         <v>2</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45936</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>72746</v>
+        <v>73026</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45958</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>72983</v>
+        <v>73485</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45940</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>73026</v>
+        <v>73508</v>
       </c>
       <c r="B428" t="n">
         <v>2</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45944</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>73485</v>
+        <v>73512</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45973</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>73508</v>
+        <v>73532</v>
       </c>
       <c r="B430" t="n">
         <v>2</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45952</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>73512</v>
+        <v>73645</v>
       </c>
       <c r="B431" t="n">
         <v>2</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>73532</v>
+        <v>73647</v>
       </c>
       <c r="B432" t="n">
         <v>2</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45966</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>73645</v>
+        <v>73741</v>
       </c>
       <c r="B433" t="n">
         <v>2</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45953</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>73647</v>
+        <v>73743</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>73741</v>
+        <v>73750</v>
       </c>
       <c r="B435" t="n">
         <v>2</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45979</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>73743</v>
+        <v>73751</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45944</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>73750</v>
+        <v>73759</v>
       </c>
       <c r="B437" t="n">
         <v>2</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>46000</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>73751</v>
+        <v>73849</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45932</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>73759</v>
+        <v>74068</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45958</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>73849</v>
+        <v>74243</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45946</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>74068</v>
+        <v>74244</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>74243</v>
+        <v>74298</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>74244</v>
+        <v>74245</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45951</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>74298</v>
+        <v>74388</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45972</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>74245</v>
+        <v>74389</v>
       </c>
       <c r="B445" t="n">
         <v>2</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45944</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>74388</v>
+        <v>74396</v>
       </c>
       <c r="B446" t="n">
         <v>2</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45965</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>74389</v>
+        <v>74511</v>
       </c>
       <c r="B447" t="n">
         <v>2</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45981</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>74396</v>
+        <v>74519</v>
       </c>
       <c r="B448" t="n">
         <v>2</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>74511</v>
+        <v>74824</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45986</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>74519</v>
+        <v>74888</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45938</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>74824</v>
+        <v>74929</v>
       </c>
       <c r="B451" t="n">
         <v>2</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45989</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>74888</v>
+        <v>74968</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,12 +7673,12 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45971</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>74929</v>
+        <v>74969</v>
       </c>
       <c r="B453" t="n">
         <v>2</v>
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45971</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>74968</v>
+        <v>74973</v>
       </c>
       <c r="B454" t="n">
         <v>2</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45946</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>74969</v>
+        <v>75127</v>
       </c>
       <c r="B455" t="n">
         <v>2</v>
@@ -7721,12 +7721,12 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45951</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>74973</v>
+        <v>75297</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45996</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>75127</v>
+        <v>75355</v>
       </c>
       <c r="B457" t="n">
         <v>2</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45982</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>75297</v>
+        <v>75482</v>
       </c>
       <c r="B458" t="n">
         <v>2</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45974</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>75355</v>
+        <v>75485</v>
       </c>
       <c r="B459" t="n">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45950</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>75482</v>
+        <v>75525</v>
       </c>
       <c r="B460" t="n">
         <v>2</v>
@@ -7801,12 +7801,12 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45987</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>75485</v>
+        <v>75602</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45931</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>75525</v>
+        <v>75689</v>
       </c>
       <c r="B462" t="n">
         <v>2</v>
@@ -7833,12 +7833,12 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45957</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>75602</v>
+        <v>75717</v>
       </c>
       <c r="B463" t="n">
         <v>2</v>
@@ -7849,12 +7849,12 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45958</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>75689</v>
+        <v>75695</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,12 +7865,12 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45981</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>75717</v>
+        <v>75697</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -7881,12 +7881,12 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45940</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>75695</v>
+        <v>75740</v>
       </c>
       <c r="B466" t="n">
         <v>2</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45947</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>75697</v>
+        <v>75743</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,12 +7913,12 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>75740</v>
+        <v>75803</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45971</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>75743</v>
+        <v>75911</v>
       </c>
       <c r="B469" t="n">
         <v>2</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45958</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>75803</v>
+        <v>75984</v>
       </c>
       <c r="B470" t="n">
         <v>2</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>46001</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>75911</v>
+        <v>75986</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>75984</v>
+        <v>76081</v>
       </c>
       <c r="B472" t="n">
         <v>2</v>
@@ -7993,12 +7993,12 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>75986</v>
+        <v>76084</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -8009,12 +8009,12 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45954</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>76081</v>
+        <v>76296</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>76084</v>
+        <v>76496</v>
       </c>
       <c r="B475" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45961</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>76296</v>
+        <v>76493</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>76496</v>
+        <v>76497</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45944</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>76493</v>
+        <v>76492</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45957</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>76497</v>
+        <v>76535</v>
       </c>
       <c r="B479" t="n">
         <v>2</v>
@@ -8105,12 +8105,12 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45938</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>76492</v>
+        <v>76711</v>
       </c>
       <c r="B480" t="n">
         <v>2</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45945</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>76535</v>
+        <v>76790</v>
       </c>
       <c r="B481" t="n">
         <v>2</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45947</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>76711</v>
+        <v>76783</v>
       </c>
       <c r="B482" t="n">
         <v>2</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>76790</v>
+        <v>76792</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45965</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>76783</v>
+        <v>76789</v>
       </c>
       <c r="B484" t="n">
         <v>2</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45971</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>76792</v>
+        <v>76878</v>
       </c>
       <c r="B485" t="n">
         <v>2</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45958</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>76789</v>
+        <v>76938</v>
       </c>
       <c r="B486" t="n">
         <v>2</v>
@@ -8217,12 +8217,12 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45944</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>76878</v>
+        <v>76931</v>
       </c>
       <c r="B487" t="n">
         <v>2</v>
@@ -8233,12 +8233,12 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45945</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>76938</v>
+        <v>76943</v>
       </c>
       <c r="B488" t="n">
         <v>2</v>
@@ -8249,12 +8249,12 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45937</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>76931</v>
+        <v>76932</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,12 +8265,12 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45980</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>76943</v>
+        <v>76944</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,12 +8281,12 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45968</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>76932</v>
+        <v>76934</v>
       </c>
       <c r="B491" t="n">
         <v>2</v>
@@ -8297,12 +8297,12 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45979</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>76944</v>
+        <v>77001</v>
       </c>
       <c r="B492" t="n">
         <v>2</v>
@@ -8313,12 +8313,12 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45938</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>76934</v>
+        <v>77003</v>
       </c>
       <c r="B493" t="n">
         <v>2</v>
@@ -8329,12 +8329,12 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45974</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>77001</v>
+        <v>77121</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -8345,12 +8345,12 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45989</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>77003</v>
+        <v>77336</v>
       </c>
       <c r="B495" t="n">
         <v>2</v>
@@ -8361,12 +8361,12 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45981</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>77121</v>
+        <v>77388</v>
       </c>
       <c r="B496" t="n">
         <v>2</v>
@@ -8377,12 +8377,12 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45959</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>77336</v>
+        <v>77338</v>
       </c>
       <c r="B497" t="n">
         <v>2</v>
@@ -8393,12 +8393,12 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45945</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>77388</v>
+        <v>77389</v>
       </c>
       <c r="B498" t="n">
         <v>2</v>
@@ -8409,12 +8409,12 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45931</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>77338</v>
+        <v>78239</v>
       </c>
       <c r="B499" t="n">
         <v>2</v>
@@ -8425,12 +8425,12 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45960</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>77389</v>
+        <v>78313</v>
       </c>
       <c r="B500" t="n">
         <v>2</v>
@@ -8441,12 +8441,12 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45966</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>78239</v>
+        <v>78341</v>
       </c>
       <c r="B501" t="n">
         <v>2</v>
@@ -8457,12 +8457,12 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45971</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>78313</v>
+        <v>78342</v>
       </c>
       <c r="B502" t="n">
         <v>2</v>
@@ -8473,12 +8473,12 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>78341</v>
+        <v>78373</v>
       </c>
       <c r="B503" t="n">
         <v>2</v>
@@ -8489,12 +8489,12 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45973</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>78342</v>
+        <v>78503</v>
       </c>
       <c r="B504" t="n">
         <v>2</v>
@@ -8505,12 +8505,12 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45959</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>78373</v>
+        <v>78599</v>
       </c>
       <c r="B505" t="n">
         <v>2</v>
@@ -8521,12 +8521,12 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>78503</v>
+        <v>78600</v>
       </c>
       <c r="B506" t="n">
         <v>2</v>
@@ -8537,12 +8537,12 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45933</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>78599</v>
+        <v>78792</v>
       </c>
       <c r="B507" t="n">
         <v>2</v>
@@ -8553,12 +8553,12 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45968</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>78600</v>
+        <v>78789</v>
       </c>
       <c r="B508" t="n">
         <v>2</v>
@@ -8569,12 +8569,12 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45980</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>78792</v>
+        <v>78946</v>
       </c>
       <c r="B509" t="n">
         <v>2</v>
@@ -8585,12 +8585,12 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45961</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>78789</v>
+        <v>79043</v>
       </c>
       <c r="B510" t="n">
         <v>2</v>
@@ -8601,12 +8601,12 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>78946</v>
+        <v>79042</v>
       </c>
       <c r="B511" t="n">
         <v>2</v>
@@ -8617,12 +8617,12 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45993</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>79043</v>
+        <v>79279</v>
       </c>
       <c r="B512" t="n">
         <v>2</v>
@@ -8633,12 +8633,12 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45988</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>79042</v>
+        <v>79280</v>
       </c>
       <c r="B513" t="n">
         <v>2</v>
@@ -8649,12 +8649,12 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45975</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>79279</v>
+        <v>79281</v>
       </c>
       <c r="B514" t="n">
         <v>2</v>
@@ -8665,12 +8665,12 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45982</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>79280</v>
+        <v>79346</v>
       </c>
       <c r="B515" t="n">
         <v>2</v>
@@ -8681,12 +8681,12 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>79281</v>
+        <v>79284</v>
       </c>
       <c r="B516" t="n">
         <v>2</v>
@@ -8697,12 +8697,12 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45933</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>79346</v>
+        <v>79286</v>
       </c>
       <c r="B517" t="n">
         <v>2</v>
@@ -8713,12 +8713,12 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>79284</v>
+        <v>79348</v>
       </c>
       <c r="B518" t="n">
         <v>2</v>
@@ -8729,12 +8729,12 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45979</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>79286</v>
+        <v>79350</v>
       </c>
       <c r="B519" t="n">
         <v>2</v>
@@ -8745,12 +8745,12 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45981</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>79348</v>
+        <v>79351</v>
       </c>
       <c r="B520" t="n">
         <v>2</v>
@@ -8761,12 +8761,12 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45937</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>79350</v>
+        <v>79352</v>
       </c>
       <c r="B521" t="n">
         <v>2</v>
@@ -8777,12 +8777,12 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>45952</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>79351</v>
+        <v>79528</v>
       </c>
       <c r="B522" t="n">
         <v>2</v>
@@ -8793,12 +8793,12 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>45946</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>79352</v>
+        <v>79529</v>
       </c>
       <c r="B523" t="n">
         <v>2</v>
@@ -8809,12 +8809,12 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>45973</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>79528</v>
+        <v>79540</v>
       </c>
       <c r="B524" t="n">
         <v>2</v>
@@ -8825,12 +8825,12 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>45951</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>79529</v>
+        <v>79541</v>
       </c>
       <c r="B525" t="n">
         <v>2</v>
@@ -8841,12 +8841,12 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>45979</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>79540</v>
+        <v>79535</v>
       </c>
       <c r="B526" t="n">
         <v>2</v>
@@ -8857,12 +8857,12 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>79541</v>
+        <v>79536</v>
       </c>
       <c r="B527" t="n">
         <v>2</v>
@@ -8873,12 +8873,12 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>45975</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>79535</v>
+        <v>79538</v>
       </c>
       <c r="B528" t="n">
         <v>2</v>
@@ -8889,12 +8889,12 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>45940</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>79536</v>
+        <v>79600</v>
       </c>
       <c r="B529" t="n">
         <v>2</v>
@@ -8905,12 +8905,12 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>45931</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>79538</v>
+        <v>79601</v>
       </c>
       <c r="B530" t="n">
         <v>2</v>
@@ -8921,12 +8921,12 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>45975</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>79600</v>
+        <v>79603</v>
       </c>
       <c r="B531" t="n">
         <v>2</v>
@@ -8937,12 +8937,12 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>45965</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>79601</v>
+        <v>79604</v>
       </c>
       <c r="B532" t="n">
         <v>2</v>
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>45985</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>79603</v>
+        <v>79612</v>
       </c>
       <c r="B533" t="n">
         <v>2</v>
@@ -8969,12 +8969,12 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>45967</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79604</v>
+        <v>79532</v>
       </c>
       <c r="B534" t="n">
         <v>2</v>
@@ -8985,12 +8985,12 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>45938</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>79612</v>
+        <v>79613</v>
       </c>
       <c r="B535" t="n">
         <v>2</v>
@@ -9001,12 +9001,12 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>45958</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>79532</v>
+        <v>79614</v>
       </c>
       <c r="B536" t="n">
         <v>2</v>
@@ -9017,12 +9017,12 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>46007</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>79613</v>
+        <v>79606</v>
       </c>
       <c r="B537" t="n">
         <v>2</v>
@@ -9033,12 +9033,12 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>45932</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>79614</v>
+        <v>79609</v>
       </c>
       <c r="B538" t="n">
         <v>2</v>
@@ -9049,12 +9049,12 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>45938</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>79606</v>
+        <v>79749</v>
       </c>
       <c r="B539" t="n">
         <v>2</v>
@@ -9065,12 +9065,12 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>45950</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>79609</v>
+        <v>79741</v>
       </c>
       <c r="B540" t="n">
         <v>2</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>79749</v>
+        <v>79742</v>
       </c>
       <c r="B541" t="n">
         <v>2</v>
@@ -9097,12 +9097,12 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>46008</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>79741</v>
+        <v>79743</v>
       </c>
       <c r="B542" t="n">
         <v>2</v>
@@ -9113,12 +9113,12 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>45975</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>79742</v>
+        <v>79744</v>
       </c>
       <c r="B543" t="n">
         <v>2</v>
@@ -9129,12 +9129,12 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>45981</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>79743</v>
+        <v>79747</v>
       </c>
       <c r="B544" t="n">
         <v>2</v>
@@ -9145,12 +9145,12 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>45965</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>79744</v>
+        <v>79748</v>
       </c>
       <c r="B545" t="n">
         <v>2</v>
@@ -9161,12 +9161,12 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>45972</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>79747</v>
+        <v>79931</v>
       </c>
       <c r="B546" t="n">
         <v>2</v>
@@ -9177,12 +9177,12 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>45985</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>79748</v>
+        <v>79982</v>
       </c>
       <c r="B547" t="n">
         <v>2</v>
@@ -9193,12 +9193,12 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>45981</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>79931</v>
+        <v>79983</v>
       </c>
       <c r="B548" t="n">
         <v>2</v>
@@ -9209,12 +9209,12 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>45936</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>79982</v>
+        <v>79976</v>
       </c>
       <c r="B549" t="n">
         <v>2</v>
@@ -9225,12 +9225,12 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>45940</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>79983</v>
+        <v>79981</v>
       </c>
       <c r="B550" t="n">
         <v>2</v>
@@ -9241,12 +9241,12 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>45973</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>79976</v>
+        <v>80119</v>
       </c>
       <c r="B551" t="n">
         <v>2</v>
@@ -9257,12 +9257,12 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>45979</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>79981</v>
+        <v>80239</v>
       </c>
       <c r="B552" t="n">
         <v>2</v>
@@ -9273,12 +9273,12 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>45993</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>80119</v>
+        <v>80240</v>
       </c>
       <c r="B553" t="n">
         <v>2</v>
@@ -9289,12 +9289,12 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>45950</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>80239</v>
+        <v>80241</v>
       </c>
       <c r="B554" t="n">
         <v>2</v>
@@ -9305,12 +9305,12 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>45951</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>80240</v>
+        <v>80242</v>
       </c>
       <c r="B555" t="n">
         <v>2</v>
@@ -9321,12 +9321,12 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>80241</v>
+        <v>80245</v>
       </c>
       <c r="B556" t="n">
         <v>2</v>
@@ -9337,12 +9337,12 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>45965</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>80242</v>
+        <v>80343</v>
       </c>
       <c r="B557" t="n">
         <v>2</v>
@@ -9353,12 +9353,12 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>80245</v>
+        <v>80349</v>
       </c>
       <c r="B558" t="n">
         <v>2</v>
@@ -9369,12 +9369,12 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>80343</v>
+        <v>80350</v>
       </c>
       <c r="B559" t="n">
         <v>2</v>
@@ -9385,12 +9385,12 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>80349</v>
+        <v>80429</v>
       </c>
       <c r="B560" t="n">
         <v>2</v>
@@ -9401,12 +9401,12 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>45961</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>80350</v>
+        <v>80433</v>
       </c>
       <c r="B561" t="n">
         <v>2</v>
@@ -9417,12 +9417,12 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>45975</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>80516</v>
+        <v>80434</v>
       </c>
       <c r="B562" t="n">
         <v>2</v>
@@ -9433,12 +9433,12 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>45940</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>80429</v>
+        <v>80435</v>
       </c>
       <c r="B563" t="n">
         <v>2</v>
@@ -9449,12 +9449,12 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>80433</v>
+        <v>80576</v>
       </c>
       <c r="B564" t="n">
         <v>2</v>
@@ -9465,12 +9465,12 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>45944</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>80434</v>
+        <v>80577</v>
       </c>
       <c r="B565" t="n">
         <v>2</v>
@@ -9481,12 +9481,12 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>45981</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>80435</v>
+        <v>80578</v>
       </c>
       <c r="B566" t="n">
         <v>2</v>
@@ -9497,12 +9497,12 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>45940</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>80576</v>
+        <v>80581</v>
       </c>
       <c r="B567" t="n">
         <v>2</v>
@@ -9513,12 +9513,12 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>45937</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>80577</v>
+        <v>80651</v>
       </c>
       <c r="B568" t="n">
         <v>2</v>
@@ -9529,12 +9529,12 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>45967</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>80578</v>
+        <v>80652</v>
       </c>
       <c r="B569" t="n">
         <v>2</v>
@@ -9545,12 +9545,12 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>45985</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>80581</v>
+        <v>80653</v>
       </c>
       <c r="B570" t="n">
         <v>2</v>
@@ -9561,12 +9561,12 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>45982</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>80651</v>
+        <v>80654</v>
       </c>
       <c r="B571" t="n">
         <v>2</v>
@@ -9577,12 +9577,12 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>45958</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>80652</v>
+        <v>80655</v>
       </c>
       <c r="B572" t="n">
         <v>2</v>
@@ -9593,12 +9593,12 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>45968</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>80653</v>
+        <v>80656</v>
       </c>
       <c r="B573" t="n">
         <v>2</v>
@@ -9609,12 +9609,12 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>45954</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>80654</v>
+        <v>80721</v>
       </c>
       <c r="B574" t="n">
         <v>2</v>
@@ -9625,54 +9625,6 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="n">
-        <v>80655</v>
-      </c>
-      <c r="B575" t="n">
-        <v>2</v>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D575" s="2" t="n">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="n">
-        <v>80656</v>
-      </c>
-      <c r="B576" t="n">
-        <v>2</v>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D576" s="2" t="n">
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="n">
-        <v>80721</v>
-      </c>
-      <c r="B577" t="n">
-        <v>2</v>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D577" s="2" t="n">
         <v>45992</v>
       </c>
     </row>
@@ -9714,7 +9666,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -2817,11 +2817,11 @@
         <v>47166</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -5073,11 +5073,11 @@
         <v>63041</v>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -8321,11 +8321,11 @@
         <v>77003</v>
       </c>
       <c r="B493" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
@@ -8785,11 +8785,11 @@
         <v>79528</v>
       </c>
       <c r="B522" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D522" s="2" t="n">
@@ -9639,7 +9639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9666,7 +9666,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573</v>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D574"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>52248</v>
+        <v>51556</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45958</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>52325</v>
+        <v>52248</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45950</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>52256</v>
+        <v>52325</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45933</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>52333</v>
+        <v>52256</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45981</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>52334</v>
+        <v>52333</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45967</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>52588</v>
+        <v>52334</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45951</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>52914</v>
+        <v>52588</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45987</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>52996</v>
+        <v>52914</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45936</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>53003</v>
+        <v>52996</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45945</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>53044</v>
+        <v>53003</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45972</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53046</v>
+        <v>53044</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45974</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>53258</v>
+        <v>53046</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>46007</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>53441</v>
+        <v>53258</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45954</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>53459</v>
+        <v>53441</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45937</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>55164</v>
+        <v>53459</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45940</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>55170</v>
+        <v>55164</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45950</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>55313</v>
+        <v>55170</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45957</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>55750</v>
+        <v>55313</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45974</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>55792</v>
+        <v>55750</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56210</v>
+        <v>55792</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56783</v>
+        <v>56210</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45954</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>56878</v>
+        <v>56783</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45986</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56932</v>
+        <v>56878</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45940</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>56936</v>
+        <v>56932</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45953</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>57326</v>
+        <v>56936</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45937</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>57141</v>
+        <v>57326</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45968</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>57567</v>
+        <v>57141</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45985</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>57571</v>
+        <v>57567</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45946</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>57576</v>
+        <v>57571</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45986</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>57625</v>
+        <v>57576</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45953</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>57630</v>
+        <v>57625</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45944</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>57737</v>
+        <v>57630</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45967</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>57886</v>
+        <v>57737</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45945</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>57820</v>
+        <v>57886</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45957</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>58978</v>
+        <v>57820</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>58983</v>
+        <v>58978</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45940</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59068</v>
+        <v>58983</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45982</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59069</v>
+        <v>59068</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45947</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59186</v>
+        <v>59069</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45974</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59258</v>
+        <v>59186</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45938</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59291</v>
+        <v>59258</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45940</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59267</v>
+        <v>59291</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45973</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59536</v>
+        <v>59267</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45960</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59738</v>
+        <v>59536</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45954</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59740</v>
+        <v>59738</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>59742</v>
+        <v>59740</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>59750</v>
+        <v>59742</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45944</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>59756</v>
+        <v>59750</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45974</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>59758</v>
+        <v>59756</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45939</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>59759</v>
+        <v>59758</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45959</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>59760</v>
+        <v>59759</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45989</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>59761</v>
+        <v>59760</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45961</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>59894</v>
+        <v>59761</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>59897</v>
+        <v>59894</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45952</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>59764</v>
+        <v>59897</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45987</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>60147</v>
+        <v>59764</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45953</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>60221</v>
+        <v>60147</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45961</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60224</v>
+        <v>60221</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45973</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>60372</v>
+        <v>60224</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45975</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>60268</v>
+        <v>60372</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45954</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>60506</v>
+        <v>60268</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45958</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>60620</v>
+        <v>60506</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45988</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>60622</v>
+        <v>60620</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45967</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>60678</v>
+        <v>60622</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45932</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>60739</v>
+        <v>60678</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45982</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>60742</v>
+        <v>60739</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45986</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>60876</v>
+        <v>60742</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>60880</v>
+        <v>60876</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45958</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>60962</v>
+        <v>60880</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45968</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>61062</v>
+        <v>60962</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45972</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>61243</v>
+        <v>61062</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45945</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>61246</v>
+        <v>61243</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45967</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>61247</v>
+        <v>61246</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45980</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>61294</v>
+        <v>61247</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45974</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>61484</v>
+        <v>61294</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45953</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>62051</v>
+        <v>61484</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45989</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62129</v>
+        <v>62051</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45975</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>62209</v>
+        <v>62129</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45947</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>62218</v>
+        <v>62209</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45957</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>62349</v>
+        <v>62218</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45989</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>62350</v>
+        <v>62349</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>62352</v>
+        <v>62350</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45973</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>62541</v>
+        <v>62352</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>62419</v>
+        <v>62541</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45960</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>62709</v>
+        <v>62419</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45989</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>62713</v>
+        <v>62709</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45968</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>62853</v>
+        <v>62713</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45979</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>63831</v>
+        <v>62853</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45966</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>63039</v>
+        <v>63831</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -5065,19 +5065,19 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45973</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63041</v>
+        <v>63039</v>
       </c>
       <c r="B290" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
@@ -5086,23 +5086,23 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>63053</v>
+        <v>63041</v>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45931</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>63311</v>
+        <v>63053</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45936</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63313</v>
+        <v>63311</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45965</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63479</v>
+        <v>63313</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45971</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>63727</v>
+        <v>63479</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45952</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63844</v>
+        <v>63727</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45981</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>63846</v>
+        <v>63844</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45940</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>63848</v>
+        <v>63846</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45946</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>64031</v>
+        <v>63848</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45961</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>64033</v>
+        <v>64031</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45994</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>64115</v>
+        <v>64033</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45939</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>64116</v>
+        <v>64115</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45945</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>64118</v>
+        <v>64116</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45966</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>64124</v>
+        <v>64118</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>64322</v>
+        <v>64124</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45939</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>64635</v>
+        <v>64322</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45973</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>64819</v>
+        <v>64635</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>46008</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>64821</v>
+        <v>64819</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45967</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>64823</v>
+        <v>64821</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45940</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>64912</v>
+        <v>64823</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45933</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>64976</v>
+        <v>64912</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45947</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>65396</v>
+        <v>64976</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45959</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>65773</v>
+        <v>65396</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45992</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>65775</v>
+        <v>65773</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45936</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>65924</v>
+        <v>65775</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45939</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>65925</v>
+        <v>65924</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45980</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>66012</v>
+        <v>65925</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45965</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>66048</v>
+        <v>66012</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>46006</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>66112</v>
+        <v>66048</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45939</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>66343</v>
+        <v>66112</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45957</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>66122</v>
+        <v>66343</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45996</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>66171</v>
+        <v>66122</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45944</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>66460</v>
+        <v>66171</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45936</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>66461</v>
+        <v>66460</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45974</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>66602</v>
+        <v>66461</v>
       </c>
       <c r="B325" t="n">
         <v>2</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45960</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>66943</v>
+        <v>66602</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45953</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>66609</v>
+        <v>66943</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45961</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>66614</v>
+        <v>66609</v>
       </c>
       <c r="B328" t="n">
         <v>2</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>66675</v>
+        <v>66614</v>
       </c>
       <c r="B329" t="n">
         <v>2</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45937</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>66676</v>
+        <v>66675</v>
       </c>
       <c r="B330" t="n">
         <v>2</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45986</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>66733</v>
+        <v>66676</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>46001</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>66860</v>
+        <v>66733</v>
       </c>
       <c r="B332" t="n">
         <v>2</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45961</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>66844</v>
+        <v>66860</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45996</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>67159</v>
+        <v>66844</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45960</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>67298</v>
+        <v>66846</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45951</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>67301</v>
+        <v>67159</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45968</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>67453</v>
+        <v>67298</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45939</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>67550</v>
+        <v>67301</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45975</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>67780</v>
+        <v>67453</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45988</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>67843</v>
+        <v>67550</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45961</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>68467</v>
+        <v>67780</v>
       </c>
       <c r="B341" t="n">
         <v>2</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45966</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>68415</v>
+        <v>67843</v>
       </c>
       <c r="B342" t="n">
         <v>2</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45953</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>68176</v>
+        <v>68467</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>68182</v>
+        <v>68415</v>
       </c>
       <c r="B344" t="n">
         <v>2</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45954</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>68183</v>
+        <v>68176</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45937</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>68184</v>
+        <v>68182</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45966</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>68189</v>
+        <v>68183</v>
       </c>
       <c r="B347" t="n">
         <v>2</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45985</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>68326</v>
+        <v>68184</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45954</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>68468</v>
+        <v>68189</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45944</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>68541</v>
+        <v>68326</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45957</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>68542</v>
+        <v>68468</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45945</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>68572</v>
+        <v>68541</v>
       </c>
       <c r="B352" t="n">
         <v>2</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>68545</v>
+        <v>68542</v>
       </c>
       <c r="B353" t="n">
         <v>2</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>46002</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>68577</v>
+        <v>68572</v>
       </c>
       <c r="B354" t="n">
         <v>2</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45932</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>68746</v>
+        <v>68545</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45992</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>68673</v>
+        <v>68577</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45959</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>68674</v>
+        <v>68746</v>
       </c>
       <c r="B357" t="n">
         <v>2</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45940</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>68675</v>
+        <v>68673</v>
       </c>
       <c r="B358" t="n">
         <v>2</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>68750</v>
+        <v>68674</v>
       </c>
       <c r="B359" t="n">
         <v>2</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45936</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>68677</v>
+        <v>68675</v>
       </c>
       <c r="B360" t="n">
         <v>2</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>68755</v>
+        <v>68750</v>
       </c>
       <c r="B361" t="n">
         <v>2</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45951</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>68901</v>
+        <v>68677</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45971</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>68852</v>
+        <v>68755</v>
       </c>
       <c r="B363" t="n">
         <v>2</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45993</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>68853</v>
+        <v>68901</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45952</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>68977</v>
+        <v>68852</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45952</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>68978</v>
+        <v>68853</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45957</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>69345</v>
+        <v>68977</v>
       </c>
       <c r="B367" t="n">
         <v>2</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>69070</v>
+        <v>68978</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45944</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>69485</v>
+        <v>69345</v>
       </c>
       <c r="B369" t="n">
         <v>2</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45985</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>69487</v>
+        <v>69070</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>69644</v>
+        <v>69485</v>
       </c>
       <c r="B371" t="n">
         <v>2</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45939</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>69652</v>
+        <v>69487</v>
       </c>
       <c r="B372" t="n">
         <v>2</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45965</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>69653</v>
+        <v>69644</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>46006</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>69648</v>
+        <v>69652</v>
       </c>
       <c r="B374" t="n">
         <v>2</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45981</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>69741</v>
+        <v>69653</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45957</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>69752</v>
+        <v>69648</v>
       </c>
       <c r="B376" t="n">
         <v>2</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45988</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>69763</v>
+        <v>69741</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>69911</v>
+        <v>69752</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45972</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>69912</v>
+        <v>69763</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45966</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>70298</v>
+        <v>69911</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45968</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>70299</v>
+        <v>69912</v>
       </c>
       <c r="B381" t="n">
         <v>2</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45981</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>70333</v>
+        <v>70298</v>
       </c>
       <c r="B382" t="n">
         <v>2</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45931</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>70338</v>
+        <v>70299</v>
       </c>
       <c r="B383" t="n">
         <v>2</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45931</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>70343</v>
+        <v>70333</v>
       </c>
       <c r="B384" t="n">
         <v>2</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>70697</v>
+        <v>70338</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45968</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>70698</v>
+        <v>70343</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45980</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>70795</v>
+        <v>70697</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45936</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>70871</v>
+        <v>70698</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45932</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>70959</v>
+        <v>70795</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45992</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>70960</v>
+        <v>70871</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45952</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>71054</v>
+        <v>70959</v>
       </c>
       <c r="B391" t="n">
         <v>2</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45933</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>71063</v>
+        <v>70960</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45986</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>71064</v>
+        <v>71054</v>
       </c>
       <c r="B393" t="n">
         <v>2</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45958</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>71156</v>
+        <v>71063</v>
       </c>
       <c r="B394" t="n">
         <v>2</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45933</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>71159</v>
+        <v>71064</v>
       </c>
       <c r="B395" t="n">
         <v>2</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45982</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>71168</v>
+        <v>71156</v>
       </c>
       <c r="B396" t="n">
         <v>2</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45959</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>71172</v>
+        <v>71159</v>
       </c>
       <c r="B397" t="n">
         <v>2</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>71163</v>
+        <v>71168</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45975</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>71652</v>
+        <v>71172</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45954</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>71653</v>
+        <v>71163</v>
       </c>
       <c r="B400" t="n">
         <v>2</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45940</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>71779</v>
+        <v>71652</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45967</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>71780</v>
+        <v>71653</v>
       </c>
       <c r="B402" t="n">
         <v>2</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45950</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>71856</v>
+        <v>71779</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45980</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>71857</v>
+        <v>71780</v>
       </c>
       <c r="B404" t="n">
         <v>2</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>71986</v>
+        <v>71856</v>
       </c>
       <c r="B405" t="n">
         <v>2</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45972</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>71998</v>
+        <v>71857</v>
       </c>
       <c r="B406" t="n">
         <v>2</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45931</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>72002</v>
+        <v>71986</v>
       </c>
       <c r="B407" t="n">
         <v>2</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45945</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>72082</v>
+        <v>71998</v>
       </c>
       <c r="B408" t="n">
         <v>2</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45973</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>72191</v>
+        <v>72002</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45954</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>72329</v>
+        <v>72082</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45989</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>72192</v>
+        <v>72191</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45982</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72330</v>
+        <v>72329</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45951</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>72332</v>
+        <v>72192</v>
       </c>
       <c r="B413" t="n">
         <v>2</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45932</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>72333</v>
+        <v>72330</v>
       </c>
       <c r="B414" t="n">
         <v>2</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45933</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>72343</v>
+        <v>72332</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>72344</v>
+        <v>72333</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45957</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>72345</v>
+        <v>72343</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45971</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>72528</v>
+        <v>72344</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45966</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>72531</v>
+        <v>72345</v>
       </c>
       <c r="B419" t="n">
         <v>2</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45940</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>72541</v>
+        <v>72528</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>72659</v>
+        <v>72531</v>
       </c>
       <c r="B421" t="n">
         <v>2</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45959</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>72739</v>
+        <v>72541</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45950</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>72742</v>
+        <v>72659</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45936</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>72746</v>
+        <v>72739</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45958</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>72983</v>
+        <v>72742</v>
       </c>
       <c r="B425" t="n">
         <v>2</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45940</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>73026</v>
+        <v>72746</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45944</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>73485</v>
+        <v>72983</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45973</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>73508</v>
+        <v>73026</v>
       </c>
       <c r="B428" t="n">
         <v>2</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45952</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>73512</v>
+        <v>73485</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45950</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>73532</v>
+        <v>73508</v>
       </c>
       <c r="B430" t="n">
         <v>2</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45966</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>73645</v>
+        <v>73512</v>
       </c>
       <c r="B431" t="n">
         <v>2</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>73647</v>
+        <v>73532</v>
       </c>
       <c r="B432" t="n">
         <v>2</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45940</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>73741</v>
+        <v>73645</v>
       </c>
       <c r="B433" t="n">
         <v>2</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45979</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>73743</v>
+        <v>73647</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45944</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>73750</v>
+        <v>73741</v>
       </c>
       <c r="B435" t="n">
         <v>2</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>46000</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>73751</v>
+        <v>73743</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45932</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>73759</v>
+        <v>73750</v>
       </c>
       <c r="B437" t="n">
         <v>2</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45958</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>73849</v>
+        <v>73751</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45946</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>74068</v>
+        <v>73759</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45951</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>74243</v>
+        <v>73849</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45961</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>74244</v>
+        <v>74068</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>74298</v>
+        <v>74243</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45972</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>74245</v>
+        <v>74244</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45944</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>74388</v>
+        <v>74298</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45965</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>74389</v>
+        <v>74245</v>
       </c>
       <c r="B445" t="n">
         <v>2</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45981</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>74396</v>
+        <v>74388</v>
       </c>
       <c r="B446" t="n">
         <v>2</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45937</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>74511</v>
+        <v>74389</v>
       </c>
       <c r="B447" t="n">
         <v>2</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45986</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>74519</v>
+        <v>74396</v>
       </c>
       <c r="B448" t="n">
         <v>2</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45938</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>74824</v>
+        <v>74511</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45989</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>74888</v>
+        <v>74519</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45971</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>74929</v>
+        <v>74824</v>
       </c>
       <c r="B451" t="n">
         <v>2</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45971</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>74968</v>
+        <v>74888</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,12 +7673,12 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45946</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>74969</v>
+        <v>74929</v>
       </c>
       <c r="B453" t="n">
         <v>2</v>
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45951</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>74973</v>
+        <v>74968</v>
       </c>
       <c r="B454" t="n">
         <v>2</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45996</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>75127</v>
+        <v>74969</v>
       </c>
       <c r="B455" t="n">
         <v>2</v>
@@ -7721,12 +7721,12 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45982</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>75297</v>
+        <v>74973</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45974</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>75355</v>
+        <v>75127</v>
       </c>
       <c r="B457" t="n">
         <v>2</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45950</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>75482</v>
+        <v>75297</v>
       </c>
       <c r="B458" t="n">
         <v>2</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45987</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>75485</v>
+        <v>75355</v>
       </c>
       <c r="B459" t="n">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45931</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>75525</v>
+        <v>75482</v>
       </c>
       <c r="B460" t="n">
         <v>2</v>
@@ -7801,12 +7801,12 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45957</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>75602</v>
+        <v>75485</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45958</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>75689</v>
+        <v>75525</v>
       </c>
       <c r="B462" t="n">
         <v>2</v>
@@ -7833,12 +7833,12 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45981</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>75717</v>
+        <v>75602</v>
       </c>
       <c r="B463" t="n">
         <v>2</v>
@@ -7849,12 +7849,12 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45940</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>75695</v>
+        <v>75689</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,12 +7865,12 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45947</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>75697</v>
+        <v>75717</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -7881,12 +7881,12 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45959</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>75740</v>
+        <v>75695</v>
       </c>
       <c r="B466" t="n">
         <v>2</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45971</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>75743</v>
+        <v>75697</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,12 +7913,12 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>75803</v>
+        <v>75740</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>46001</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>75911</v>
+        <v>75743</v>
       </c>
       <c r="B469" t="n">
         <v>2</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45947</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>75984</v>
+        <v>75803</v>
       </c>
       <c r="B470" t="n">
         <v>2</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45946</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>75986</v>
+        <v>75911</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45954</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>76081</v>
+        <v>75984</v>
       </c>
       <c r="B472" t="n">
         <v>2</v>
@@ -7993,12 +7993,12 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45950</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>76084</v>
+        <v>75986</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -8009,12 +8009,12 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>76296</v>
+        <v>76081</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45953</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>76496</v>
+        <v>76084</v>
       </c>
       <c r="B475" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45944</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>76493</v>
+        <v>76296</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45957</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>76497</v>
+        <v>76496</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45938</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>76492</v>
+        <v>76493</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45945</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>76535</v>
+        <v>76497</v>
       </c>
       <c r="B479" t="n">
         <v>2</v>
@@ -8105,12 +8105,12 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45947</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>76711</v>
+        <v>76492</v>
       </c>
       <c r="B480" t="n">
         <v>2</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45971</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>76790</v>
+        <v>76535</v>
       </c>
       <c r="B481" t="n">
         <v>2</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45965</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>76783</v>
+        <v>76711</v>
       </c>
       <c r="B482" t="n">
         <v>2</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>76792</v>
+        <v>76790</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45958</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>76789</v>
+        <v>76783</v>
       </c>
       <c r="B484" t="n">
         <v>2</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45944</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>76878</v>
+        <v>76792</v>
       </c>
       <c r="B485" t="n">
         <v>2</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45945</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>76938</v>
+        <v>76789</v>
       </c>
       <c r="B486" t="n">
         <v>2</v>
@@ -8217,12 +8217,12 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45937</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>76931</v>
+        <v>76878</v>
       </c>
       <c r="B487" t="n">
         <v>2</v>
@@ -8233,12 +8233,12 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45980</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>76943</v>
+        <v>76938</v>
       </c>
       <c r="B488" t="n">
         <v>2</v>
@@ -8249,12 +8249,12 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45968</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>76932</v>
+        <v>76931</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,12 +8265,12 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45979</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>76944</v>
+        <v>76943</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,12 +8281,12 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45938</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>76934</v>
+        <v>76932</v>
       </c>
       <c r="B491" t="n">
         <v>2</v>
@@ -8297,12 +8297,12 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45974</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>77001</v>
+        <v>76944</v>
       </c>
       <c r="B492" t="n">
         <v>2</v>
@@ -8313,28 +8313,28 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45989</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>77003</v>
+        <v>76934</v>
       </c>
       <c r="B493" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45981</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>77121</v>
+        <v>77001</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -8345,28 +8345,28 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45959</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>77336</v>
+        <v>77003</v>
       </c>
       <c r="B495" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45945</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>77388</v>
+        <v>77121</v>
       </c>
       <c r="B496" t="n">
         <v>2</v>
@@ -8377,12 +8377,12 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45931</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>77338</v>
+        <v>77336</v>
       </c>
       <c r="B497" t="n">
         <v>2</v>
@@ -8393,12 +8393,12 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45960</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>77389</v>
+        <v>77388</v>
       </c>
       <c r="B498" t="n">
         <v>2</v>
@@ -8409,12 +8409,12 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45966</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>78239</v>
+        <v>77338</v>
       </c>
       <c r="B499" t="n">
         <v>2</v>
@@ -8425,12 +8425,12 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45971</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>78313</v>
+        <v>77389</v>
       </c>
       <c r="B500" t="n">
         <v>2</v>
@@ -8441,12 +8441,12 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45971</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>78341</v>
+        <v>78239</v>
       </c>
       <c r="B501" t="n">
         <v>2</v>
@@ -8457,12 +8457,12 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45973</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>78342</v>
+        <v>78313</v>
       </c>
       <c r="B502" t="n">
         <v>2</v>
@@ -8473,12 +8473,12 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>78373</v>
+        <v>78341</v>
       </c>
       <c r="B503" t="n">
         <v>2</v>
@@ -8489,12 +8489,12 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45957</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>78503</v>
+        <v>78342</v>
       </c>
       <c r="B504" t="n">
         <v>2</v>
@@ -8505,12 +8505,12 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45933</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>78599</v>
+        <v>78373</v>
       </c>
       <c r="B505" t="n">
         <v>2</v>
@@ -8521,12 +8521,12 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45968</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>78600</v>
+        <v>78503</v>
       </c>
       <c r="B506" t="n">
         <v>2</v>
@@ -8537,12 +8537,12 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45980</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>78792</v>
+        <v>78599</v>
       </c>
       <c r="B507" t="n">
         <v>2</v>
@@ -8553,12 +8553,12 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>78789</v>
+        <v>78600</v>
       </c>
       <c r="B508" t="n">
         <v>2</v>
@@ -8569,12 +8569,12 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45985</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>78946</v>
+        <v>78792</v>
       </c>
       <c r="B509" t="n">
         <v>2</v>
@@ -8585,12 +8585,12 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45993</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>79043</v>
+        <v>78789</v>
       </c>
       <c r="B510" t="n">
         <v>2</v>
@@ -8601,12 +8601,12 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>79042</v>
+        <v>78946</v>
       </c>
       <c r="B511" t="n">
         <v>2</v>
@@ -8617,12 +8617,12 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45975</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>79279</v>
+        <v>79043</v>
       </c>
       <c r="B512" t="n">
         <v>2</v>
@@ -8633,12 +8633,12 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>79280</v>
+        <v>79042</v>
       </c>
       <c r="B513" t="n">
         <v>2</v>
@@ -8649,12 +8649,12 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>79281</v>
+        <v>79279</v>
       </c>
       <c r="B514" t="n">
         <v>2</v>
@@ -8665,12 +8665,12 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45933</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>79346</v>
+        <v>79280</v>
       </c>
       <c r="B515" t="n">
         <v>2</v>
@@ -8681,12 +8681,12 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45975</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>79284</v>
+        <v>79281</v>
       </c>
       <c r="B516" t="n">
         <v>2</v>
@@ -8697,12 +8697,12 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45979</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>79286</v>
+        <v>79346</v>
       </c>
       <c r="B517" t="n">
         <v>2</v>
@@ -8713,12 +8713,12 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45981</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>79348</v>
+        <v>79284</v>
       </c>
       <c r="B518" t="n">
         <v>2</v>
@@ -8729,12 +8729,12 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45937</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>79350</v>
+        <v>79286</v>
       </c>
       <c r="B519" t="n">
         <v>2</v>
@@ -8745,12 +8745,12 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45952</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>79351</v>
+        <v>79348</v>
       </c>
       <c r="B520" t="n">
         <v>2</v>
@@ -8761,12 +8761,12 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45946</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>79352</v>
+        <v>79350</v>
       </c>
       <c r="B521" t="n">
         <v>2</v>
@@ -8777,28 +8777,28 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>45973</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>79528</v>
+        <v>79351</v>
       </c>
       <c r="B522" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>45951</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>79529</v>
+        <v>79352</v>
       </c>
       <c r="B523" t="n">
         <v>2</v>
@@ -8809,28 +8809,28 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>45979</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>79540</v>
+        <v>79528</v>
       </c>
       <c r="B524" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>79541</v>
+        <v>79529</v>
       </c>
       <c r="B525" t="n">
         <v>2</v>
@@ -8841,12 +8841,12 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>79535</v>
+        <v>79540</v>
       </c>
       <c r="B526" t="n">
         <v>2</v>
@@ -8857,12 +8857,12 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>45940</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>79536</v>
+        <v>79541</v>
       </c>
       <c r="B527" t="n">
         <v>2</v>
@@ -8873,12 +8873,12 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>45931</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>79538</v>
+        <v>79535</v>
       </c>
       <c r="B528" t="n">
         <v>2</v>
@@ -8889,12 +8889,12 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>45975</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>79600</v>
+        <v>79536</v>
       </c>
       <c r="B529" t="n">
         <v>2</v>
@@ -8905,12 +8905,12 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>45965</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>79601</v>
+        <v>79538</v>
       </c>
       <c r="B530" t="n">
         <v>2</v>
@@ -8921,12 +8921,12 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>45985</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>79603</v>
+        <v>79600</v>
       </c>
       <c r="B531" t="n">
         <v>2</v>
@@ -8937,12 +8937,12 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>45967</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>79604</v>
+        <v>79601</v>
       </c>
       <c r="B532" t="n">
         <v>2</v>
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>45938</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>79612</v>
+        <v>79603</v>
       </c>
       <c r="B533" t="n">
         <v>2</v>
@@ -8969,12 +8969,12 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>45958</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79532</v>
+        <v>79604</v>
       </c>
       <c r="B534" t="n">
         <v>2</v>
@@ -8985,12 +8985,12 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>46007</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>79613</v>
+        <v>79612</v>
       </c>
       <c r="B535" t="n">
         <v>2</v>
@@ -9001,12 +9001,12 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>45932</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>79614</v>
+        <v>79532</v>
       </c>
       <c r="B536" t="n">
         <v>2</v>
@@ -9017,12 +9017,12 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>45938</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>79606</v>
+        <v>79613</v>
       </c>
       <c r="B537" t="n">
         <v>2</v>
@@ -9033,12 +9033,12 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>45950</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>79609</v>
+        <v>79614</v>
       </c>
       <c r="B538" t="n">
         <v>2</v>
@@ -9049,12 +9049,12 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>45975</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>79749</v>
+        <v>79606</v>
       </c>
       <c r="B539" t="n">
         <v>2</v>
@@ -9065,12 +9065,12 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>46008</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>79741</v>
+        <v>79609</v>
       </c>
       <c r="B540" t="n">
         <v>2</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>79742</v>
+        <v>79749</v>
       </c>
       <c r="B541" t="n">
         <v>2</v>
@@ -9097,12 +9097,12 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>45981</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>79743</v>
+        <v>79741</v>
       </c>
       <c r="B542" t="n">
         <v>2</v>
@@ -9113,12 +9113,12 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>45965</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>79744</v>
+        <v>79742</v>
       </c>
       <c r="B543" t="n">
         <v>2</v>
@@ -9129,12 +9129,12 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>45972</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>79747</v>
+        <v>79743</v>
       </c>
       <c r="B544" t="n">
         <v>2</v>
@@ -9145,12 +9145,12 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>45985</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>79748</v>
+        <v>79744</v>
       </c>
       <c r="B545" t="n">
         <v>2</v>
@@ -9161,12 +9161,12 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>45981</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>79931</v>
+        <v>79747</v>
       </c>
       <c r="B546" t="n">
         <v>2</v>
@@ -9177,12 +9177,12 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>45936</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>79982</v>
+        <v>79748</v>
       </c>
       <c r="B547" t="n">
         <v>2</v>
@@ -9193,12 +9193,12 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>45940</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>79983</v>
+        <v>79931</v>
       </c>
       <c r="B548" t="n">
         <v>2</v>
@@ -9209,12 +9209,12 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>45973</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>79976</v>
+        <v>79982</v>
       </c>
       <c r="B549" t="n">
         <v>2</v>
@@ -9225,12 +9225,12 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>45979</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>79981</v>
+        <v>79983</v>
       </c>
       <c r="B550" t="n">
         <v>2</v>
@@ -9241,12 +9241,12 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>45993</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>80119</v>
+        <v>79976</v>
       </c>
       <c r="B551" t="n">
         <v>2</v>
@@ -9257,12 +9257,12 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>45950</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>80239</v>
+        <v>79981</v>
       </c>
       <c r="B552" t="n">
         <v>2</v>
@@ -9273,12 +9273,12 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>45951</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>80240</v>
+        <v>80119</v>
       </c>
       <c r="B553" t="n">
         <v>2</v>
@@ -9289,12 +9289,12 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>45944</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>80241</v>
+        <v>80239</v>
       </c>
       <c r="B554" t="n">
         <v>2</v>
@@ -9305,12 +9305,12 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>45965</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>80242</v>
+        <v>80240</v>
       </c>
       <c r="B555" t="n">
         <v>2</v>
@@ -9321,12 +9321,12 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>45933</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>80245</v>
+        <v>80241</v>
       </c>
       <c r="B556" t="n">
         <v>2</v>
@@ -9337,12 +9337,12 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>45959</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>80343</v>
+        <v>80242</v>
       </c>
       <c r="B557" t="n">
         <v>2</v>
@@ -9353,12 +9353,12 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>45960</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>80349</v>
+        <v>80245</v>
       </c>
       <c r="B558" t="n">
         <v>2</v>
@@ -9369,12 +9369,12 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>45961</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>80350</v>
+        <v>80343</v>
       </c>
       <c r="B559" t="n">
         <v>2</v>
@@ -9385,12 +9385,12 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>45975</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>80429</v>
+        <v>80349</v>
       </c>
       <c r="B560" t="n">
         <v>2</v>
@@ -9401,12 +9401,12 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>80433</v>
+        <v>80350</v>
       </c>
       <c r="B561" t="n">
         <v>2</v>
@@ -9417,12 +9417,12 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>45944</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>80434</v>
+        <v>80516</v>
       </c>
       <c r="B562" t="n">
         <v>2</v>
@@ -9433,12 +9433,12 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>45981</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>80435</v>
+        <v>80429</v>
       </c>
       <c r="B563" t="n">
         <v>2</v>
@@ -9449,12 +9449,12 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>45940</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>80576</v>
+        <v>80433</v>
       </c>
       <c r="B564" t="n">
         <v>2</v>
@@ -9465,12 +9465,12 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>45937</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>80577</v>
+        <v>80434</v>
       </c>
       <c r="B565" t="n">
         <v>2</v>
@@ -9481,12 +9481,12 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>45967</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>80578</v>
+        <v>80435</v>
       </c>
       <c r="B566" t="n">
         <v>2</v>
@@ -9497,12 +9497,12 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>45985</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>80581</v>
+        <v>80576</v>
       </c>
       <c r="B567" t="n">
         <v>2</v>
@@ -9513,12 +9513,12 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>45982</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>80651</v>
+        <v>80577</v>
       </c>
       <c r="B568" t="n">
         <v>2</v>
@@ -9529,12 +9529,12 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>45958</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>80652</v>
+        <v>80578</v>
       </c>
       <c r="B569" t="n">
         <v>2</v>
@@ -9545,12 +9545,12 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>45968</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>80653</v>
+        <v>80581</v>
       </c>
       <c r="B570" t="n">
         <v>2</v>
@@ -9561,12 +9561,12 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>45954</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>80654</v>
+        <v>80651</v>
       </c>
       <c r="B571" t="n">
         <v>2</v>
@@ -9577,12 +9577,12 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>45931</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>80655</v>
+        <v>80652</v>
       </c>
       <c r="B572" t="n">
         <v>2</v>
@@ -9593,12 +9593,12 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>45993</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>80656</v>
+        <v>80653</v>
       </c>
       <c r="B573" t="n">
         <v>2</v>
@@ -9609,22 +9609,70 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>45936</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
+        <v>80654</v>
+      </c>
+      <c r="B574" t="n">
+        <v>2</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D574" s="2" t="n">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>80655</v>
+      </c>
+      <c r="B575" t="n">
+        <v>2</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>80656</v>
+      </c>
+      <c r="B576" t="n">
+        <v>2</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
         <v>80721</v>
       </c>
-      <c r="B574" t="n">
-        <v>2</v>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D574" s="2" t="n">
+      <c r="B577" t="n">
+        <v>2</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Alistamiento</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
         <v>45992</v>
       </c>
     </row>
@@ -9666,7 +9714,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3">

--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2814,23 +2814,23 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>47166</v>
+        <v>47170</v>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>47170</v>
+        <v>47171</v>
       </c>
       <c r="B150" t="n">
         <v>2</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45966</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>47171</v>
+        <v>47172</v>
       </c>
       <c r="B151" t="n">
         <v>2</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45953</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>47172</v>
+        <v>47414</v>
       </c>
       <c r="B152" t="n">
         <v>2</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45979</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>47414</v>
+        <v>47601</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45959</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>47601</v>
+        <v>47606</v>
       </c>
       <c r="B154" t="n">
         <v>2</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45980</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>47606</v>
+        <v>47420</v>
       </c>
       <c r="B155" t="n">
         <v>2</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45985</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>47420</v>
+        <v>47769</v>
       </c>
       <c r="B156" t="n">
         <v>2</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45958</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>47769</v>
+        <v>47770</v>
       </c>
       <c r="B157" t="n">
         <v>2</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>47770</v>
+        <v>47775</v>
       </c>
       <c r="B158" t="n">
         <v>2</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45961</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>47775</v>
+        <v>47929</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45950</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>47929</v>
+        <v>47793</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>46008</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>47793</v>
+        <v>47800</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45973</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>47800</v>
+        <v>47801</v>
       </c>
       <c r="B162" t="n">
         <v>2</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45965</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>47801</v>
+        <v>47804</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45993</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>47804</v>
+        <v>47807</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45971</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>47807</v>
+        <v>47924</v>
       </c>
       <c r="B165" t="n">
         <v>2</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45950</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>47924</v>
+        <v>48419</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45985</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>48419</v>
+        <v>48568</v>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>48568</v>
+        <v>48876</v>
       </c>
       <c r="B168" t="n">
         <v>2</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45959</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>48876</v>
+        <v>48878</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45947</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>48878</v>
+        <v>48791</v>
       </c>
       <c r="B170" t="n">
         <v>2</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45952</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>48791</v>
+        <v>49236</v>
       </c>
       <c r="B171" t="n">
         <v>2</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45947</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>49236</v>
+        <v>49237</v>
       </c>
       <c r="B172" t="n">
         <v>2</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>49237</v>
+        <v>49242</v>
       </c>
       <c r="B173" t="n">
         <v>2</v>
@@ -3209,12 +3209,12 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45958</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>49242</v>
+        <v>49565</v>
       </c>
       <c r="B174" t="n">
         <v>2</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45954</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>49565</v>
+        <v>49814</v>
       </c>
       <c r="B175" t="n">
         <v>2</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45931</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>49814</v>
+        <v>49977</v>
       </c>
       <c r="B176" t="n">
         <v>2</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>49977</v>
+        <v>49985</v>
       </c>
       <c r="B177" t="n">
         <v>2</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45954</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>49985</v>
+        <v>50051</v>
       </c>
       <c r="B178" t="n">
         <v>2</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45966</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>50051</v>
+        <v>50054</v>
       </c>
       <c r="B179" t="n">
         <v>2</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45988</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>50054</v>
+        <v>50056</v>
       </c>
       <c r="B180" t="n">
         <v>2</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45933</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>50056</v>
+        <v>50058</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45974</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>50058</v>
+        <v>50214</v>
       </c>
       <c r="B182" t="n">
         <v>2</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45968</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>50214</v>
+        <v>50538</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45981</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>50538</v>
+        <v>50539</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>50539</v>
+        <v>50645</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45960</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>50645</v>
+        <v>50845</v>
       </c>
       <c r="B186" t="n">
         <v>2</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45946</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>50845</v>
+        <v>50846</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45959</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>50846</v>
+        <v>50849</v>
       </c>
       <c r="B188" t="n">
         <v>2</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45986</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>50849</v>
+        <v>50850</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45966</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>50850</v>
+        <v>50852</v>
       </c>
       <c r="B190" t="n">
         <v>2</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45931</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>50852</v>
+        <v>50936</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>50936</v>
+        <v>51214</v>
       </c>
       <c r="B192" t="n">
         <v>2</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>51214</v>
+        <v>51328</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45957</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>51328</v>
+        <v>51335</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45952</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>51335</v>
+        <v>51349</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45931</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>51349</v>
+        <v>51541</v>
       </c>
       <c r="B196" t="n">
         <v>2</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45994</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>51541</v>
+        <v>51544</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45938</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>51544</v>
+        <v>51552</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45995</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>51552</v>
+        <v>51555</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -3625,12 +3625,12 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45954</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>51555</v>
+        <v>52248</v>
       </c>
       <c r="B200" t="n">
         <v>2</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45933</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>51556</v>
+        <v>52325</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45979</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>52248</v>
+        <v>52256</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45958</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>52325</v>
+        <v>52333</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45950</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>52256</v>
+        <v>52334</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45933</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>52333</v>
+        <v>52588</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45981</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>52334</v>
+        <v>52914</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45967</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>52588</v>
+        <v>52996</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45951</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>52914</v>
+        <v>53003</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45987</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>52996</v>
+        <v>53044</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45936</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>53003</v>
+        <v>53046</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45945</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53044</v>
+        <v>53258</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45972</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>53046</v>
+        <v>53441</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45974</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>53258</v>
+        <v>53459</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>46007</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>53441</v>
+        <v>55164</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>53459</v>
+        <v>55170</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45937</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>55164</v>
+        <v>55313</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45940</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>55170</v>
+        <v>55750</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45950</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>55313</v>
+        <v>55792</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45957</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>55750</v>
+        <v>56210</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45974</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>55792</v>
+        <v>56783</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45967</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56210</v>
+        <v>56878</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45966</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>56783</v>
+        <v>56932</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56878</v>
+        <v>56936</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45986</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>56932</v>
+        <v>57326</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45940</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>56936</v>
+        <v>57141</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45953</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>57326</v>
+        <v>57567</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45937</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>57141</v>
+        <v>57571</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45968</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>57567</v>
+        <v>57576</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>57571</v>
+        <v>57625</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45946</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>57576</v>
+        <v>57630</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45986</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>57625</v>
+        <v>57737</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45953</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>57630</v>
+        <v>57886</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>57737</v>
+        <v>57820</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>57886</v>
+        <v>58978</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45945</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>57820</v>
+        <v>58983</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45957</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>58978</v>
+        <v>59068</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45954</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>58983</v>
+        <v>59069</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45940</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59068</v>
+        <v>59186</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45982</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59069</v>
+        <v>59258</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45947</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59186</v>
+        <v>59291</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45974</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59258</v>
+        <v>59267</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45938</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59291</v>
+        <v>59536</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45940</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59267</v>
+        <v>59738</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45973</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59536</v>
+        <v>59740</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59738</v>
+        <v>59742</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>59740</v>
+        <v>59750</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45961</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>59742</v>
+        <v>59756</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45957</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>59750</v>
+        <v>59758</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45944</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>59756</v>
+        <v>59759</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45974</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>59758</v>
+        <v>59760</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45939</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>59759</v>
+        <v>59761</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>59760</v>
+        <v>59894</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45989</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>59761</v>
+        <v>59897</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45961</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>59894</v>
+        <v>59764</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45975</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>59897</v>
+        <v>60147</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45952</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>59764</v>
+        <v>60221</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45987</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>60147</v>
+        <v>60224</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45953</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60221</v>
+        <v>60372</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45961</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>60224</v>
+        <v>60268</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45973</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>60372</v>
+        <v>60506</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45975</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>60268</v>
+        <v>60620</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45954</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>60506</v>
+        <v>60622</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45958</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>60620</v>
+        <v>60678</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45988</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>60622</v>
+        <v>60739</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45967</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>60678</v>
+        <v>60742</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45932</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>60739</v>
+        <v>60876</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45982</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>60742</v>
+        <v>60880</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45986</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>60876</v>
+        <v>60962</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45987</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>60880</v>
+        <v>61062</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45958</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>60962</v>
+        <v>61243</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45968</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>61062</v>
+        <v>61246</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45972</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>61243</v>
+        <v>61247</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45945</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>61246</v>
+        <v>61294</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>61247</v>
+        <v>61484</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45980</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>61294</v>
+        <v>62051</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45974</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>61484</v>
+        <v>62129</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45953</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62051</v>
+        <v>62209</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45989</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>62129</v>
+        <v>62218</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45975</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>62209</v>
+        <v>62349</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45947</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>62218</v>
+        <v>62350</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45957</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>62349</v>
+        <v>62352</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45989</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>62350</v>
+        <v>62541</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45987</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>62352</v>
+        <v>62419</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45973</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>62541</v>
+        <v>62709</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45973</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>62419</v>
+        <v>62713</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45960</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>62709</v>
+        <v>62853</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45989</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>62713</v>
+        <v>63831</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>62853</v>
+        <v>63039</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45979</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>63831</v>
+        <v>63053</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45966</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63039</v>
+        <v>63311</v>
       </c>
       <c r="B290" t="n">
         <v>2</v>
@@ -5081,28 +5081,28 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45973</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>63041</v>
+        <v>63313</v>
       </c>
       <c r="B291" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45973</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>63053</v>
+        <v>63479</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45931</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63311</v>
+        <v>63727</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45936</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63313</v>
+        <v>63844</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45965</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>63479</v>
+        <v>63846</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45971</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63727</v>
+        <v>63848</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45952</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>63844</v>
+        <v>64031</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45981</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>63846</v>
+        <v>64033</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45940</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>63848</v>
+        <v>64115</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45946</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>64031</v>
+        <v>64116</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45961</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>64033</v>
+        <v>64118</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45994</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>64115</v>
+        <v>64124</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45939</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>64116</v>
+        <v>64322</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45945</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>64118</v>
+        <v>64635</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>64124</v>
+        <v>64819</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>64322</v>
+        <v>64821</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45939</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>64635</v>
+        <v>64823</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45973</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>64819</v>
+        <v>64912</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>46008</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>64821</v>
+        <v>64976</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45967</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>64823</v>
+        <v>65396</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45940</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>64912</v>
+        <v>65773</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45933</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>64976</v>
+        <v>65775</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45947</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>65396</v>
+        <v>65924</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45959</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>65773</v>
+        <v>65925</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45992</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>65775</v>
+        <v>66012</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45936</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>65924</v>
+        <v>66048</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45939</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>65925</v>
+        <v>66112</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45980</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>66012</v>
+        <v>66343</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45965</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>66048</v>
+        <v>66122</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>46006</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>66112</v>
+        <v>66171</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45939</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>66343</v>
+        <v>66460</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45957</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>66122</v>
+        <v>66461</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45996</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>66171</v>
+        <v>66602</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45944</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>66460</v>
+        <v>66943</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45936</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>66461</v>
+        <v>66609</v>
       </c>
       <c r="B325" t="n">
         <v>2</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45974</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>66602</v>
+        <v>66614</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>66943</v>
+        <v>66675</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45953</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>66609</v>
+        <v>66676</v>
       </c>
       <c r="B328" t="n">
         <v>2</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45961</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>66614</v>
+        <v>66733</v>
       </c>
       <c r="B329" t="n">
         <v>2</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45975</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>66675</v>
+        <v>66860</v>
       </c>
       <c r="B330" t="n">
         <v>2</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45937</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>66676</v>
+        <v>66844</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45986</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>66733</v>
+        <v>67159</v>
       </c>
       <c r="B332" t="n">
         <v>2</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>46001</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>66860</v>
+        <v>67298</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45961</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>66844</v>
+        <v>67301</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45996</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>66846</v>
+        <v>67453</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45988</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>67159</v>
+        <v>67550</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>67298</v>
+        <v>67780</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45951</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>67301</v>
+        <v>67843</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45968</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>67453</v>
+        <v>68467</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5865,12 +5865,12 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45939</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>67550</v>
+        <v>68415</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45975</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>67780</v>
+        <v>68176</v>
       </c>
       <c r="B341" t="n">
         <v>2</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45988</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>67843</v>
+        <v>68182</v>
       </c>
       <c r="B342" t="n">
         <v>2</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>68467</v>
+        <v>68183</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45966</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>68415</v>
+        <v>68184</v>
       </c>
       <c r="B344" t="n">
         <v>2</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45953</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>68176</v>
+        <v>68189</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45965</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>68182</v>
+        <v>68326</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>68183</v>
+        <v>68468</v>
       </c>
       <c r="B347" t="n">
         <v>2</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45937</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>68184</v>
+        <v>68541</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45966</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>68189</v>
+        <v>68542</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45985</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>68326</v>
+        <v>68572</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>68468</v>
+        <v>68545</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45944</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>68541</v>
+        <v>68577</v>
       </c>
       <c r="B352" t="n">
         <v>2</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45957</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>68542</v>
+        <v>68746</v>
       </c>
       <c r="B353" t="n">
         <v>2</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45945</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>68572</v>
+        <v>68673</v>
       </c>
       <c r="B354" t="n">
         <v>2</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>68545</v>
+        <v>68674</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>46002</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>68577</v>
+        <v>68675</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45932</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>68746</v>
+        <v>68750</v>
       </c>
       <c r="B357" t="n">
         <v>2</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45992</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>68673</v>
+        <v>68677</v>
       </c>
       <c r="B358" t="n">
         <v>2</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45959</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>68674</v>
+        <v>68755</v>
       </c>
       <c r="B359" t="n">
         <v>2</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45940</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>68675</v>
+        <v>68901</v>
       </c>
       <c r="B360" t="n">
         <v>2</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45957</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>68750</v>
+        <v>68852</v>
       </c>
       <c r="B361" t="n">
         <v>2</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45936</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>68677</v>
+        <v>68853</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>68755</v>
+        <v>68977</v>
       </c>
       <c r="B363" t="n">
         <v>2</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>68901</v>
+        <v>68978</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45971</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>68852</v>
+        <v>69345</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45993</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>68853</v>
+        <v>69070</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45952</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>68977</v>
+        <v>69485</v>
       </c>
       <c r="B367" t="n">
         <v>2</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45952</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>68978</v>
+        <v>69487</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45957</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>69345</v>
+        <v>69644</v>
       </c>
       <c r="B369" t="n">
         <v>2</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45959</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>69070</v>
+        <v>69652</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45944</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>69485</v>
+        <v>69653</v>
       </c>
       <c r="B371" t="n">
         <v>2</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45985</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>69487</v>
+        <v>69648</v>
       </c>
       <c r="B372" t="n">
         <v>2</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45940</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>69644</v>
+        <v>69741</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45939</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>69652</v>
+        <v>69752</v>
       </c>
       <c r="B374" t="n">
         <v>2</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45965</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>69653</v>
+        <v>69763</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>46006</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>69648</v>
+        <v>69911</v>
       </c>
       <c r="B376" t="n">
         <v>2</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45981</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>69741</v>
+        <v>69912</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45957</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>69752</v>
+        <v>70298</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6489,12 +6489,12 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45988</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>69763</v>
+        <v>70299</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45953</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>69911</v>
+        <v>70333</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45972</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>69912</v>
+        <v>70338</v>
       </c>
       <c r="B381" t="n">
         <v>2</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45966</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>70298</v>
+        <v>70343</v>
       </c>
       <c r="B382" t="n">
         <v>2</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45968</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>70299</v>
+        <v>70697</v>
       </c>
       <c r="B383" t="n">
         <v>2</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45981</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>70333</v>
+        <v>70698</v>
       </c>
       <c r="B384" t="n">
         <v>2</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45931</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>70338</v>
+        <v>70795</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>70343</v>
+        <v>70871</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>70697</v>
+        <v>70959</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45968</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>70698</v>
+        <v>70960</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45980</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>70795</v>
+        <v>71054</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>70871</v>
+        <v>71063</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45932</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>70959</v>
+        <v>71064</v>
       </c>
       <c r="B391" t="n">
         <v>2</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45992</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>70960</v>
+        <v>71156</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45952</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>71054</v>
+        <v>71159</v>
       </c>
       <c r="B393" t="n">
         <v>2</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45933</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>71063</v>
+        <v>71168</v>
       </c>
       <c r="B394" t="n">
         <v>2</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45986</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>71064</v>
+        <v>71172</v>
       </c>
       <c r="B395" t="n">
         <v>2</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45958</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>71156</v>
+        <v>71163</v>
       </c>
       <c r="B396" t="n">
         <v>2</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45933</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>71159</v>
+        <v>71652</v>
       </c>
       <c r="B397" t="n">
         <v>2</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45982</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>71168</v>
+        <v>71653</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45959</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>71172</v>
+        <v>71779</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45979</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>71163</v>
+        <v>71780</v>
       </c>
       <c r="B400" t="n">
         <v>2</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45975</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>71652</v>
+        <v>71856</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45954</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>71653</v>
+        <v>71857</v>
       </c>
       <c r="B402" t="n">
         <v>2</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45940</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>71779</v>
+        <v>71986</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45967</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>71780</v>
+        <v>71998</v>
       </c>
       <c r="B404" t="n">
         <v>2</v>
@@ -6905,12 +6905,12 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45950</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>71856</v>
+        <v>72002</v>
       </c>
       <c r="B405" t="n">
         <v>2</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45980</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>71857</v>
+        <v>72082</v>
       </c>
       <c r="B406" t="n">
         <v>2</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45950</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>71986</v>
+        <v>72191</v>
       </c>
       <c r="B407" t="n">
         <v>2</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45972</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>71998</v>
+        <v>72329</v>
       </c>
       <c r="B408" t="n">
         <v>2</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45931</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>72002</v>
+        <v>72192</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45945</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>72082</v>
+        <v>72330</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45973</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>72191</v>
+        <v>72332</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45954</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72329</v>
+        <v>72333</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45989</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>72192</v>
+        <v>72343</v>
       </c>
       <c r="B413" t="n">
         <v>2</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45982</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>72330</v>
+        <v>72344</v>
       </c>
       <c r="B414" t="n">
         <v>2</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>72332</v>
+        <v>72345</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45932</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>72333</v>
+        <v>72528</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45933</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>72343</v>
+        <v>72531</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>72344</v>
+        <v>72541</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>72345</v>
+        <v>72659</v>
       </c>
       <c r="B419" t="n">
         <v>2</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>72528</v>
+        <v>72739</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7161,12 +7161,12 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45966</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>72531</v>
+        <v>72742</v>
       </c>
       <c r="B421" t="n">
         <v>2</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45940</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>72541</v>
+        <v>72746</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45965</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>72659</v>
+        <v>72983</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7209,12 +7209,12 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45959</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>72739</v>
+        <v>73026</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45950</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>72742</v>
+        <v>73485</v>
       </c>
       <c r="B425" t="n">
         <v>2</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45936</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>72746</v>
+        <v>73508</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45958</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>72983</v>
+        <v>73512</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45940</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>73026</v>
+        <v>73532</v>
       </c>
       <c r="B428" t="n">
         <v>2</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45944</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>73485</v>
+        <v>73645</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45973</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>73508</v>
+        <v>73647</v>
       </c>
       <c r="B430" t="n">
         <v>2</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45952</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>73512</v>
+        <v>73741</v>
       </c>
       <c r="B431" t="n">
         <v>2</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45950</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>73532</v>
+        <v>73743</v>
       </c>
       <c r="B432" t="n">
         <v>2</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45966</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>73645</v>
+        <v>73750</v>
       </c>
       <c r="B433" t="n">
         <v>2</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45953</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>73647</v>
+        <v>73751</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45940</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>73741</v>
+        <v>73759</v>
       </c>
       <c r="B435" t="n">
         <v>2</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45979</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>73743</v>
+        <v>73849</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>73750</v>
+        <v>74068</v>
       </c>
       <c r="B437" t="n">
         <v>2</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>46000</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>73751</v>
+        <v>74243</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45932</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>73759</v>
+        <v>74244</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45958</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>73849</v>
+        <v>74298</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45946</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>74068</v>
+        <v>74245</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45951</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>74243</v>
+        <v>74388</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45961</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>74244</v>
+        <v>74389</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45951</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>74298</v>
+        <v>74396</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45972</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>74245</v>
+        <v>74511</v>
       </c>
       <c r="B445" t="n">
         <v>2</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45944</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>74388</v>
+        <v>74519</v>
       </c>
       <c r="B446" t="n">
         <v>2</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45965</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>74389</v>
+        <v>74824</v>
       </c>
       <c r="B447" t="n">
         <v>2</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45981</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>74396</v>
+        <v>74888</v>
       </c>
       <c r="B448" t="n">
         <v>2</v>
@@ -7609,12 +7609,12 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45937</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>74511</v>
+        <v>74929</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45986</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>74519</v>
+        <v>74968</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45938</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>74824</v>
+        <v>74969</v>
       </c>
       <c r="B451" t="n">
         <v>2</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45989</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>74888</v>
+        <v>74973</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,12 +7673,12 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45971</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>74929</v>
+        <v>75127</v>
       </c>
       <c r="B453" t="n">
         <v>2</v>
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45971</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>74968</v>
+        <v>75297</v>
       </c>
       <c r="B454" t="n">
         <v>2</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45946</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>74969</v>
+        <v>75355</v>
       </c>
       <c r="B455" t="n">
         <v>2</v>
@@ -7721,12 +7721,12 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45951</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>74973</v>
+        <v>75482</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45996</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>75127</v>
+        <v>75485</v>
       </c>
       <c r="B457" t="n">
         <v>2</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45982</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>75297</v>
+        <v>75525</v>
       </c>
       <c r="B458" t="n">
         <v>2</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45974</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>75355</v>
+        <v>75602</v>
       </c>
       <c r="B459" t="n">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45950</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>75482</v>
+        <v>75689</v>
       </c>
       <c r="B460" t="n">
         <v>2</v>
@@ -7801,12 +7801,12 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45987</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>75485</v>
+        <v>75717</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>75525</v>
+        <v>75695</v>
       </c>
       <c r="B462" t="n">
         <v>2</v>
@@ -7833,12 +7833,12 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45957</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>75602</v>
+        <v>75697</v>
       </c>
       <c r="B463" t="n">
         <v>2</v>
@@ -7849,12 +7849,12 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>75689</v>
+        <v>75740</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,12 +7865,12 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45981</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>75717</v>
+        <v>75743</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -7881,12 +7881,12 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45940</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>75695</v>
+        <v>75803</v>
       </c>
       <c r="B466" t="n">
         <v>2</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45947</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>75697</v>
+        <v>75911</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,12 +7913,12 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45959</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>75740</v>
+        <v>75984</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45971</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>75743</v>
+        <v>75986</v>
       </c>
       <c r="B469" t="n">
         <v>2</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45958</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>75803</v>
+        <v>76081</v>
       </c>
       <c r="B470" t="n">
         <v>2</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>46001</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>75911</v>
+        <v>76084</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>75984</v>
+        <v>76296</v>
       </c>
       <c r="B472" t="n">
         <v>2</v>
@@ -7993,12 +7993,12 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45946</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>75986</v>
+        <v>76496</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -8009,12 +8009,12 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45954</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>76081</v>
+        <v>76493</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45950</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>76084</v>
+        <v>76497</v>
       </c>
       <c r="B475" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45961</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>76296</v>
+        <v>76492</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45953</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>76496</v>
+        <v>76535</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45944</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>76493</v>
+        <v>76711</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45957</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>76497</v>
+        <v>76783</v>
       </c>
       <c r="B479" t="n">
         <v>2</v>
@@ -8105,12 +8105,12 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45938</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>76492</v>
+        <v>76792</v>
       </c>
       <c r="B480" t="n">
         <v>2</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45945</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>76535</v>
+        <v>76789</v>
       </c>
       <c r="B481" t="n">
         <v>2</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45947</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>76711</v>
+        <v>76878</v>
       </c>
       <c r="B482" t="n">
         <v>2</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45971</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>76790</v>
+        <v>76938</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45965</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>76783</v>
+        <v>76931</v>
       </c>
       <c r="B484" t="n">
         <v>2</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45971</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>76792</v>
+        <v>76943</v>
       </c>
       <c r="B485" t="n">
         <v>2</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45958</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>76789</v>
+        <v>76932</v>
       </c>
       <c r="B486" t="n">
         <v>2</v>
@@ -8217,12 +8217,12 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45944</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>76878</v>
+        <v>76944</v>
       </c>
       <c r="B487" t="n">
         <v>2</v>
@@ -8233,12 +8233,12 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45945</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>76938</v>
+        <v>76934</v>
       </c>
       <c r="B488" t="n">
         <v>2</v>
@@ -8249,12 +8249,12 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45937</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>76931</v>
+        <v>77001</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,12 +8265,12 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45980</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>76943</v>
+        <v>77121</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,12 +8281,12 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45968</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>76932</v>
+        <v>77336</v>
       </c>
       <c r="B491" t="n">
         <v>2</v>
@@ -8297,12 +8297,12 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45979</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>76944</v>
+        <v>77388</v>
       </c>
       <c r="B492" t="n">
         <v>2</v>
@@ -8313,12 +8313,12 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45938</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>76934</v>
+        <v>77338</v>
       </c>
       <c r="B493" t="n">
         <v>2</v>
@@ -8329,12 +8329,12 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45974</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>77001</v>
+        <v>77389</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -8345,28 +8345,28 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45989</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>77003</v>
+        <v>78239</v>
       </c>
       <c r="B495" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45981</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>77121</v>
+        <v>78313</v>
       </c>
       <c r="B496" t="n">
         <v>2</v>
@@ -8377,12 +8377,12 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>77336</v>
+        <v>78341</v>
       </c>
       <c r="B497" t="n">
         <v>2</v>
@@ -8393,12 +8393,12 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45945</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>77388</v>
+        <v>78342</v>
       </c>
       <c r="B498" t="n">
         <v>2</v>
@@ -8409,12 +8409,12 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45931</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>77338</v>
+        <v>78373</v>
       </c>
       <c r="B499" t="n">
         <v>2</v>
@@ -8425,12 +8425,12 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>77389</v>
+        <v>78503</v>
       </c>
       <c r="B500" t="n">
         <v>2</v>
@@ -8441,12 +8441,12 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45966</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>78239</v>
+        <v>78599</v>
       </c>
       <c r="B501" t="n">
         <v>2</v>
@@ -8457,12 +8457,12 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45971</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>78313</v>
+        <v>78600</v>
       </c>
       <c r="B502" t="n">
         <v>2</v>
@@ -8473,12 +8473,12 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45971</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>78341</v>
+        <v>78792</v>
       </c>
       <c r="B503" t="n">
         <v>2</v>
@@ -8489,12 +8489,12 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45973</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>78342</v>
+        <v>78789</v>
       </c>
       <c r="B504" t="n">
         <v>2</v>
@@ -8505,12 +8505,12 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45959</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>78373</v>
+        <v>78946</v>
       </c>
       <c r="B505" t="n">
         <v>2</v>
@@ -8521,12 +8521,12 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45957</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>78503</v>
+        <v>79043</v>
       </c>
       <c r="B506" t="n">
         <v>2</v>
@@ -8537,12 +8537,12 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45933</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>78599</v>
+        <v>79042</v>
       </c>
       <c r="B507" t="n">
         <v>2</v>
@@ -8553,12 +8553,12 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45968</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>78600</v>
+        <v>79279</v>
       </c>
       <c r="B508" t="n">
         <v>2</v>
@@ -8569,12 +8569,12 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45980</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>78792</v>
+        <v>79280</v>
       </c>
       <c r="B509" t="n">
         <v>2</v>
@@ -8585,12 +8585,12 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45961</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>78789</v>
+        <v>79281</v>
       </c>
       <c r="B510" t="n">
         <v>2</v>
@@ -8601,12 +8601,12 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45985</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>78946</v>
+        <v>79346</v>
       </c>
       <c r="B511" t="n">
         <v>2</v>
@@ -8617,12 +8617,12 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45993</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>79043</v>
+        <v>79284</v>
       </c>
       <c r="B512" t="n">
         <v>2</v>
@@ -8633,12 +8633,12 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45988</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>79042</v>
+        <v>79286</v>
       </c>
       <c r="B513" t="n">
         <v>2</v>
@@ -8649,12 +8649,12 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>79279</v>
+        <v>79348</v>
       </c>
       <c r="B514" t="n">
         <v>2</v>
@@ -8665,12 +8665,12 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45982</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>79280</v>
+        <v>79350</v>
       </c>
       <c r="B515" t="n">
         <v>2</v>
@@ -8681,12 +8681,12 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45960</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>79281</v>
+        <v>79351</v>
       </c>
       <c r="B516" t="n">
         <v>2</v>
@@ -8697,12 +8697,12 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45933</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>79346</v>
+        <v>79352</v>
       </c>
       <c r="B517" t="n">
         <v>2</v>
@@ -8713,12 +8713,12 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45975</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>79284</v>
+        <v>79540</v>
       </c>
       <c r="B518" t="n">
         <v>2</v>
@@ -8729,12 +8729,12 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45979</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>79286</v>
+        <v>79541</v>
       </c>
       <c r="B519" t="n">
         <v>2</v>
@@ -8745,12 +8745,12 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45981</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>79348</v>
+        <v>79535</v>
       </c>
       <c r="B520" t="n">
         <v>2</v>
@@ -8761,12 +8761,12 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45937</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>79350</v>
+        <v>79536</v>
       </c>
       <c r="B521" t="n">
         <v>2</v>
@@ -8777,12 +8777,12 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>45952</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>79351</v>
+        <v>79538</v>
       </c>
       <c r="B522" t="n">
         <v>2</v>
@@ -8793,12 +8793,12 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>45946</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>79352</v>
+        <v>79600</v>
       </c>
       <c r="B523" t="n">
         <v>2</v>
@@ -8809,28 +8809,28 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>45973</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>79528</v>
+        <v>79601</v>
       </c>
       <c r="B524" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>45951</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>79529</v>
+        <v>79604</v>
       </c>
       <c r="B525" t="n">
         <v>2</v>
@@ -8841,12 +8841,12 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>45979</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>79540</v>
+        <v>79612</v>
       </c>
       <c r="B526" t="n">
         <v>2</v>
@@ -8857,12 +8857,12 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>45947</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>79541</v>
+        <v>79532</v>
       </c>
       <c r="B527" t="n">
         <v>2</v>
@@ -8873,12 +8873,12 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>45975</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>79535</v>
+        <v>79613</v>
       </c>
       <c r="B528" t="n">
         <v>2</v>
@@ -8889,12 +8889,12 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>45940</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>79536</v>
+        <v>79614</v>
       </c>
       <c r="B529" t="n">
         <v>2</v>
@@ -8905,12 +8905,12 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>79538</v>
+        <v>79606</v>
       </c>
       <c r="B530" t="n">
         <v>2</v>
@@ -8921,12 +8921,12 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>45975</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>79600</v>
+        <v>79609</v>
       </c>
       <c r="B531" t="n">
         <v>2</v>
@@ -8937,12 +8937,12 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>45965</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>79601</v>
+        <v>79749</v>
       </c>
       <c r="B532" t="n">
         <v>2</v>
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>45985</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>79603</v>
+        <v>79741</v>
       </c>
       <c r="B533" t="n">
         <v>2</v>
@@ -8969,12 +8969,12 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>45967</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79604</v>
+        <v>79742</v>
       </c>
       <c r="B534" t="n">
         <v>2</v>
@@ -8985,12 +8985,12 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>45938</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>79612</v>
+        <v>79743</v>
       </c>
       <c r="B535" t="n">
         <v>2</v>
@@ -9001,12 +9001,12 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>45958</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>79532</v>
+        <v>79744</v>
       </c>
       <c r="B536" t="n">
         <v>2</v>
@@ -9017,12 +9017,12 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>46007</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>79613</v>
+        <v>79747</v>
       </c>
       <c r="B537" t="n">
         <v>2</v>
@@ -9033,12 +9033,12 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>45932</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>79614</v>
+        <v>79748</v>
       </c>
       <c r="B538" t="n">
         <v>2</v>
@@ -9049,12 +9049,12 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>45938</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>79606</v>
+        <v>79931</v>
       </c>
       <c r="B539" t="n">
         <v>2</v>
@@ -9065,12 +9065,12 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>45950</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>79609</v>
+        <v>79982</v>
       </c>
       <c r="B540" t="n">
         <v>2</v>
@@ -9081,12 +9081,12 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>45975</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>79749</v>
+        <v>79983</v>
       </c>
       <c r="B541" t="n">
         <v>2</v>
@@ -9097,12 +9097,12 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>46008</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>79741</v>
+        <v>79976</v>
       </c>
       <c r="B542" t="n">
         <v>2</v>
@@ -9113,12 +9113,12 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>79742</v>
+        <v>79981</v>
       </c>
       <c r="B543" t="n">
         <v>2</v>
@@ -9129,12 +9129,12 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>45981</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>79743</v>
+        <v>80119</v>
       </c>
       <c r="B544" t="n">
         <v>2</v>
@@ -9145,12 +9145,12 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>45965</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>79744</v>
+        <v>80239</v>
       </c>
       <c r="B545" t="n">
         <v>2</v>
@@ -9161,12 +9161,12 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>45972</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>79747</v>
+        <v>80240</v>
       </c>
       <c r="B546" t="n">
         <v>2</v>
@@ -9177,12 +9177,12 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>45985</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>79748</v>
+        <v>80433</v>
       </c>
       <c r="B547" t="n">
         <v>2</v>
@@ -9193,12 +9193,12 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>45981</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>79931</v>
+        <v>80434</v>
       </c>
       <c r="B548" t="n">
         <v>2</v>
@@ -9209,12 +9209,12 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>45936</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>79982</v>
+        <v>80577</v>
       </c>
       <c r="B549" t="n">
         <v>2</v>
@@ -9225,12 +9225,12 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>45940</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>79983</v>
+        <v>80578</v>
       </c>
       <c r="B550" t="n">
         <v>2</v>
@@ -9241,12 +9241,12 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>45973</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>79976</v>
+        <v>80581</v>
       </c>
       <c r="B551" t="n">
         <v>2</v>
@@ -9257,12 +9257,12 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>79981</v>
+        <v>80652</v>
       </c>
       <c r="B552" t="n">
         <v>2</v>
@@ -9273,12 +9273,12 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>45993</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>80119</v>
+        <v>80654</v>
       </c>
       <c r="B553" t="n">
         <v>2</v>
@@ -9289,12 +9289,12 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>45950</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>80239</v>
+        <v>80655</v>
       </c>
       <c r="B554" t="n">
         <v>2</v>
@@ -9305,12 +9305,12 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>45951</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>80240</v>
+        <v>80656</v>
       </c>
       <c r="B555" t="n">
         <v>2</v>
@@ -9321,12 +9321,12 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>45944</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>80241</v>
+        <v>80721</v>
       </c>
       <c r="B556" t="n">
         <v>2</v>
@@ -9337,342 +9337,6 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>45965</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="n">
-        <v>80242</v>
-      </c>
-      <c r="B557" t="n">
-        <v>2</v>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D557" s="2" t="n">
-        <v>45933</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="n">
-        <v>80245</v>
-      </c>
-      <c r="B558" t="n">
-        <v>2</v>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D558" s="2" t="n">
-        <v>45959</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="n">
-        <v>80343</v>
-      </c>
-      <c r="B559" t="n">
-        <v>2</v>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D559" s="2" t="n">
-        <v>45960</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="n">
-        <v>80349</v>
-      </c>
-      <c r="B560" t="n">
-        <v>2</v>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D560" s="2" t="n">
-        <v>45961</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="n">
-        <v>80350</v>
-      </c>
-      <c r="B561" t="n">
-        <v>2</v>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D561" s="2" t="n">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="n">
-        <v>80516</v>
-      </c>
-      <c r="B562" t="n">
-        <v>2</v>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D562" s="2" t="n">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="n">
-        <v>80429</v>
-      </c>
-      <c r="B563" t="n">
-        <v>2</v>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D563" s="2" t="n">
-        <v>45947</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="n">
-        <v>80433</v>
-      </c>
-      <c r="B564" t="n">
-        <v>2</v>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D564" s="2" t="n">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="n">
-        <v>80434</v>
-      </c>
-      <c r="B565" t="n">
-        <v>2</v>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D565" s="2" t="n">
-        <v>45981</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="n">
-        <v>80435</v>
-      </c>
-      <c r="B566" t="n">
-        <v>2</v>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D566" s="2" t="n">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="n">
-        <v>80576</v>
-      </c>
-      <c r="B567" t="n">
-        <v>2</v>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D567" s="2" t="n">
-        <v>45937</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="n">
-        <v>80577</v>
-      </c>
-      <c r="B568" t="n">
-        <v>2</v>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D568" s="2" t="n">
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="n">
-        <v>80578</v>
-      </c>
-      <c r="B569" t="n">
-        <v>2</v>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D569" s="2" t="n">
-        <v>45985</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="n">
-        <v>80581</v>
-      </c>
-      <c r="B570" t="n">
-        <v>2</v>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D570" s="2" t="n">
-        <v>45982</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="n">
-        <v>80651</v>
-      </c>
-      <c r="B571" t="n">
-        <v>2</v>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D571" s="2" t="n">
-        <v>45958</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="n">
-        <v>80652</v>
-      </c>
-      <c r="B572" t="n">
-        <v>2</v>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D572" s="2" t="n">
-        <v>45968</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="n">
-        <v>80653</v>
-      </c>
-      <c r="B573" t="n">
-        <v>2</v>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D573" s="2" t="n">
-        <v>45954</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="n">
-        <v>80654</v>
-      </c>
-      <c r="B574" t="n">
-        <v>2</v>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D574" s="2" t="n">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="n">
-        <v>80655</v>
-      </c>
-      <c r="B575" t="n">
-        <v>2</v>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D575" s="2" t="n">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="n">
-        <v>80656</v>
-      </c>
-      <c r="B576" t="n">
-        <v>2</v>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D576" s="2" t="n">
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="n">
-        <v>80721</v>
-      </c>
-      <c r="B577" t="n">
-        <v>2</v>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D577" s="2" t="n">
         <v>45992</v>
       </c>
     </row>
@@ -9687,7 +9351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9714,17 +9378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Desistido</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
+++ b/Resultado/estado_gestion_Paquete_Bogota_2.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D556"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45944</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45975</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="36">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45979</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="37">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45971</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="38">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45953</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="40">
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45937</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="42">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45981</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="46">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="47">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45953</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="48">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45971</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="51">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45968</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="58">
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45933</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>36847</v>
+        <v>37189</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45953</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>37189</v>
+        <v>37353</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
@@ -1913,12 +1913,12 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45968</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>37353</v>
+        <v>38319</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -1929,12 +1929,12 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45933</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>38319</v>
+        <v>37527</v>
       </c>
       <c r="B94" t="n">
         <v>2</v>
@@ -1945,12 +1945,12 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45975</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>37527</v>
+        <v>37775</v>
       </c>
       <c r="B95" t="n">
         <v>2</v>
@@ -1961,12 +1961,12 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>37775</v>
+        <v>38447</v>
       </c>
       <c r="B96" t="n">
         <v>2</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45980</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>38447</v>
+        <v>38516</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45938</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>38516</v>
+        <v>38523</v>
       </c>
       <c r="B98" t="n">
         <v>2</v>
@@ -2009,12 +2009,12 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45973</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>38523</v>
+        <v>38476</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45954</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>38476</v>
+        <v>39049</v>
       </c>
       <c r="B100" t="n">
         <v>2</v>
@@ -2041,12 +2041,12 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45931</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>39049</v>
+        <v>39260</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
@@ -2057,12 +2057,12 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>39260</v>
+        <v>39431</v>
       </c>
       <c r="B102" t="n">
         <v>2</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45960</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>39431</v>
+        <v>39722</v>
       </c>
       <c r="B103" t="n">
         <v>2</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45939</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>39722</v>
+        <v>39945</v>
       </c>
       <c r="B104" t="n">
         <v>2</v>
@@ -2105,12 +2105,12 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45982</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>39945</v>
+        <v>40096</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45966</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>40096</v>
+        <v>40464</v>
       </c>
       <c r="B106" t="n">
         <v>2</v>
@@ -2137,12 +2137,12 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45933</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>40464</v>
+        <v>40580</v>
       </c>
       <c r="B107" t="n">
         <v>2</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45985</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>40580</v>
+        <v>40679</v>
       </c>
       <c r="B108" t="n">
         <v>2</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45932</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>40679</v>
+        <v>41312</v>
       </c>
       <c r="B109" t="n">
         <v>2</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45946</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>41312</v>
+        <v>41313</v>
       </c>
       <c r="B110" t="n">
         <v>2</v>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45972</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>41313</v>
+        <v>41456</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>41456</v>
+        <v>41457</v>
       </c>
       <c r="B112" t="n">
         <v>2</v>
@@ -2233,12 +2233,12 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>41457</v>
+        <v>41864</v>
       </c>
       <c r="B113" t="n">
         <v>2</v>
@@ -2249,12 +2249,12 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45960</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>41864</v>
+        <v>43110</v>
       </c>
       <c r="B114" t="n">
         <v>2</v>
@@ -2265,12 +2265,12 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45947</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>43110</v>
+        <v>42911</v>
       </c>
       <c r="B115" t="n">
         <v>2</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45986</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>42911</v>
+        <v>43114</v>
       </c>
       <c r="B116" t="n">
         <v>2</v>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>43114</v>
+        <v>43228</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45952</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>43118</v>
+        <v>43230</v>
       </c>
       <c r="B118" t="n">
         <v>2</v>
@@ -2329,12 +2329,12 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45944</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>43228</v>
+        <v>43351</v>
       </c>
       <c r="B119" t="n">
         <v>2</v>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45981</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>43230</v>
+        <v>43594</v>
       </c>
       <c r="B120" t="n">
         <v>2</v>
@@ -2361,12 +2361,12 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45967</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>43351</v>
+        <v>43442</v>
       </c>
       <c r="B121" t="n">
         <v>2</v>
@@ -2377,12 +2377,12 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45936</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>43594</v>
+        <v>43443</v>
       </c>
       <c r="B122" t="n">
         <v>2</v>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45939</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>43442</v>
+        <v>44031</v>
       </c>
       <c r="B123" t="n">
         <v>2</v>
@@ -2409,12 +2409,12 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45952</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>43443</v>
+        <v>45148</v>
       </c>
       <c r="B124" t="n">
         <v>2</v>
@@ -2425,12 +2425,12 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>44031</v>
+        <v>45373</v>
       </c>
       <c r="B125" t="n">
         <v>2</v>
@@ -2441,12 +2441,12 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45951</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43958</v>
+        <v>45375</v>
       </c>
       <c r="B126" t="n">
         <v>2</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45972</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>45148</v>
+        <v>45377</v>
       </c>
       <c r="B127" t="n">
         <v>2</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45965</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>45373</v>
+        <v>45887</v>
       </c>
       <c r="B128" t="n">
         <v>2</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45992</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>45375</v>
+        <v>45689</v>
       </c>
       <c r="B129" t="n">
         <v>2</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45932</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>45377</v>
+        <v>45699</v>
       </c>
       <c r="B130" t="n">
         <v>2</v>
@@ -2521,12 +2521,12 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45932</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>45887</v>
+        <v>45914</v>
       </c>
       <c r="B131" t="n">
         <v>2</v>
@@ -2537,12 +2537,12 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45950</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>45689</v>
+        <v>45991</v>
       </c>
       <c r="B132" t="n">
         <v>2</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45939</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>45699</v>
+        <v>45992</v>
       </c>
       <c r="B133" t="n">
         <v>2</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>45914</v>
+        <v>45994</v>
       </c>
       <c r="B134" t="n">
         <v>2</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45993</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>45991</v>
+        <v>46194</v>
       </c>
       <c r="B135" t="n">
         <v>2</v>
@@ -2601,12 +2601,12 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45954</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>45992</v>
+        <v>46104</v>
       </c>
       <c r="B136" t="n">
         <v>2</v>
@@ -2617,12 +2617,12 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45945</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>45994</v>
+        <v>46488</v>
       </c>
       <c r="B137" t="n">
         <v>2</v>
@@ -2633,12 +2633,12 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45986</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>46194</v>
+        <v>46489</v>
       </c>
       <c r="B138" t="n">
         <v>2</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45965</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>46104</v>
+        <v>46599</v>
       </c>
       <c r="B139" t="n">
         <v>2</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>46488</v>
+        <v>46602</v>
       </c>
       <c r="B140" t="n">
         <v>2</v>
@@ -2681,12 +2681,12 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>46489</v>
+        <v>46608</v>
       </c>
       <c r="B141" t="n">
         <v>2</v>
@@ -2697,12 +2697,12 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45972</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>46599</v>
+        <v>46609</v>
       </c>
       <c r="B142" t="n">
         <v>2</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45953</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>46602</v>
+        <v>46883</v>
       </c>
       <c r="B143" t="n">
         <v>2</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45947</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>46608</v>
+        <v>46940</v>
       </c>
       <c r="B144" t="n">
         <v>2</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45938</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>46609</v>
+        <v>47161</v>
       </c>
       <c r="B145" t="n">
         <v>2</v>
@@ -2761,12 +2761,12 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45960</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>46883</v>
+        <v>47170</v>
       </c>
       <c r="B146" t="n">
         <v>2</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45939</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>46940</v>
+        <v>47171</v>
       </c>
       <c r="B147" t="n">
         <v>2</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45974</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>47161</v>
+        <v>47172</v>
       </c>
       <c r="B148" t="n">
         <v>2</v>
@@ -2809,12 +2809,12 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45985</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>47170</v>
+        <v>47414</v>
       </c>
       <c r="B149" t="n">
         <v>2</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>47171</v>
+        <v>47601</v>
       </c>
       <c r="B150" t="n">
         <v>2</v>
@@ -2841,12 +2841,12 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45953</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>47172</v>
+        <v>47606</v>
       </c>
       <c r="B151" t="n">
         <v>2</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45979</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>47414</v>
+        <v>47420</v>
       </c>
       <c r="B152" t="n">
         <v>2</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45959</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>47601</v>
+        <v>47769</v>
       </c>
       <c r="B153" t="n">
         <v>2</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45980</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>47606</v>
+        <v>47770</v>
       </c>
       <c r="B154" t="n">
         <v>2</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45985</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>47420</v>
+        <v>47775</v>
       </c>
       <c r="B155" t="n">
         <v>2</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45958</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>47769</v>
+        <v>47929</v>
       </c>
       <c r="B156" t="n">
         <v>2</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45957</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>47770</v>
+        <v>47793</v>
       </c>
       <c r="B157" t="n">
         <v>2</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45961</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>47775</v>
+        <v>47800</v>
       </c>
       <c r="B158" t="n">
         <v>2</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45950</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>47929</v>
+        <v>47801</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>46008</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>47793</v>
+        <v>47804</v>
       </c>
       <c r="B160" t="n">
         <v>2</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45973</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>47800</v>
+        <v>47807</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45965</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>47801</v>
+        <v>47924</v>
       </c>
       <c r="B162" t="n">
         <v>2</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45993</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>47804</v>
+        <v>48419</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45971</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>47807</v>
+        <v>48568</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
@@ -3065,12 +3065,12 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45950</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>47924</v>
+        <v>48876</v>
       </c>
       <c r="B165" t="n">
         <v>2</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45985</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>48419</v>
+        <v>48878</v>
       </c>
       <c r="B166" t="n">
         <v>2</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45966</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>48568</v>
+        <v>48791</v>
       </c>
       <c r="B167" t="n">
         <v>2</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>48876</v>
+        <v>49236</v>
       </c>
       <c r="B168" t="n">
         <v>2</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45947</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>48878</v>
+        <v>49237</v>
       </c>
       <c r="B169" t="n">
         <v>2</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45952</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>48791</v>
+        <v>49242</v>
       </c>
       <c r="B170" t="n">
         <v>2</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45947</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>49236</v>
+        <v>49565</v>
       </c>
       <c r="B171" t="n">
         <v>2</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45959</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>49237</v>
+        <v>49814</v>
       </c>
       <c r="B172" t="n">
         <v>2</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45958</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>49242</v>
+        <v>49977</v>
       </c>
       <c r="B173" t="n">
         <v>2</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>49565</v>
+        <v>49985</v>
       </c>
       <c r="B174" t="n">
         <v>2</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45931</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>49814</v>
+        <v>50051</v>
       </c>
       <c r="B175" t="n">
         <v>2</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45953</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>49977</v>
+        <v>50054</v>
       </c>
       <c r="B176" t="n">
         <v>2</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45954</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>49985</v>
+        <v>50056</v>
       </c>
       <c r="B177" t="n">
         <v>2</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45966</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>50051</v>
+        <v>50058</v>
       </c>
       <c r="B178" t="n">
         <v>2</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45988</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>50054</v>
+        <v>50214</v>
       </c>
       <c r="B179" t="n">
         <v>2</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45933</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>50056</v>
+        <v>50538</v>
       </c>
       <c r="B180" t="n">
         <v>2</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45974</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>50058</v>
+        <v>50539</v>
       </c>
       <c r="B181" t="n">
         <v>2</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45968</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>50214</v>
+        <v>50645</v>
       </c>
       <c r="B182" t="n">
         <v>2</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45981</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>50538</v>
+        <v>50845</v>
       </c>
       <c r="B183" t="n">
         <v>2</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45933</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>50539</v>
+        <v>50846</v>
       </c>
       <c r="B184" t="n">
         <v>2</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45960</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>50645</v>
+        <v>50849</v>
       </c>
       <c r="B185" t="n">
         <v>2</v>
@@ -3401,12 +3401,12 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45946</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>50845</v>
+        <v>50850</v>
       </c>
       <c r="B186" t="n">
         <v>2</v>
@@ -3417,12 +3417,12 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45959</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>50846</v>
+        <v>50852</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -3433,12 +3433,12 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45986</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>50849</v>
+        <v>50936</v>
       </c>
       <c r="B188" t="n">
         <v>2</v>
@@ -3449,12 +3449,12 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>50850</v>
+        <v>51214</v>
       </c>
       <c r="B189" t="n">
         <v>2</v>
@@ -3465,12 +3465,12 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45931</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>50852</v>
+        <v>51328</v>
       </c>
       <c r="B190" t="n">
         <v>2</v>
@@ -3481,12 +3481,12 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45971</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>50936</v>
+        <v>51335</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
@@ -3497,12 +3497,12 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45959</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>51214</v>
+        <v>51349</v>
       </c>
       <c r="B192" t="n">
         <v>2</v>
@@ -3513,12 +3513,12 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45957</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>51328</v>
+        <v>51541</v>
       </c>
       <c r="B193" t="n">
         <v>2</v>
@@ -3529,12 +3529,12 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45952</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>51335</v>
+        <v>51544</v>
       </c>
       <c r="B194" t="n">
         <v>2</v>
@@ -3545,12 +3545,12 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45931</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>51349</v>
+        <v>51552</v>
       </c>
       <c r="B195" t="n">
         <v>2</v>
@@ -3561,12 +3561,12 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45994</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>51541</v>
+        <v>51555</v>
       </c>
       <c r="B196" t="n">
         <v>2</v>
@@ -3577,12 +3577,12 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45938</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>51544</v>
+        <v>52248</v>
       </c>
       <c r="B197" t="n">
         <v>2</v>
@@ -3593,12 +3593,12 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45995</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>51552</v>
+        <v>52325</v>
       </c>
       <c r="B198" t="n">
         <v>2</v>
@@ -3609,12 +3609,12 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45954</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>51555</v>
+        <v>52256</v>
       </c>
       <c r="B199" t="n">
         <v>2</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>52248</v>
+        <v>52333</v>
       </c>
       <c r="B200" t="n">
         <v>2</v>
@@ -3641,12 +3641,12 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45958</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>52325</v>
+        <v>52334</v>
       </c>
       <c r="B201" t="n">
         <v>2</v>
@@ -3657,12 +3657,12 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45950</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>52256</v>
+        <v>52588</v>
       </c>
       <c r="B202" t="n">
         <v>2</v>
@@ -3673,12 +3673,12 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45933</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>52333</v>
+        <v>52914</v>
       </c>
       <c r="B203" t="n">
         <v>2</v>
@@ -3689,12 +3689,12 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45981</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>52334</v>
+        <v>52996</v>
       </c>
       <c r="B204" t="n">
         <v>2</v>
@@ -3705,12 +3705,12 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45967</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>52588</v>
+        <v>53003</v>
       </c>
       <c r="B205" t="n">
         <v>2</v>
@@ -3721,12 +3721,12 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45951</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>52914</v>
+        <v>53044</v>
       </c>
       <c r="B206" t="n">
         <v>2</v>
@@ -3737,12 +3737,12 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45987</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>52996</v>
+        <v>53046</v>
       </c>
       <c r="B207" t="n">
         <v>2</v>
@@ -3753,12 +3753,12 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45936</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>53003</v>
+        <v>53258</v>
       </c>
       <c r="B208" t="n">
         <v>2</v>
@@ -3769,12 +3769,12 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45945</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>53044</v>
+        <v>53441</v>
       </c>
       <c r="B209" t="n">
         <v>2</v>
@@ -3785,12 +3785,12 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45972</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>53046</v>
+        <v>53459</v>
       </c>
       <c r="B210" t="n">
         <v>2</v>
@@ -3801,12 +3801,12 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45974</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>53258</v>
+        <v>55164</v>
       </c>
       <c r="B211" t="n">
         <v>2</v>
@@ -3817,12 +3817,12 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>46007</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>53441</v>
+        <v>55170</v>
       </c>
       <c r="B212" t="n">
         <v>2</v>
@@ -3833,12 +3833,12 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45954</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>53459</v>
+        <v>55313</v>
       </c>
       <c r="B213" t="n">
         <v>2</v>
@@ -3849,12 +3849,12 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45937</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>55164</v>
+        <v>55750</v>
       </c>
       <c r="B214" t="n">
         <v>2</v>
@@ -3865,12 +3865,12 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45940</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>55170</v>
+        <v>55792</v>
       </c>
       <c r="B215" t="n">
         <v>2</v>
@@ -3881,12 +3881,12 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45950</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>55313</v>
+        <v>56210</v>
       </c>
       <c r="B216" t="n">
         <v>2</v>
@@ -3897,12 +3897,12 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45957</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>55750</v>
+        <v>56783</v>
       </c>
       <c r="B217" t="n">
         <v>2</v>
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45974</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>55792</v>
+        <v>56878</v>
       </c>
       <c r="B218" t="n">
         <v>2</v>
@@ -3929,12 +3929,12 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45967</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>56210</v>
+        <v>56932</v>
       </c>
       <c r="B219" t="n">
         <v>2</v>
@@ -3945,12 +3945,12 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45966</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>56783</v>
+        <v>56936</v>
       </c>
       <c r="B220" t="n">
         <v>2</v>
@@ -3961,12 +3961,12 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>56878</v>
+        <v>57326</v>
       </c>
       <c r="B221" t="n">
         <v>2</v>
@@ -3977,12 +3977,12 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45986</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>56932</v>
+        <v>57141</v>
       </c>
       <c r="B222" t="n">
         <v>2</v>
@@ -3993,12 +3993,12 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45940</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>56936</v>
+        <v>57567</v>
       </c>
       <c r="B223" t="n">
         <v>2</v>
@@ -4009,12 +4009,12 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45953</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>57326</v>
+        <v>57571</v>
       </c>
       <c r="B224" t="n">
         <v>2</v>
@@ -4025,12 +4025,12 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45937</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>57141</v>
+        <v>57576</v>
       </c>
       <c r="B225" t="n">
         <v>2</v>
@@ -4041,12 +4041,12 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45968</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>57567</v>
+        <v>57625</v>
       </c>
       <c r="B226" t="n">
         <v>2</v>
@@ -4057,12 +4057,12 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45985</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>57571</v>
+        <v>57630</v>
       </c>
       <c r="B227" t="n">
         <v>2</v>
@@ -4073,12 +4073,12 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45946</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>57576</v>
+        <v>57737</v>
       </c>
       <c r="B228" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45986</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>57625</v>
+        <v>57886</v>
       </c>
       <c r="B229" t="n">
         <v>2</v>
@@ -4105,12 +4105,12 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45953</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>57630</v>
+        <v>57820</v>
       </c>
       <c r="B230" t="n">
         <v>2</v>
@@ -4121,12 +4121,12 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45944</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>57737</v>
+        <v>58978</v>
       </c>
       <c r="B231" t="n">
         <v>2</v>
@@ -4137,12 +4137,12 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45967</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>57886</v>
+        <v>58983</v>
       </c>
       <c r="B232" t="n">
         <v>2</v>
@@ -4153,12 +4153,12 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45945</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>57820</v>
+        <v>59068</v>
       </c>
       <c r="B233" t="n">
         <v>2</v>
@@ -4169,12 +4169,12 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45957</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>58978</v>
+        <v>59069</v>
       </c>
       <c r="B234" t="n">
         <v>2</v>
@@ -4185,12 +4185,12 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45954</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>58983</v>
+        <v>59186</v>
       </c>
       <c r="B235" t="n">
         <v>2</v>
@@ -4201,12 +4201,12 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45940</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>59068</v>
+        <v>59258</v>
       </c>
       <c r="B236" t="n">
         <v>2</v>
@@ -4217,12 +4217,12 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45982</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>59069</v>
+        <v>59291</v>
       </c>
       <c r="B237" t="n">
         <v>2</v>
@@ -4233,12 +4233,12 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45947</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>59186</v>
+        <v>59267</v>
       </c>
       <c r="B238" t="n">
         <v>2</v>
@@ -4249,12 +4249,12 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45974</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>59258</v>
+        <v>59536</v>
       </c>
       <c r="B239" t="n">
         <v>2</v>
@@ -4265,12 +4265,12 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45938</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>59291</v>
+        <v>59738</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -4281,12 +4281,12 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45940</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>59267</v>
+        <v>59740</v>
       </c>
       <c r="B241" t="n">
         <v>2</v>
@@ -4297,12 +4297,12 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45973</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>59536</v>
+        <v>59742</v>
       </c>
       <c r="B242" t="n">
         <v>2</v>
@@ -4313,12 +4313,12 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45960</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>59738</v>
+        <v>59750</v>
       </c>
       <c r="B243" t="n">
         <v>2</v>
@@ -4329,12 +4329,12 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45954</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>59740</v>
+        <v>59756</v>
       </c>
       <c r="B244" t="n">
         <v>2</v>
@@ -4345,12 +4345,12 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45961</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59742</v>
+        <v>59758</v>
       </c>
       <c r="B245" t="n">
         <v>2</v>
@@ -4361,12 +4361,12 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45957</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>59750</v>
+        <v>59759</v>
       </c>
       <c r="B246" t="n">
         <v>2</v>
@@ -4377,12 +4377,12 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45944</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>59756</v>
+        <v>59760</v>
       </c>
       <c r="B247" t="n">
         <v>2</v>
@@ -4393,12 +4393,12 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45974</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>59758</v>
+        <v>59761</v>
       </c>
       <c r="B248" t="n">
         <v>2</v>
@@ -4409,12 +4409,12 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45939</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>59759</v>
+        <v>59894</v>
       </c>
       <c r="B249" t="n">
         <v>2</v>
@@ -4425,12 +4425,12 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45959</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>59760</v>
+        <v>59897</v>
       </c>
       <c r="B250" t="n">
         <v>2</v>
@@ -4441,12 +4441,12 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45989</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>59761</v>
+        <v>59764</v>
       </c>
       <c r="B251" t="n">
         <v>2</v>
@@ -4457,12 +4457,12 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45961</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>59894</v>
+        <v>60147</v>
       </c>
       <c r="B252" t="n">
         <v>2</v>
@@ -4473,12 +4473,12 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45975</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>59897</v>
+        <v>60221</v>
       </c>
       <c r="B253" t="n">
         <v>2</v>
@@ -4489,12 +4489,12 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45952</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>59764</v>
+        <v>60224</v>
       </c>
       <c r="B254" t="n">
         <v>2</v>
@@ -4505,12 +4505,12 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45987</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>60147</v>
+        <v>60372</v>
       </c>
       <c r="B255" t="n">
         <v>2</v>
@@ -4521,12 +4521,12 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45953</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>60221</v>
+        <v>60268</v>
       </c>
       <c r="B256" t="n">
         <v>2</v>
@@ -4537,12 +4537,12 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45961</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>60224</v>
+        <v>60506</v>
       </c>
       <c r="B257" t="n">
         <v>2</v>
@@ -4553,12 +4553,12 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45973</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>60372</v>
+        <v>60620</v>
       </c>
       <c r="B258" t="n">
         <v>2</v>
@@ -4569,12 +4569,12 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45975</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>60268</v>
+        <v>60622</v>
       </c>
       <c r="B259" t="n">
         <v>2</v>
@@ -4585,12 +4585,12 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45954</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>60506</v>
+        <v>60678</v>
       </c>
       <c r="B260" t="n">
         <v>2</v>
@@ -4601,12 +4601,12 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45958</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>60620</v>
+        <v>60739</v>
       </c>
       <c r="B261" t="n">
         <v>2</v>
@@ -4617,12 +4617,12 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45988</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>60622</v>
+        <v>60742</v>
       </c>
       <c r="B262" t="n">
         <v>2</v>
@@ -4633,12 +4633,12 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45967</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>60678</v>
+        <v>60876</v>
       </c>
       <c r="B263" t="n">
         <v>2</v>
@@ -4649,12 +4649,12 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45932</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>60739</v>
+        <v>60880</v>
       </c>
       <c r="B264" t="n">
         <v>2</v>
@@ -4665,12 +4665,12 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45982</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>60742</v>
+        <v>60962</v>
       </c>
       <c r="B265" t="n">
         <v>2</v>
@@ -4681,12 +4681,12 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45986</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>60876</v>
+        <v>61062</v>
       </c>
       <c r="B266" t="n">
         <v>2</v>
@@ -4697,12 +4697,12 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45987</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>60880</v>
+        <v>61243</v>
       </c>
       <c r="B267" t="n">
         <v>2</v>
@@ -4713,12 +4713,12 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45958</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>60962</v>
+        <v>61246</v>
       </c>
       <c r="B268" t="n">
         <v>2</v>
@@ -4729,12 +4729,12 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45968</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>61062</v>
+        <v>61247</v>
       </c>
       <c r="B269" t="n">
         <v>2</v>
@@ -4745,12 +4745,12 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45972</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>61243</v>
+        <v>61294</v>
       </c>
       <c r="B270" t="n">
         <v>2</v>
@@ -4761,12 +4761,12 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45945</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>61246</v>
+        <v>61484</v>
       </c>
       <c r="B271" t="n">
         <v>2</v>
@@ -4777,12 +4777,12 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45967</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>61247</v>
+        <v>62051</v>
       </c>
       <c r="B272" t="n">
         <v>2</v>
@@ -4793,12 +4793,12 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45980</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>61294</v>
+        <v>62129</v>
       </c>
       <c r="B273" t="n">
         <v>2</v>
@@ -4809,12 +4809,12 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45974</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>61484</v>
+        <v>62209</v>
       </c>
       <c r="B274" t="n">
         <v>2</v>
@@ -4825,12 +4825,12 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45953</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>62051</v>
+        <v>62218</v>
       </c>
       <c r="B275" t="n">
         <v>2</v>
@@ -4841,12 +4841,12 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45989</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>62129</v>
+        <v>62349</v>
       </c>
       <c r="B276" t="n">
         <v>2</v>
@@ -4857,12 +4857,12 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45975</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62209</v>
+        <v>62350</v>
       </c>
       <c r="B277" t="n">
         <v>2</v>
@@ -4873,12 +4873,12 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45947</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>62218</v>
+        <v>62352</v>
       </c>
       <c r="B278" t="n">
         <v>2</v>
@@ -4889,12 +4889,12 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45957</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>62349</v>
+        <v>62541</v>
       </c>
       <c r="B279" t="n">
         <v>2</v>
@@ -4905,12 +4905,12 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45989</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>62350</v>
+        <v>62419</v>
       </c>
       <c r="B280" t="n">
         <v>2</v>
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45987</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>62352</v>
+        <v>62709</v>
       </c>
       <c r="B281" t="n">
         <v>2</v>
@@ -4937,12 +4937,12 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45973</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>62541</v>
+        <v>62713</v>
       </c>
       <c r="B282" t="n">
         <v>2</v>
@@ -4953,12 +4953,12 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45973</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>62419</v>
+        <v>62853</v>
       </c>
       <c r="B283" t="n">
         <v>2</v>
@@ -4969,12 +4969,12 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45960</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>62709</v>
+        <v>63831</v>
       </c>
       <c r="B284" t="n">
         <v>2</v>
@@ -4985,12 +4985,12 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45989</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>62713</v>
+        <v>63039</v>
       </c>
       <c r="B285" t="n">
         <v>2</v>
@@ -5001,12 +5001,12 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45968</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>62853</v>
+        <v>63053</v>
       </c>
       <c r="B286" t="n">
         <v>2</v>
@@ -5017,12 +5017,12 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45979</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>63831</v>
+        <v>63311</v>
       </c>
       <c r="B287" t="n">
         <v>2</v>
@@ -5033,12 +5033,12 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>63039</v>
+        <v>63313</v>
       </c>
       <c r="B288" t="n">
         <v>2</v>
@@ -5049,12 +5049,12 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45973</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>63053</v>
+        <v>63479</v>
       </c>
       <c r="B289" t="n">
         <v>2</v>
@@ -5065,12 +5065,12 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45931</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63311</v>
+        <v>63727</v>
       </c>
       <c r="B290" t="n">
         <v>2</v>
@@ -5081,12 +5081,12 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45936</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>63313</v>
+        <v>63844</v>
       </c>
       <c r="B291" t="n">
         <v>2</v>
@@ -5097,12 +5097,12 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45965</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>63479</v>
+        <v>63846</v>
       </c>
       <c r="B292" t="n">
         <v>2</v>
@@ -5113,12 +5113,12 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45971</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>63727</v>
+        <v>63848</v>
       </c>
       <c r="B293" t="n">
         <v>2</v>
@@ -5129,12 +5129,12 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>63844</v>
+        <v>64031</v>
       </c>
       <c r="B294" t="n">
         <v>2</v>
@@ -5145,12 +5145,12 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45981</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>63846</v>
+        <v>64033</v>
       </c>
       <c r="B295" t="n">
         <v>2</v>
@@ -5161,12 +5161,12 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45940</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>63848</v>
+        <v>64115</v>
       </c>
       <c r="B296" t="n">
         <v>2</v>
@@ -5177,12 +5177,12 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45946</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>64031</v>
+        <v>64116</v>
       </c>
       <c r="B297" t="n">
         <v>2</v>
@@ -5193,12 +5193,12 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45961</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>64033</v>
+        <v>64118</v>
       </c>
       <c r="B298" t="n">
         <v>2</v>
@@ -5209,12 +5209,12 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45994</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>64115</v>
+        <v>64124</v>
       </c>
       <c r="B299" t="n">
         <v>2</v>
@@ -5225,12 +5225,12 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45939</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>64116</v>
+        <v>64322</v>
       </c>
       <c r="B300" t="n">
         <v>2</v>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45945</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>64118</v>
+        <v>64635</v>
       </c>
       <c r="B301" t="n">
         <v>2</v>
@@ -5257,12 +5257,12 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>64124</v>
+        <v>64819</v>
       </c>
       <c r="B302" t="n">
         <v>2</v>
@@ -5273,12 +5273,12 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45968</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>64322</v>
+        <v>64821</v>
       </c>
       <c r="B303" t="n">
         <v>2</v>
@@ -5289,12 +5289,12 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45939</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>64635</v>
+        <v>64823</v>
       </c>
       <c r="B304" t="n">
         <v>2</v>
@@ -5305,12 +5305,12 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45973</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>64819</v>
+        <v>64912</v>
       </c>
       <c r="B305" t="n">
         <v>2</v>
@@ -5321,12 +5321,12 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>46008</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>64821</v>
+        <v>64976</v>
       </c>
       <c r="B306" t="n">
         <v>2</v>
@@ -5337,12 +5337,12 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45967</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>64823</v>
+        <v>65396</v>
       </c>
       <c r="B307" t="n">
         <v>2</v>
@@ -5353,12 +5353,12 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45940</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>64912</v>
+        <v>65773</v>
       </c>
       <c r="B308" t="n">
         <v>2</v>
@@ -5369,12 +5369,12 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45933</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>64976</v>
+        <v>65775</v>
       </c>
       <c r="B309" t="n">
         <v>2</v>
@@ -5385,12 +5385,12 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45947</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>65396</v>
+        <v>65924</v>
       </c>
       <c r="B310" t="n">
         <v>2</v>
@@ -5401,12 +5401,12 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45959</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>65773</v>
+        <v>65925</v>
       </c>
       <c r="B311" t="n">
         <v>2</v>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45992</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>65775</v>
+        <v>66012</v>
       </c>
       <c r="B312" t="n">
         <v>2</v>
@@ -5433,12 +5433,12 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45936</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>65924</v>
+        <v>66048</v>
       </c>
       <c r="B313" t="n">
         <v>2</v>
@@ -5449,12 +5449,12 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45939</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>65925</v>
+        <v>66112</v>
       </c>
       <c r="B314" t="n">
         <v>2</v>
@@ -5465,12 +5465,12 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45980</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>66012</v>
+        <v>66343</v>
       </c>
       <c r="B315" t="n">
         <v>2</v>
@@ -5481,12 +5481,12 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45965</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>66048</v>
+        <v>66122</v>
       </c>
       <c r="B316" t="n">
         <v>2</v>
@@ -5497,12 +5497,12 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>46006</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>66112</v>
+        <v>66171</v>
       </c>
       <c r="B317" t="n">
         <v>2</v>
@@ -5513,12 +5513,12 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45939</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>66343</v>
+        <v>66460</v>
       </c>
       <c r="B318" t="n">
         <v>2</v>
@@ -5529,12 +5529,12 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45957</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>66122</v>
+        <v>66461</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -5545,12 +5545,12 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45996</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>66171</v>
+        <v>66602</v>
       </c>
       <c r="B320" t="n">
         <v>2</v>
@@ -5561,12 +5561,12 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45944</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>66460</v>
+        <v>66943</v>
       </c>
       <c r="B321" t="n">
         <v>2</v>
@@ -5577,12 +5577,12 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45936</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>66461</v>
+        <v>66609</v>
       </c>
       <c r="B322" t="n">
         <v>2</v>
@@ -5593,12 +5593,12 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45974</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>66602</v>
+        <v>66614</v>
       </c>
       <c r="B323" t="n">
         <v>2</v>
@@ -5609,12 +5609,12 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45960</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>66943</v>
+        <v>66675</v>
       </c>
       <c r="B324" t="n">
         <v>2</v>
@@ -5625,12 +5625,12 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45953</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>66609</v>
+        <v>66676</v>
       </c>
       <c r="B325" t="n">
         <v>2</v>
@@ -5641,12 +5641,12 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45961</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>66614</v>
+        <v>66860</v>
       </c>
       <c r="B326" t="n">
         <v>2</v>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45975</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>66675</v>
+        <v>66844</v>
       </c>
       <c r="B327" t="n">
         <v>2</v>
@@ -5673,12 +5673,12 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45937</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>66676</v>
+        <v>67159</v>
       </c>
       <c r="B328" t="n">
         <v>2</v>
@@ -5689,12 +5689,12 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45986</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>66733</v>
+        <v>67298</v>
       </c>
       <c r="B329" t="n">
         <v>2</v>
@@ -5705,12 +5705,12 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>46001</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>66860</v>
+        <v>67301</v>
       </c>
       <c r="B330" t="n">
         <v>2</v>
@@ -5721,12 +5721,12 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>66844</v>
+        <v>67453</v>
       </c>
       <c r="B331" t="n">
         <v>2</v>
@@ -5737,12 +5737,12 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45996</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>67159</v>
+        <v>67780</v>
       </c>
       <c r="B332" t="n">
         <v>2</v>
@@ -5753,12 +5753,12 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45960</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>67298</v>
+        <v>67843</v>
       </c>
       <c r="B333" t="n">
         <v>2</v>
@@ -5769,12 +5769,12 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45951</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>67301</v>
+        <v>68467</v>
       </c>
       <c r="B334" t="n">
         <v>2</v>
@@ -5785,12 +5785,12 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45968</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>67453</v>
+        <v>68415</v>
       </c>
       <c r="B335" t="n">
         <v>2</v>
@@ -5801,12 +5801,12 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45939</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>67550</v>
+        <v>68176</v>
       </c>
       <c r="B336" t="n">
         <v>2</v>
@@ -5817,12 +5817,12 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45975</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>67780</v>
+        <v>68182</v>
       </c>
       <c r="B337" t="n">
         <v>2</v>
@@ -5833,12 +5833,12 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45988</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>67843</v>
+        <v>68183</v>
       </c>
       <c r="B338" t="n">
         <v>2</v>
@@ -5849,12 +5849,12 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45961</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>68467</v>
+        <v>68184</v>
       </c>
       <c r="B339" t="n">
         <v>2</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>68415</v>
+        <v>68189</v>
       </c>
       <c r="B340" t="n">
         <v>2</v>
@@ -5881,12 +5881,12 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45953</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>68176</v>
+        <v>68326</v>
       </c>
       <c r="B341" t="n">
         <v>2</v>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45965</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>68182</v>
+        <v>68468</v>
       </c>
       <c r="B342" t="n">
         <v>2</v>
@@ -5913,12 +5913,12 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45954</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>68183</v>
+        <v>68541</v>
       </c>
       <c r="B343" t="n">
         <v>2</v>
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45937</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>68184</v>
+        <v>68542</v>
       </c>
       <c r="B344" t="n">
         <v>2</v>
@@ -5945,12 +5945,12 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45966</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>68189</v>
+        <v>68572</v>
       </c>
       <c r="B345" t="n">
         <v>2</v>
@@ -5961,12 +5961,12 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45985</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>68326</v>
+        <v>68545</v>
       </c>
       <c r="B346" t="n">
         <v>2</v>
@@ -5977,12 +5977,12 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45954</v>
+        <v>46002</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>68468</v>
+        <v>68577</v>
       </c>
       <c r="B347" t="n">
         <v>2</v>
@@ -5993,12 +5993,12 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45944</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>68541</v>
+        <v>68746</v>
       </c>
       <c r="B348" t="n">
         <v>2</v>
@@ -6009,12 +6009,12 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45957</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>68542</v>
+        <v>68673</v>
       </c>
       <c r="B349" t="n">
         <v>2</v>
@@ -6025,12 +6025,12 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45945</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>68572</v>
+        <v>68674</v>
       </c>
       <c r="B350" t="n">
         <v>2</v>
@@ -6041,12 +6041,12 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45958</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>68545</v>
+        <v>68675</v>
       </c>
       <c r="B351" t="n">
         <v>2</v>
@@ -6057,12 +6057,12 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>46002</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>68577</v>
+        <v>68750</v>
       </c>
       <c r="B352" t="n">
         <v>2</v>
@@ -6073,12 +6073,12 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45932</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>68746</v>
+        <v>68677</v>
       </c>
       <c r="B353" t="n">
         <v>2</v>
@@ -6089,12 +6089,12 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45992</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>68673</v>
+        <v>68755</v>
       </c>
       <c r="B354" t="n">
         <v>2</v>
@@ -6105,12 +6105,12 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45959</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>68674</v>
+        <v>68901</v>
       </c>
       <c r="B355" t="n">
         <v>2</v>
@@ -6121,12 +6121,12 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45940</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>68675</v>
+        <v>68852</v>
       </c>
       <c r="B356" t="n">
         <v>2</v>
@@ -6137,12 +6137,12 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45957</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>68750</v>
+        <v>68853</v>
       </c>
       <c r="B357" t="n">
         <v>2</v>
@@ -6153,12 +6153,12 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45936</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>68677</v>
+        <v>68977</v>
       </c>
       <c r="B358" t="n">
         <v>2</v>
@@ -6169,12 +6169,12 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>68755</v>
+        <v>68978</v>
       </c>
       <c r="B359" t="n">
         <v>2</v>
@@ -6185,12 +6185,12 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>68901</v>
+        <v>69345</v>
       </c>
       <c r="B360" t="n">
         <v>2</v>
@@ -6201,12 +6201,12 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>68852</v>
+        <v>69070</v>
       </c>
       <c r="B361" t="n">
         <v>2</v>
@@ -6217,12 +6217,12 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45993</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>68853</v>
+        <v>69485</v>
       </c>
       <c r="B362" t="n">
         <v>2</v>
@@ -6233,12 +6233,12 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45952</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>68977</v>
+        <v>69487</v>
       </c>
       <c r="B363" t="n">
         <v>2</v>
@@ -6249,12 +6249,12 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45952</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>68978</v>
+        <v>69644</v>
       </c>
       <c r="B364" t="n">
         <v>2</v>
@@ -6265,12 +6265,12 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45957</v>
+        <v>45939</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>69345</v>
+        <v>69652</v>
       </c>
       <c r="B365" t="n">
         <v>2</v>
@@ -6281,12 +6281,12 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45959</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>69070</v>
+        <v>69653</v>
       </c>
       <c r="B366" t="n">
         <v>2</v>
@@ -6297,12 +6297,12 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45944</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>69485</v>
+        <v>69648</v>
       </c>
       <c r="B367" t="n">
         <v>2</v>
@@ -6313,12 +6313,12 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45985</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>69487</v>
+        <v>69741</v>
       </c>
       <c r="B368" t="n">
         <v>2</v>
@@ -6329,12 +6329,12 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45940</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>69644</v>
+        <v>69752</v>
       </c>
       <c r="B369" t="n">
         <v>2</v>
@@ -6345,12 +6345,12 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45939</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>69652</v>
+        <v>69763</v>
       </c>
       <c r="B370" t="n">
         <v>2</v>
@@ -6361,12 +6361,12 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45965</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>69653</v>
+        <v>69911</v>
       </c>
       <c r="B371" t="n">
         <v>2</v>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>46006</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>69648</v>
+        <v>69912</v>
       </c>
       <c r="B372" t="n">
         <v>2</v>
@@ -6393,12 +6393,12 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45981</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>69741</v>
+        <v>70298</v>
       </c>
       <c r="B373" t="n">
         <v>2</v>
@@ -6409,12 +6409,12 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>69752</v>
+        <v>70299</v>
       </c>
       <c r="B374" t="n">
         <v>2</v>
@@ -6425,12 +6425,12 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45988</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>69763</v>
+        <v>70333</v>
       </c>
       <c r="B375" t="n">
         <v>2</v>
@@ -6441,12 +6441,12 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45953</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>69911</v>
+        <v>70338</v>
       </c>
       <c r="B376" t="n">
         <v>2</v>
@@ -6457,12 +6457,12 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45972</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>69912</v>
+        <v>70343</v>
       </c>
       <c r="B377" t="n">
         <v>2</v>
@@ -6473,12 +6473,12 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45966</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>70298</v>
+        <v>70697</v>
       </c>
       <c r="B378" t="n">
         <v>2</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>70299</v>
+        <v>70698</v>
       </c>
       <c r="B379" t="n">
         <v>2</v>
@@ -6505,12 +6505,12 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45981</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>70333</v>
+        <v>70795</v>
       </c>
       <c r="B380" t="n">
         <v>2</v>
@@ -6521,12 +6521,12 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>70338</v>
+        <v>70871</v>
       </c>
       <c r="B381" t="n">
         <v>2</v>
@@ -6537,12 +6537,12 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45931</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>70343</v>
+        <v>70959</v>
       </c>
       <c r="B382" t="n">
         <v>2</v>
@@ -6553,12 +6553,12 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45932</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>70697</v>
+        <v>70960</v>
       </c>
       <c r="B383" t="n">
         <v>2</v>
@@ -6569,12 +6569,12 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45968</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>70698</v>
+        <v>71054</v>
       </c>
       <c r="B384" t="n">
         <v>2</v>
@@ -6585,12 +6585,12 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45980</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>70795</v>
+        <v>71063</v>
       </c>
       <c r="B385" t="n">
         <v>2</v>
@@ -6601,12 +6601,12 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45936</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>70871</v>
+        <v>71064</v>
       </c>
       <c r="B386" t="n">
         <v>2</v>
@@ -6617,12 +6617,12 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45932</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>70959</v>
+        <v>71156</v>
       </c>
       <c r="B387" t="n">
         <v>2</v>
@@ -6633,12 +6633,12 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45992</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>70960</v>
+        <v>71159</v>
       </c>
       <c r="B388" t="n">
         <v>2</v>
@@ -6649,12 +6649,12 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45952</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>71054</v>
+        <v>71168</v>
       </c>
       <c r="B389" t="n">
         <v>2</v>
@@ -6665,12 +6665,12 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45933</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>71063</v>
+        <v>71172</v>
       </c>
       <c r="B390" t="n">
         <v>2</v>
@@ -6681,12 +6681,12 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45986</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>71064</v>
+        <v>71163</v>
       </c>
       <c r="B391" t="n">
         <v>2</v>
@@ -6697,12 +6697,12 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45958</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>71156</v>
+        <v>71652</v>
       </c>
       <c r="B392" t="n">
         <v>2</v>
@@ -6713,12 +6713,12 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45933</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>71159</v>
+        <v>71653</v>
       </c>
       <c r="B393" t="n">
         <v>2</v>
@@ -6729,12 +6729,12 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45982</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>71168</v>
+        <v>71779</v>
       </c>
       <c r="B394" t="n">
         <v>2</v>
@@ -6745,12 +6745,12 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45959</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>71172</v>
+        <v>71780</v>
       </c>
       <c r="B395" t="n">
         <v>2</v>
@@ -6761,12 +6761,12 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45979</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>71163</v>
+        <v>71856</v>
       </c>
       <c r="B396" t="n">
         <v>2</v>
@@ -6777,12 +6777,12 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45975</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>71652</v>
+        <v>71857</v>
       </c>
       <c r="B397" t="n">
         <v>2</v>
@@ -6793,12 +6793,12 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45954</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>71653</v>
+        <v>71986</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -6809,12 +6809,12 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45940</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>71779</v>
+        <v>71998</v>
       </c>
       <c r="B399" t="n">
         <v>2</v>
@@ -6825,12 +6825,12 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45967</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>71780</v>
+        <v>72002</v>
       </c>
       <c r="B400" t="n">
         <v>2</v>
@@ -6841,12 +6841,12 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45950</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>71856</v>
+        <v>72082</v>
       </c>
       <c r="B401" t="n">
         <v>2</v>
@@ -6857,12 +6857,12 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45980</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>71857</v>
+        <v>72191</v>
       </c>
       <c r="B402" t="n">
         <v>2</v>
@@ -6873,12 +6873,12 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45950</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>71986</v>
+        <v>72329</v>
       </c>
       <c r="B403" t="n">
         <v>2</v>
@@ -6889,12 +6889,12 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45972</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>71998</v>
+        <v>72192</v>
       </c>
       <c r="B404" t="n">
         <v>2</v>
@@ -6905,12 +6905,12 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45931</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>72002</v>
+        <v>72330</v>
       </c>
       <c r="B405" t="n">
         <v>2</v>
@@ -6921,12 +6921,12 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45945</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>72082</v>
+        <v>72332</v>
       </c>
       <c r="B406" t="n">
         <v>2</v>
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45973</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>72191</v>
+        <v>72333</v>
       </c>
       <c r="B407" t="n">
         <v>2</v>
@@ -6953,12 +6953,12 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45954</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>72329</v>
+        <v>72343</v>
       </c>
       <c r="B408" t="n">
         <v>2</v>
@@ -6969,12 +6969,12 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45989</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>72192</v>
+        <v>72344</v>
       </c>
       <c r="B409" t="n">
         <v>2</v>
@@ -6985,12 +6985,12 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45982</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>72330</v>
+        <v>72345</v>
       </c>
       <c r="B410" t="n">
         <v>2</v>
@@ -7001,12 +7001,12 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45951</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>72332</v>
+        <v>72531</v>
       </c>
       <c r="B411" t="n">
         <v>2</v>
@@ -7017,12 +7017,12 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45932</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72333</v>
+        <v>72659</v>
       </c>
       <c r="B412" t="n">
         <v>2</v>
@@ -7033,12 +7033,12 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45933</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>72343</v>
+        <v>72739</v>
       </c>
       <c r="B413" t="n">
         <v>2</v>
@@ -7049,12 +7049,12 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45932</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>72344</v>
+        <v>72742</v>
       </c>
       <c r="B414" t="n">
         <v>2</v>
@@ -7065,12 +7065,12 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45957</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>72345</v>
+        <v>72746</v>
       </c>
       <c r="B415" t="n">
         <v>2</v>
@@ -7081,12 +7081,12 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45971</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>72528</v>
+        <v>72983</v>
       </c>
       <c r="B416" t="n">
         <v>2</v>
@@ -7097,12 +7097,12 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45966</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>72531</v>
+        <v>73026</v>
       </c>
       <c r="B417" t="n">
         <v>2</v>
@@ -7113,12 +7113,12 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>72541</v>
+        <v>73485</v>
       </c>
       <c r="B418" t="n">
         <v>2</v>
@@ -7129,12 +7129,12 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45965</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>72659</v>
+        <v>73508</v>
       </c>
       <c r="B419" t="n">
         <v>2</v>
@@ -7145,12 +7145,12 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45959</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>72739</v>
+        <v>73512</v>
       </c>
       <c r="B420" t="n">
         <v>2</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>72742</v>
+        <v>73532</v>
       </c>
       <c r="B421" t="n">
         <v>2</v>
@@ -7177,12 +7177,12 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45936</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>72746</v>
+        <v>73645</v>
       </c>
       <c r="B422" t="n">
         <v>2</v>
@@ -7193,12 +7193,12 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45958</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>72983</v>
+        <v>73647</v>
       </c>
       <c r="B423" t="n">
         <v>2</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>73026</v>
+        <v>73741</v>
       </c>
       <c r="B424" t="n">
         <v>2</v>
@@ -7225,12 +7225,12 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45944</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>73485</v>
+        <v>73743</v>
       </c>
       <c r="B425" t="n">
         <v>2</v>
@@ -7241,12 +7241,12 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45973</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>73508</v>
+        <v>73750</v>
       </c>
       <c r="B426" t="n">
         <v>2</v>
@@ -7257,12 +7257,12 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45952</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>73512</v>
+        <v>73751</v>
       </c>
       <c r="B427" t="n">
         <v>2</v>
@@ -7273,12 +7273,12 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45950</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>73532</v>
+        <v>73759</v>
       </c>
       <c r="B428" t="n">
         <v>2</v>
@@ -7289,12 +7289,12 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45966</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>73645</v>
+        <v>73849</v>
       </c>
       <c r="B429" t="n">
         <v>2</v>
@@ -7305,12 +7305,12 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45953</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>73647</v>
+        <v>74068</v>
       </c>
       <c r="B430" t="n">
         <v>2</v>
@@ -7321,12 +7321,12 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45940</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>73741</v>
+        <v>74243</v>
       </c>
       <c r="B431" t="n">
         <v>2</v>
@@ -7337,12 +7337,12 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45979</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>73743</v>
+        <v>74244</v>
       </c>
       <c r="B432" t="n">
         <v>2</v>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45944</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>73750</v>
+        <v>74298</v>
       </c>
       <c r="B433" t="n">
         <v>2</v>
@@ -7369,12 +7369,12 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>46000</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>73751</v>
+        <v>74245</v>
       </c>
       <c r="B434" t="n">
         <v>2</v>
@@ -7385,12 +7385,12 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45932</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>73759</v>
+        <v>74388</v>
       </c>
       <c r="B435" t="n">
         <v>2</v>
@@ -7401,12 +7401,12 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45958</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>73849</v>
+        <v>74389</v>
       </c>
       <c r="B436" t="n">
         <v>2</v>
@@ -7417,12 +7417,12 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45946</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>74068</v>
+        <v>74396</v>
       </c>
       <c r="B437" t="n">
         <v>2</v>
@@ -7433,12 +7433,12 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45951</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>74243</v>
+        <v>74511</v>
       </c>
       <c r="B438" t="n">
         <v>2</v>
@@ -7449,12 +7449,12 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45961</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>74244</v>
+        <v>74519</v>
       </c>
       <c r="B439" t="n">
         <v>2</v>
@@ -7465,12 +7465,12 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45951</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>74298</v>
+        <v>74824</v>
       </c>
       <c r="B440" t="n">
         <v>2</v>
@@ -7481,12 +7481,12 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45972</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>74245</v>
+        <v>74888</v>
       </c>
       <c r="B441" t="n">
         <v>2</v>
@@ -7497,12 +7497,12 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45944</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>74388</v>
+        <v>74929</v>
       </c>
       <c r="B442" t="n">
         <v>2</v>
@@ -7513,12 +7513,12 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45965</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>74389</v>
+        <v>74968</v>
       </c>
       <c r="B443" t="n">
         <v>2</v>
@@ -7529,12 +7529,12 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45981</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>74396</v>
+        <v>74969</v>
       </c>
       <c r="B444" t="n">
         <v>2</v>
@@ -7545,12 +7545,12 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45937</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>74511</v>
+        <v>74973</v>
       </c>
       <c r="B445" t="n">
         <v>2</v>
@@ -7561,12 +7561,12 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45986</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>74519</v>
+        <v>75127</v>
       </c>
       <c r="B446" t="n">
         <v>2</v>
@@ -7577,12 +7577,12 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45938</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>74824</v>
+        <v>75297</v>
       </c>
       <c r="B447" t="n">
         <v>2</v>
@@ -7593,12 +7593,12 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45989</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>74888</v>
+        <v>75355</v>
       </c>
       <c r="B448" t="n">
         <v>2</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>74929</v>
+        <v>75482</v>
       </c>
       <c r="B449" t="n">
         <v>2</v>
@@ -7625,12 +7625,12 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45971</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>74968</v>
+        <v>75485</v>
       </c>
       <c r="B450" t="n">
         <v>2</v>
@@ -7641,12 +7641,12 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45946</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>74969</v>
+        <v>75525</v>
       </c>
       <c r="B451" t="n">
         <v>2</v>
@@ -7657,12 +7657,12 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45951</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>74973</v>
+        <v>75602</v>
       </c>
       <c r="B452" t="n">
         <v>2</v>
@@ -7673,12 +7673,12 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45996</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>75127</v>
+        <v>75689</v>
       </c>
       <c r="B453" t="n">
         <v>2</v>
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>75297</v>
+        <v>75717</v>
       </c>
       <c r="B454" t="n">
         <v>2</v>
@@ -7705,12 +7705,12 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45974</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>75355</v>
+        <v>75695</v>
       </c>
       <c r="B455" t="n">
         <v>2</v>
@@ -7721,12 +7721,12 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45950</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>75482</v>
+        <v>75697</v>
       </c>
       <c r="B456" t="n">
         <v>2</v>
@@ -7737,12 +7737,12 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45987</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>75485</v>
+        <v>75740</v>
       </c>
       <c r="B457" t="n">
         <v>2</v>
@@ -7753,12 +7753,12 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45931</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>75525</v>
+        <v>75743</v>
       </c>
       <c r="B458" t="n">
         <v>2</v>
@@ -7769,12 +7769,12 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>75602</v>
+        <v>75803</v>
       </c>
       <c r="B459" t="n">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45958</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>75689</v>
+        <v>75911</v>
       </c>
       <c r="B460" t="n">
         <v>2</v>
@@ -7801,12 +7801,12 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45981</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>75717</v>
+        <v>75984</v>
       </c>
       <c r="B461" t="n">
         <v>2</v>
@@ -7817,12 +7817,12 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45940</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>75695</v>
+        <v>75986</v>
       </c>
       <c r="B462" t="n">
         <v>2</v>
@@ -7833,12 +7833,12 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45947</v>
+        <v>45954</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>75697</v>
+        <v>76081</v>
       </c>
       <c r="B463" t="n">
         <v>2</v>
@@ -7849,12 +7849,12 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45959</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>75740</v>
+        <v>76084</v>
       </c>
       <c r="B464" t="n">
         <v>2</v>
@@ -7865,12 +7865,12 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45971</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>75743</v>
+        <v>76296</v>
       </c>
       <c r="B465" t="n">
         <v>2</v>
@@ -7881,12 +7881,12 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45958</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>75803</v>
+        <v>76496</v>
       </c>
       <c r="B466" t="n">
         <v>2</v>
@@ -7897,12 +7897,12 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>46001</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>75911</v>
+        <v>76493</v>
       </c>
       <c r="B467" t="n">
         <v>2</v>
@@ -7913,12 +7913,12 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>75984</v>
+        <v>76497</v>
       </c>
       <c r="B468" t="n">
         <v>2</v>
@@ -7929,12 +7929,12 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45946</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>75986</v>
+        <v>76492</v>
       </c>
       <c r="B469" t="n">
         <v>2</v>
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45954</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>76081</v>
+        <v>76535</v>
       </c>
       <c r="B470" t="n">
         <v>2</v>
@@ -7961,12 +7961,12 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45950</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>76084</v>
+        <v>76711</v>
       </c>
       <c r="B471" t="n">
         <v>2</v>
@@ -7977,12 +7977,12 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>76296</v>
+        <v>76783</v>
       </c>
       <c r="B472" t="n">
         <v>2</v>
@@ -7993,12 +7993,12 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45953</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>76496</v>
+        <v>76792</v>
       </c>
       <c r="B473" t="n">
         <v>2</v>
@@ -8009,12 +8009,12 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45944</v>
+        <v>45958</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>76493</v>
+        <v>76789</v>
       </c>
       <c r="B474" t="n">
         <v>2</v>
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45957</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>76497</v>
+        <v>76878</v>
       </c>
       <c r="B475" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45938</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>76492</v>
+        <v>76938</v>
       </c>
       <c r="B476" t="n">
         <v>2</v>
@@ -8057,12 +8057,12 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45945</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>76535</v>
+        <v>76931</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -8073,12 +8073,12 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45947</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>76711</v>
+        <v>76943</v>
       </c>
       <c r="B478" t="n">
         <v>2</v>
@@ -8089,12 +8089,12 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45971</v>
+        <v>45953</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>76783</v>
+        <v>76932</v>
       </c>
       <c r="B479" t="n">
         <v>2</v>
@@ -8105,12 +8105,12 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45971</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>76792</v>
+        <v>76944</v>
       </c>
       <c r="B480" t="n">
         <v>2</v>
@@ -8121,12 +8121,12 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45958</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>76789</v>
+        <v>76934</v>
       </c>
       <c r="B481" t="n">
         <v>2</v>
@@ -8137,12 +8137,12 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45944</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>76878</v>
+        <v>77001</v>
       </c>
       <c r="B482" t="n">
         <v>2</v>
@@ -8153,12 +8153,12 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45945</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>76938</v>
+        <v>77121</v>
       </c>
       <c r="B483" t="n">
         <v>2</v>
@@ -8169,12 +8169,12 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45937</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>76931</v>
+        <v>77336</v>
       </c>
       <c r="B484" t="n">
         <v>2</v>
@@ -8185,12 +8185,12 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45980</v>
+        <v>45945</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>76943</v>
+        <v>77388</v>
       </c>
       <c r="B485" t="n">
         <v>2</v>
@@ -8201,12 +8201,12 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45968</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>76932</v>
+        <v>77338</v>
       </c>
       <c r="B486" t="n">
         <v>2</v>
@@ -8217,12 +8217,12 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45979</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>76944</v>
+        <v>77389</v>
       </c>
       <c r="B487" t="n">
         <v>2</v>
@@ -8233,12 +8233,12 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45938</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>76934</v>
+        <v>78239</v>
       </c>
       <c r="B488" t="n">
         <v>2</v>
@@ -8249,12 +8249,12 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45974</v>
+        <v>45947</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>77001</v>
+        <v>78313</v>
       </c>
       <c r="B489" t="n">
         <v>2</v>
@@ -8265,12 +8265,12 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45989</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>77121</v>
+        <v>78341</v>
       </c>
       <c r="B490" t="n">
         <v>2</v>
@@ -8281,12 +8281,12 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45959</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>77336</v>
+        <v>78342</v>
       </c>
       <c r="B491" t="n">
         <v>2</v>
@@ -8297,12 +8297,12 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45945</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>77388</v>
+        <v>78373</v>
       </c>
       <c r="B492" t="n">
         <v>2</v>
@@ -8313,12 +8313,12 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45931</v>
+        <v>45957</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>77338</v>
+        <v>78503</v>
       </c>
       <c r="B493" t="n">
         <v>2</v>
@@ -8329,12 +8329,12 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45960</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>77389</v>
+        <v>78599</v>
       </c>
       <c r="B494" t="n">
         <v>2</v>
@@ -8345,12 +8345,12 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45966</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>78239</v>
+        <v>78600</v>
       </c>
       <c r="B495" t="n">
         <v>2</v>
@@ -8361,12 +8361,12 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45971</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>78313</v>
+        <v>78792</v>
       </c>
       <c r="B496" t="n">
         <v>2</v>
@@ -8377,12 +8377,12 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45971</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>78341</v>
+        <v>78789</v>
       </c>
       <c r="B497" t="n">
         <v>2</v>
@@ -8393,12 +8393,12 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45973</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>78342</v>
+        <v>78946</v>
       </c>
       <c r="B498" t="n">
         <v>2</v>
@@ -8409,12 +8409,12 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45959</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>78373</v>
+        <v>79043</v>
       </c>
       <c r="B499" t="n">
         <v>2</v>
@@ -8425,12 +8425,12 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45957</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>78503</v>
+        <v>79042</v>
       </c>
       <c r="B500" t="n">
         <v>2</v>
@@ -8441,12 +8441,12 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>45933</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>78599</v>
+        <v>79279</v>
       </c>
       <c r="B501" t="n">
         <v>2</v>
@@ -8457,12 +8457,12 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>45968</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>78600</v>
+        <v>79280</v>
       </c>
       <c r="B502" t="n">
         <v>2</v>
@@ -8473,12 +8473,12 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>45980</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>78792</v>
+        <v>79281</v>
       </c>
       <c r="B503" t="n">
         <v>2</v>
@@ -8489,12 +8489,12 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>45961</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>78789</v>
+        <v>79346</v>
       </c>
       <c r="B504" t="n">
         <v>2</v>
@@ -8505,12 +8505,12 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>45985</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>78946</v>
+        <v>79284</v>
       </c>
       <c r="B505" t="n">
         <v>2</v>
@@ -8521,12 +8521,12 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>45993</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>79043</v>
+        <v>79286</v>
       </c>
       <c r="B506" t="n">
         <v>2</v>
@@ -8537,12 +8537,12 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>45988</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>79042</v>
+        <v>79348</v>
       </c>
       <c r="B507" t="n">
         <v>2</v>
@@ -8553,12 +8553,12 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>45975</v>
+        <v>45937</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>79279</v>
+        <v>79350</v>
       </c>
       <c r="B508" t="n">
         <v>2</v>
@@ -8569,12 +8569,12 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>45982</v>
+        <v>45952</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>79280</v>
+        <v>79351</v>
       </c>
       <c r="B509" t="n">
         <v>2</v>
@@ -8585,12 +8585,12 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>45960</v>
+        <v>45946</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>79281</v>
+        <v>79352</v>
       </c>
       <c r="B510" t="n">
         <v>2</v>
@@ -8601,12 +8601,12 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>45933</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>79346</v>
+        <v>79540</v>
       </c>
       <c r="B511" t="n">
         <v>2</v>
@@ -8617,12 +8617,12 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>45975</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>79284</v>
+        <v>79541</v>
       </c>
       <c r="B512" t="n">
         <v>2</v>
@@ -8633,12 +8633,12 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>45979</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>79286</v>
+        <v>79535</v>
       </c>
       <c r="B513" t="n">
         <v>2</v>
@@ -8649,12 +8649,12 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>45981</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>79348</v>
+        <v>79536</v>
       </c>
       <c r="B514" t="n">
         <v>2</v>
@@ -8665,12 +8665,12 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>45937</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>79350</v>
+        <v>79538</v>
       </c>
       <c r="B515" t="n">
         <v>2</v>
@@ -8681,12 +8681,12 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>45952</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>79351</v>
+        <v>79600</v>
       </c>
       <c r="B516" t="n">
         <v>2</v>
@@ -8697,12 +8697,12 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>45946</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>79352</v>
+        <v>79601</v>
       </c>
       <c r="B517" t="n">
         <v>2</v>
@@ -8713,12 +8713,12 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>45973</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>79540</v>
+        <v>79604</v>
       </c>
       <c r="B518" t="n">
         <v>2</v>
@@ -8729,12 +8729,12 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>45947</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>79541</v>
+        <v>79612</v>
       </c>
       <c r="B519" t="n">
         <v>2</v>
@@ -8745,12 +8745,12 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>45975</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>79535</v>
+        <v>79532</v>
       </c>
       <c r="B520" t="n">
         <v>2</v>
@@ -8761,12 +8761,12 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>45940</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>79536</v>
+        <v>79613</v>
       </c>
       <c r="B521" t="n">
         <v>2</v>
@@ -8777,12 +8777,12 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>79538</v>
+        <v>79614</v>
       </c>
       <c r="B522" t="n">
         <v>2</v>
@@ -8793,12 +8793,12 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>45975</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>79600</v>
+        <v>79606</v>
       </c>
       <c r="B523" t="n">
         <v>2</v>
@@ -8809,12 +8809,12 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>45965</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>79601</v>
+        <v>79609</v>
       </c>
       <c r="B524" t="n">
         <v>2</v>
@@ -8825,12 +8825,12 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>45985</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>79604</v>
+        <v>79749</v>
       </c>
       <c r="B525" t="n">
         <v>2</v>
@@ -8841,12 +8841,12 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>45938</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>79612</v>
+        <v>79741</v>
       </c>
       <c r="B526" t="n">
         <v>2</v>
@@ -8857,12 +8857,12 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>45958</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>79532</v>
+        <v>79742</v>
       </c>
       <c r="B527" t="n">
         <v>2</v>
@@ -8873,12 +8873,12 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>46007</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>79613</v>
+        <v>79743</v>
       </c>
       <c r="B528" t="n">
         <v>2</v>
@@ -8889,12 +8889,12 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>45932</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>79614</v>
+        <v>79744</v>
       </c>
       <c r="B529" t="n">
         <v>2</v>
@@ -8905,12 +8905,12 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>45938</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>79606</v>
+        <v>79747</v>
       </c>
       <c r="B530" t="n">
         <v>2</v>
@@ -8921,12 +8921,12 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>45950</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>79609</v>
+        <v>79748</v>
       </c>
       <c r="B531" t="n">
         <v>2</v>
@@ -8937,12 +8937,12 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>45975</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>79749</v>
+        <v>79931</v>
       </c>
       <c r="B532" t="n">
         <v>2</v>
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>46008</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>79741</v>
+        <v>79982</v>
       </c>
       <c r="B533" t="n">
         <v>2</v>
@@ -8969,12 +8969,12 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>45975</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>79742</v>
+        <v>79983</v>
       </c>
       <c r="B534" t="n">
         <v>2</v>
@@ -8985,12 +8985,12 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>45981</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>79743</v>
+        <v>79976</v>
       </c>
       <c r="B535" t="n">
         <v>2</v>
@@ -9001,12 +9001,12 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>45965</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>79744</v>
+        <v>79981</v>
       </c>
       <c r="B536" t="n">
         <v>2</v>
@@ -9017,12 +9017,12 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>45972</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>79747</v>
+        <v>80119</v>
       </c>
       <c r="B537" t="n">
         <v>2</v>
@@ -9033,12 +9033,12 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>45985</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>79748</v>
+        <v>80239</v>
       </c>
       <c r="B538" t="n">
         <v>2</v>
@@ -9049,12 +9049,12 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>45981</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>79931</v>
+        <v>80240</v>
       </c>
       <c r="B539" t="n">
         <v>2</v>
@@ -9065,12 +9065,12 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>45936</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>79982</v>
+        <v>80433</v>
       </c>
       <c r="B540" t="n">
         <v>2</v>
@@ -9081,12 +9081,12 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>79983</v>
+        <v>80434</v>
       </c>
       <c r="B541" t="n">
         <v>2</v>
@@ -9097,12 +9097,12 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>45973</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>79976</v>
+        <v>80577</v>
       </c>
       <c r="B542" t="n">
         <v>2</v>
@@ -9113,12 +9113,12 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>45979</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>79981</v>
+        <v>80578</v>
       </c>
       <c r="B543" t="n">
         <v>2</v>
@@ -9129,12 +9129,12 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>45993</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>80119</v>
+        <v>80581</v>
       </c>
       <c r="B544" t="n">
         <v>2</v>
@@ -9145,12 +9145,12 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>45950</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>80239</v>
+        <v>80652</v>
       </c>
       <c r="B545" t="n">
         <v>2</v>
@@ -9161,12 +9161,12 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>45951</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>80240</v>
+        <v>80654</v>
       </c>
       <c r="B546" t="n">
         <v>2</v>
@@ -9177,12 +9177,12 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>45944</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>80433</v>
+        <v>80655</v>
       </c>
       <c r="B547" t="n">
         <v>2</v>
@@ -9193,12 +9193,12 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>45944</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>80434</v>
+        <v>80656</v>
       </c>
       <c r="B548" t="n">
         <v>2</v>
@@ -9209,12 +9209,12 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>45981</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>80577</v>
+        <v>80721</v>
       </c>
       <c r="B549" t="n">
         <v>2</v>
@@ -9225,118 +9225,6 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>45967</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="n">
-        <v>80578</v>
-      </c>
-      <c r="B550" t="n">
-        <v>2</v>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D550" s="2" t="n">
-        <v>45985</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="n">
-        <v>80581</v>
-      </c>
-      <c r="B551" t="n">
-        <v>2</v>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D551" s="2" t="n">
-        <v>45982</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="n">
-        <v>80652</v>
-      </c>
-      <c r="B552" t="n">
-        <v>2</v>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D552" s="2" t="n">
-        <v>45968</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="n">
-        <v>80654</v>
-      </c>
-      <c r="B553" t="n">
-        <v>2</v>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D553" s="2" t="n">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="n">
-        <v>80655</v>
-      </c>
-      <c r="B554" t="n">
-        <v>2</v>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D554" s="2" t="n">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="n">
-        <v>80656</v>
-      </c>
-      <c r="B555" t="n">
-        <v>2</v>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D555" s="2" t="n">
-        <v>45936</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="n">
-        <v>80721</v>
-      </c>
-      <c r="B556" t="n">
-        <v>2</v>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>Alistamiento</t>
-        </is>
-      </c>
-      <c r="D556" s="2" t="n">
         <v>45992</v>
       </c>
     </row>
@@ -9378,7 +9266,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
